--- a/Программа мер-тий + прогрессивные с разбивкой -Лещун.xlsx
+++ b/Программа мер-тий + прогрессивные с разбивкой -Лещун.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Перехвал\Белтелеком Междуг связь\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Перехвал\Белтелеком_Междуг_связь\Beltelekom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ABBF89-9377-49A3-97D4-CCBBACFD2E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DF6B34-D4C6-45DF-A5E3-E5F55FD4D942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7470" yWindow="8340" windowWidth="14115" windowHeight="7260" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="изоляции задвижки" sheetId="22" state="hidden" r:id="rId1"/>
@@ -5288,7 +5288,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="549">
+  <cellXfs count="550">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6322,6 +6322,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="50" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6367,12 +6373,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -6397,18 +6397,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6417,6 +6405,12 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -6432,6 +6426,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6454,22 +6454,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6478,23 +6469,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6502,49 +6508,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6554,15 +6518,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6583,25 +6538,49 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6626,6 +6605,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6654,171 +6654,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="9" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6850,8 +6685,14 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6861,6 +6702,165 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -6891,6 +6891,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -8230,13 +8233,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="360" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="375" t="s">
+      <c r="B1" s="360" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="375" t="s">
+      <c r="C1" s="360" t="s">
         <v>158</v>
       </c>
       <c r="D1" s="131" t="s">
@@ -8251,11 +8254,11 @@
       <c r="G1" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="374" t="s">
+      <c r="H1" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
+      <c r="I1" s="359"/>
+      <c r="J1" s="359"/>
       <c r="K1" s="131" t="s">
         <v>224</v>
       </c>
@@ -8270,9 +8273,9 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A2" s="375"/>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
+      <c r="A2" s="360"/>
+      <c r="B2" s="360"/>
+      <c r="C2" s="360"/>
       <c r="D2" s="104" t="s">
         <v>204</v>
       </c>
@@ -8304,20 +8307,20 @@
       <c r="P2" s="132"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="360" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="375"/>
-      <c r="C3" s="375"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="375"/>
-      <c r="G3" s="375"/>
-      <c r="H3" s="375"/>
-      <c r="I3" s="375"/>
-      <c r="J3" s="375"/>
-      <c r="K3" s="375"/>
-      <c r="L3" s="375"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="360"/>
+      <c r="L3" s="360"/>
       <c r="O3" s="132" t="s">
         <v>166</v>
       </c>
@@ -8416,20 +8419,20 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="363" t="s">
+      <c r="A6" s="365" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="363"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
-      <c r="G6" s="363"/>
-      <c r="H6" s="363"/>
-      <c r="I6" s="363"/>
-      <c r="J6" s="363"/>
-      <c r="K6" s="363"/>
-      <c r="L6" s="363"/>
+      <c r="B6" s="365"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="365"/>
+      <c r="F6" s="365"/>
+      <c r="G6" s="365"/>
+      <c r="H6" s="365"/>
+      <c r="I6" s="365"/>
+      <c r="J6" s="365"/>
+      <c r="K6" s="365"/>
+      <c r="L6" s="365"/>
       <c r="Q6" s="130">
         <v>1900</v>
       </c>
@@ -8498,20 +8501,20 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="363" t="s">
+      <c r="A8" s="365" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="363"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="F8" s="363"/>
-      <c r="G8" s="363"/>
-      <c r="H8" s="363"/>
-      <c r="I8" s="363"/>
-      <c r="J8" s="363"/>
-      <c r="K8" s="363"/>
-      <c r="L8" s="363"/>
+      <c r="B8" s="365"/>
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="365"/>
+      <c r="G8" s="365"/>
+      <c r="H8" s="365"/>
+      <c r="I8" s="365"/>
+      <c r="J8" s="365"/>
+      <c r="K8" s="365"/>
+      <c r="L8" s="365"/>
       <c r="Q8" s="130">
         <f>Q7*0.1</f>
         <v>38</v>
@@ -8583,20 +8586,20 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="363" t="s">
+      <c r="A10" s="365" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="363"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
-      <c r="G10" s="363"/>
-      <c r="H10" s="363"/>
-      <c r="I10" s="363"/>
-      <c r="J10" s="363"/>
-      <c r="K10" s="363"/>
-      <c r="L10" s="363"/>
+      <c r="B10" s="365"/>
+      <c r="C10" s="365"/>
+      <c r="D10" s="365"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
+      <c r="G10" s="365"/>
+      <c r="H10" s="365"/>
+      <c r="I10" s="365"/>
+      <c r="J10" s="365"/>
+      <c r="K10" s="365"/>
+      <c r="L10" s="365"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="159">
@@ -8716,20 +8719,20 @@
       </c>
     </row>
     <row r="18" spans="4:19" ht="15.75" hidden="1" thickBot="1">
-      <c r="E18" s="364" t="s">
+      <c r="E18" s="366" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="365"/>
-      <c r="G18" s="365"/>
-      <c r="H18" s="365"/>
-      <c r="I18" s="365"/>
-      <c r="J18" s="365"/>
-      <c r="K18" s="365"/>
-      <c r="L18" s="365"/>
-      <c r="M18" s="365"/>
-      <c r="N18" s="365"/>
-      <c r="O18" s="365"/>
-      <c r="P18" s="366"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="367"/>
+      <c r="I18" s="367"/>
+      <c r="J18" s="367"/>
+      <c r="K18" s="367"/>
+      <c r="L18" s="367"/>
+      <c r="M18" s="367"/>
+      <c r="N18" s="367"/>
+      <c r="O18" s="367"/>
+      <c r="P18" s="368"/>
       <c r="S18" s="130">
         <f>S17*0.2</f>
         <v>500</v>
@@ -9222,35 +9225,35 @@
       <c r="I45" s="156"/>
     </row>
     <row r="46" spans="2:12" ht="48" customHeight="1" thickBot="1">
-      <c r="B46" s="367" t="s">
+      <c r="B46" s="369" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="367" t="s">
+      <c r="C46" s="369" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="367" t="s">
+      <c r="D46" s="369" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="369" t="s">
+      <c r="E46" s="371" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="370"/>
-      <c r="G46" s="371" t="s">
+      <c r="F46" s="372"/>
+      <c r="G46" s="373" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="372"/>
-      <c r="I46" s="373"/>
-      <c r="J46" s="367" t="s">
+      <c r="H46" s="374"/>
+      <c r="I46" s="375"/>
+      <c r="J46" s="369" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="367" t="s">
+      <c r="K46" s="369" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B47" s="368"/>
-      <c r="C47" s="368"/>
-      <c r="D47" s="368"/>
+      <c r="B47" s="370"/>
+      <c r="C47" s="370"/>
+      <c r="D47" s="370"/>
       <c r="E47" s="207" t="s">
         <v>43</v>
       </c>
@@ -9266,22 +9269,22 @@
       <c r="I47" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="368"/>
-      <c r="K47" s="368"/>
+      <c r="J47" s="370"/>
+      <c r="K47" s="370"/>
     </row>
     <row r="48" spans="2:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B48" s="359" t="s">
+      <c r="B48" s="361" t="s">
         <v>259</v>
       </c>
-      <c r="C48" s="360"/>
-      <c r="D48" s="360"/>
-      <c r="E48" s="360"/>
-      <c r="F48" s="360"/>
-      <c r="G48" s="360"/>
-      <c r="H48" s="360"/>
-      <c r="I48" s="360"/>
-      <c r="J48" s="360"/>
-      <c r="K48" s="361"/>
+      <c r="C48" s="362"/>
+      <c r="D48" s="362"/>
+      <c r="E48" s="362"/>
+      <c r="F48" s="362"/>
+      <c r="G48" s="362"/>
+      <c r="H48" s="362"/>
+      <c r="I48" s="362"/>
+      <c r="J48" s="362"/>
+      <c r="K48" s="363"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B49" s="206">
@@ -9316,18 +9319,18 @@
       </c>
     </row>
     <row r="50" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B50" s="359" t="s">
+      <c r="B50" s="361" t="s">
         <v>321</v>
       </c>
-      <c r="C50" s="360"/>
-      <c r="D50" s="360"/>
-      <c r="E50" s="360"/>
-      <c r="F50" s="360"/>
-      <c r="G50" s="360"/>
-      <c r="H50" s="360"/>
-      <c r="I50" s="360"/>
-      <c r="J50" s="360"/>
-      <c r="K50" s="361"/>
+      <c r="C50" s="362"/>
+      <c r="D50" s="362"/>
+      <c r="E50" s="362"/>
+      <c r="F50" s="362"/>
+      <c r="G50" s="362"/>
+      <c r="H50" s="362"/>
+      <c r="I50" s="362"/>
+      <c r="J50" s="362"/>
+      <c r="K50" s="363"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B51" s="206">
@@ -9362,18 +9365,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B52" s="359" t="s">
+      <c r="B52" s="361" t="s">
         <v>322</v>
       </c>
-      <c r="C52" s="360"/>
-      <c r="D52" s="360"/>
-      <c r="E52" s="360"/>
-      <c r="F52" s="360"/>
-      <c r="G52" s="360"/>
-      <c r="H52" s="360"/>
-      <c r="I52" s="360"/>
-      <c r="J52" s="360"/>
-      <c r="K52" s="362"/>
+      <c r="C52" s="362"/>
+      <c r="D52" s="362"/>
+      <c r="E52" s="362"/>
+      <c r="F52" s="362"/>
+      <c r="G52" s="362"/>
+      <c r="H52" s="362"/>
+      <c r="I52" s="362"/>
+      <c r="J52" s="362"/>
+      <c r="K52" s="364"/>
     </row>
     <row r="53" spans="2:11" ht="16.5" thickBot="1">
       <c r="B53" s="206">
@@ -9440,11 +9443,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:L3"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B52:K52"/>
@@ -9459,6 +9457,11 @@
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="K46:K47"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -9493,35 +9496,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="102.75" customHeight="1">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="440" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="440" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="421" t="s">
+      <c r="C3" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="421" t="s">
+      <c r="D3" s="440" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="421"/>
-      <c r="F3" s="426" t="s">
+      <c r="E3" s="440"/>
+      <c r="F3" s="445" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="421" t="s">
+      <c r="G3" s="445"/>
+      <c r="H3" s="445"/>
+      <c r="I3" s="440" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="421" t="s">
+      <c r="J3" s="440" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="98.25" customHeight="1">
-      <c r="A4" s="421"/>
-      <c r="B4" s="421"/>
-      <c r="C4" s="421"/>
+      <c r="A4" s="440"/>
+      <c r="B4" s="440"/>
+      <c r="C4" s="440"/>
       <c r="D4" s="68" t="s">
         <v>43</v>
       </c>
@@ -9537,22 +9540,22 @@
       <c r="H4" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="421"/>
-      <c r="J4" s="421"/>
+      <c r="I4" s="440"/>
+      <c r="J4" s="440"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="422" t="s">
+      <c r="A5" s="441" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="423"/>
-      <c r="C5" s="423"/>
-      <c r="D5" s="423"/>
-      <c r="E5" s="423"/>
-      <c r="F5" s="423"/>
-      <c r="G5" s="423"/>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423"/>
-      <c r="J5" s="424"/>
+      <c r="B5" s="442"/>
+      <c r="C5" s="442"/>
+      <c r="D5" s="442"/>
+      <c r="E5" s="442"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="442"/>
+      <c r="H5" s="442"/>
+      <c r="I5" s="442"/>
+      <c r="J5" s="443"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="60">
@@ -9678,18 +9681,18 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="422" t="s">
+      <c r="A9" s="441" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="423"/>
-      <c r="C9" s="423"/>
-      <c r="D9" s="423"/>
-      <c r="E9" s="423"/>
-      <c r="F9" s="423"/>
-      <c r="G9" s="423"/>
-      <c r="H9" s="423"/>
-      <c r="I9" s="423"/>
-      <c r="J9" s="424"/>
+      <c r="B9" s="442"/>
+      <c r="C9" s="442"/>
+      <c r="D9" s="442"/>
+      <c r="E9" s="442"/>
+      <c r="F9" s="442"/>
+      <c r="G9" s="442"/>
+      <c r="H9" s="442"/>
+      <c r="I9" s="442"/>
+      <c r="J9" s="443"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="60">
@@ -9727,11 +9730,11 @@
         <f>I10/H10</f>
         <v>0.63488672928269629</v>
       </c>
-      <c r="N10" s="425" t="s">
+      <c r="N10" s="444" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="425"/>
-      <c r="P10" s="425"/>
+      <c r="O10" s="444"/>
+      <c r="P10" s="444"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="60">
@@ -9822,43 +9825,43 @@
       <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:18" ht="122.25" customHeight="1" thickBot="1">
-      <c r="A15" s="437" t="s">
+      <c r="A15" s="438" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="427" t="s">
+      <c r="B15" s="433" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="427" t="s">
+      <c r="C15" s="433" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="427" t="s">
+      <c r="D15" s="433" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="427" t="s">
+      <c r="E15" s="433" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="427" t="s">
+      <c r="F15" s="433" t="s">
         <v>288</v>
       </c>
-      <c r="G15" s="429" t="s">
+      <c r="G15" s="435" t="s">
         <v>289</v>
       </c>
-      <c r="H15" s="430"/>
-      <c r="I15" s="431"/>
-      <c r="J15" s="427" t="s">
+      <c r="H15" s="436"/>
+      <c r="I15" s="437"/>
+      <c r="J15" s="433" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="427" t="s">
+      <c r="K15" s="433" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="66.75" thickBot="1">
-      <c r="A16" s="438"/>
-      <c r="B16" s="428"/>
-      <c r="C16" s="428"/>
-      <c r="D16" s="428"/>
-      <c r="E16" s="428"/>
-      <c r="F16" s="428"/>
+      <c r="A16" s="439"/>
+      <c r="B16" s="434"/>
+      <c r="C16" s="434"/>
+      <c r="D16" s="434"/>
+      <c r="E16" s="434"/>
+      <c r="F16" s="434"/>
       <c r="G16" s="212" t="s">
         <v>49</v>
       </c>
@@ -9868,14 +9871,14 @@
       <c r="I16" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="428"/>
-      <c r="K16" s="428"/>
+      <c r="J16" s="434"/>
+      <c r="K16" s="434"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A17" s="432" t="s">
+      <c r="A17" s="421" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="432">
+      <c r="B17" s="421">
         <v>64</v>
       </c>
       <c r="C17" s="210" t="s">
@@ -9884,50 +9887,50 @@
       <c r="D17" s="210">
         <v>0.08</v>
       </c>
-      <c r="E17" s="432">
+      <c r="E17" s="421">
         <v>2150</v>
       </c>
       <c r="F17" s="175">
         <v>11</v>
       </c>
-      <c r="G17" s="432">
+      <c r="G17" s="421">
         <v>6.05</v>
       </c>
-      <c r="H17" s="435">
+      <c r="H17" s="423">
         <v>1.87</v>
       </c>
-      <c r="I17" s="432">
+      <c r="I17" s="421">
         <v>1.01</v>
       </c>
-      <c r="J17" s="432">
+      <c r="J17" s="421">
         <v>3.82</v>
       </c>
-      <c r="K17" s="432">
+      <c r="K17" s="421">
         <v>3.77</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A18" s="433"/>
-      <c r="B18" s="434"/>
+      <c r="A18" s="432"/>
+      <c r="B18" s="422"/>
       <c r="C18" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D18" s="210">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E18" s="434"/>
+      <c r="E18" s="422"/>
       <c r="F18" s="175">
         <v>5</v>
       </c>
-      <c r="G18" s="434"/>
-      <c r="H18" s="436"/>
-      <c r="I18" s="434"/>
-      <c r="J18" s="434"/>
-      <c r="K18" s="434"/>
+      <c r="G18" s="422"/>
+      <c r="H18" s="424"/>
+      <c r="I18" s="422"/>
+      <c r="J18" s="422"/>
+      <c r="K18" s="422"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A19" s="433"/>
-      <c r="B19" s="432">
+      <c r="A19" s="432"/>
+      <c r="B19" s="421">
         <v>35</v>
       </c>
       <c r="C19" s="210" t="s">
@@ -9936,50 +9939,50 @@
       <c r="D19" s="210">
         <v>0.25</v>
       </c>
-      <c r="E19" s="432">
+      <c r="E19" s="421">
         <v>2150</v>
       </c>
       <c r="F19" s="175">
         <v>18.8</v>
       </c>
-      <c r="G19" s="432">
+      <c r="G19" s="421">
         <v>12.79</v>
       </c>
-      <c r="H19" s="435">
+      <c r="H19" s="423">
         <v>3.96</v>
       </c>
-      <c r="I19" s="432">
+      <c r="I19" s="421">
         <v>2.14</v>
       </c>
-      <c r="J19" s="432">
+      <c r="J19" s="421">
         <v>9.75</v>
       </c>
-      <c r="K19" s="432">
+      <c r="K19" s="421">
         <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A20" s="433"/>
-      <c r="B20" s="434"/>
+      <c r="A20" s="432"/>
+      <c r="B20" s="422"/>
       <c r="C20" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D20" s="210">
         <v>0.08</v>
       </c>
-      <c r="E20" s="434"/>
+      <c r="E20" s="422"/>
       <c r="F20" s="175">
         <v>6</v>
       </c>
-      <c r="G20" s="434"/>
-      <c r="H20" s="436"/>
-      <c r="I20" s="434"/>
-      <c r="J20" s="434"/>
-      <c r="K20" s="434"/>
+      <c r="G20" s="422"/>
+      <c r="H20" s="424"/>
+      <c r="I20" s="422"/>
+      <c r="J20" s="422"/>
+      <c r="K20" s="422"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A21" s="433"/>
-      <c r="B21" s="432">
+      <c r="A21" s="432"/>
+      <c r="B21" s="421">
         <v>65</v>
       </c>
       <c r="C21" s="210" t="s">
@@ -9988,52 +9991,52 @@
       <c r="D21" s="210">
         <v>0.06</v>
       </c>
-      <c r="E21" s="432">
+      <c r="E21" s="421">
         <v>2150</v>
       </c>
       <c r="F21" s="175">
         <v>8.4</v>
       </c>
-      <c r="G21" s="432">
+      <c r="G21" s="421">
         <v>7.41</v>
       </c>
-      <c r="H21" s="435">
+      <c r="H21" s="423">
         <v>2.29</v>
       </c>
-      <c r="I21" s="432">
+      <c r="I21" s="421">
         <v>1.24</v>
       </c>
-      <c r="J21" s="432">
+      <c r="J21" s="421">
         <v>0.61</v>
       </c>
-      <c r="K21" s="432">
+      <c r="K21" s="421">
         <v>0.49</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A22" s="434"/>
-      <c r="B22" s="434"/>
+      <c r="A22" s="422"/>
+      <c r="B22" s="422"/>
       <c r="C22" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D22" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E22" s="434"/>
+      <c r="E22" s="422"/>
       <c r="F22" s="175">
         <v>1</v>
       </c>
-      <c r="G22" s="434"/>
-      <c r="H22" s="436"/>
-      <c r="I22" s="434"/>
-      <c r="J22" s="434"/>
-      <c r="K22" s="434"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="424"/>
+      <c r="I22" s="422"/>
+      <c r="J22" s="422"/>
+      <c r="K22" s="422"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A23" s="432" t="s">
+      <c r="A23" s="421" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="432">
+      <c r="B23" s="421">
         <v>76</v>
       </c>
       <c r="C23" s="210" t="s">
@@ -10042,50 +10045,50 @@
       <c r="D23" s="210">
         <v>0.08</v>
       </c>
-      <c r="E23" s="432">
+      <c r="E23" s="421">
         <v>2150</v>
       </c>
       <c r="F23" s="175">
         <v>13.1</v>
       </c>
-      <c r="G23" s="432">
+      <c r="G23" s="421">
         <v>7.19</v>
       </c>
-      <c r="H23" s="435">
+      <c r="H23" s="423">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I23" s="432">
+      <c r="I23" s="421">
         <v>1.2</v>
       </c>
-      <c r="J23" s="432">
+      <c r="J23" s="421">
         <v>4.53</v>
       </c>
-      <c r="K23" s="432">
+      <c r="K23" s="421">
         <v>3.77</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A24" s="433"/>
-      <c r="B24" s="434"/>
+      <c r="A24" s="432"/>
+      <c r="B24" s="422"/>
       <c r="C24" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D24" s="210">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E24" s="434"/>
+      <c r="E24" s="422"/>
       <c r="F24" s="175">
         <v>5.9</v>
       </c>
-      <c r="G24" s="434"/>
-      <c r="H24" s="436"/>
-      <c r="I24" s="434"/>
-      <c r="J24" s="434"/>
-      <c r="K24" s="434"/>
+      <c r="G24" s="422"/>
+      <c r="H24" s="424"/>
+      <c r="I24" s="422"/>
+      <c r="J24" s="422"/>
+      <c r="K24" s="422"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A25" s="433"/>
-      <c r="B25" s="432">
+      <c r="A25" s="432"/>
+      <c r="B25" s="421">
         <v>4</v>
       </c>
       <c r="C25" s="210" t="s">
@@ -10094,50 +10097,50 @@
       <c r="D25" s="210">
         <v>0.25</v>
       </c>
-      <c r="E25" s="432">
+      <c r="E25" s="421">
         <v>2150</v>
       </c>
       <c r="F25" s="175">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G25" s="432">
+      <c r="G25" s="421">
         <v>1.46</v>
       </c>
-      <c r="H25" s="435">
+      <c r="H25" s="423">
         <v>0.45</v>
       </c>
-      <c r="I25" s="432">
+      <c r="I25" s="421">
         <v>0.24</v>
       </c>
-      <c r="J25" s="432">
+      <c r="J25" s="421">
         <v>1.35</v>
       </c>
-      <c r="K25" s="432">
+      <c r="K25" s="421">
         <v>5.52</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A26" s="433"/>
-      <c r="B26" s="434"/>
+      <c r="A26" s="432"/>
+      <c r="B26" s="422"/>
       <c r="C26" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D26" s="210">
         <v>0.08</v>
       </c>
-      <c r="E26" s="434"/>
+      <c r="E26" s="422"/>
       <c r="F26" s="175">
         <v>0.7</v>
       </c>
-      <c r="G26" s="434"/>
-      <c r="H26" s="436"/>
-      <c r="I26" s="434"/>
-      <c r="J26" s="434"/>
-      <c r="K26" s="434"/>
+      <c r="G26" s="422"/>
+      <c r="H26" s="424"/>
+      <c r="I26" s="422"/>
+      <c r="J26" s="422"/>
+      <c r="K26" s="422"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A27" s="433"/>
-      <c r="B27" s="432">
+      <c r="A27" s="432"/>
+      <c r="B27" s="421">
         <v>19</v>
       </c>
       <c r="C27" s="210" t="s">
@@ -10146,50 +10149,50 @@
       <c r="D27" s="210">
         <v>0.06</v>
       </c>
-      <c r="E27" s="432">
+      <c r="E27" s="421">
         <v>2150</v>
       </c>
       <c r="F27" s="175">
         <v>2.5</v>
       </c>
-      <c r="G27" s="432">
+      <c r="G27" s="421">
         <v>2.17</v>
       </c>
-      <c r="H27" s="435">
+      <c r="H27" s="423">
         <v>0.67</v>
       </c>
-      <c r="I27" s="432">
+      <c r="I27" s="421">
         <v>0.36</v>
       </c>
-      <c r="J27" s="432">
+      <c r="J27" s="421">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K27" s="432">
+      <c r="K27" s="421">
         <v>3.08</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A28" s="433"/>
-      <c r="B28" s="434"/>
+      <c r="A28" s="432"/>
+      <c r="B28" s="422"/>
       <c r="C28" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D28" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="434"/>
+      <c r="E28" s="422"/>
       <c r="F28" s="175">
         <v>0.3</v>
       </c>
-      <c r="G28" s="434"/>
-      <c r="H28" s="436"/>
-      <c r="I28" s="434"/>
-      <c r="J28" s="434"/>
-      <c r="K28" s="434"/>
+      <c r="G28" s="422"/>
+      <c r="H28" s="424"/>
+      <c r="I28" s="422"/>
+      <c r="J28" s="422"/>
+      <c r="K28" s="422"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A29" s="433"/>
-      <c r="B29" s="432">
+      <c r="A29" s="432"/>
+      <c r="B29" s="421">
         <v>6</v>
       </c>
       <c r="C29" s="210" t="s">
@@ -10198,52 +10201,52 @@
       <c r="D29" s="210">
         <v>0.125</v>
       </c>
-      <c r="E29" s="432">
+      <c r="E29" s="421">
         <v>2150</v>
       </c>
       <c r="F29" s="175">
         <v>1.6</v>
       </c>
-      <c r="G29" s="432">
+      <c r="G29" s="421">
         <v>0.84</v>
       </c>
-      <c r="H29" s="435">
+      <c r="H29" s="423">
         <v>0.26</v>
       </c>
-      <c r="I29" s="432">
+      <c r="I29" s="421">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J29" s="432">
+      <c r="J29" s="421">
         <v>0.19</v>
       </c>
-      <c r="K29" s="432">
+      <c r="K29" s="421">
         <v>1.36</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A30" s="434"/>
-      <c r="B30" s="434"/>
+      <c r="A30" s="422"/>
+      <c r="B30" s="422"/>
       <c r="C30" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D30" s="210">
         <v>0.06</v>
       </c>
-      <c r="E30" s="434"/>
+      <c r="E30" s="422"/>
       <c r="F30" s="175">
         <v>0.8</v>
       </c>
-      <c r="G30" s="434"/>
-      <c r="H30" s="436"/>
-      <c r="I30" s="434"/>
-      <c r="J30" s="434"/>
-      <c r="K30" s="434"/>
+      <c r="G30" s="422"/>
+      <c r="H30" s="424"/>
+      <c r="I30" s="422"/>
+      <c r="J30" s="422"/>
+      <c r="K30" s="422"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A31" s="435" t="s">
+      <c r="A31" s="423" t="s">
         <v>296</v>
       </c>
-      <c r="B31" s="432">
+      <c r="B31" s="421">
         <v>7</v>
       </c>
       <c r="C31" s="210" t="s">
@@ -10252,50 +10255,50 @@
       <c r="D31" s="210">
         <v>0.08</v>
       </c>
-      <c r="E31" s="432">
+      <c r="E31" s="421">
         <v>950</v>
       </c>
       <c r="F31" s="175">
         <v>0.5</v>
       </c>
-      <c r="G31" s="432">
+      <c r="G31" s="421">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H31" s="435">
+      <c r="H31" s="423">
         <v>0.09</v>
       </c>
-      <c r="I31" s="432">
+      <c r="I31" s="421">
         <v>0.05</v>
       </c>
-      <c r="J31" s="432">
+      <c r="J31" s="421">
         <v>0.42</v>
       </c>
-      <c r="K31" s="432">
+      <c r="K31" s="421">
         <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A32" s="439"/>
-      <c r="B32" s="434"/>
+      <c r="A32" s="431"/>
+      <c r="B32" s="422"/>
       <c r="C32" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D32" s="210">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E32" s="434"/>
+      <c r="E32" s="422"/>
       <c r="F32" s="175">
         <v>0.2</v>
       </c>
-      <c r="G32" s="434"/>
-      <c r="H32" s="436"/>
-      <c r="I32" s="434"/>
-      <c r="J32" s="434"/>
-      <c r="K32" s="434"/>
+      <c r="G32" s="422"/>
+      <c r="H32" s="424"/>
+      <c r="I32" s="422"/>
+      <c r="J32" s="422"/>
+      <c r="K32" s="422"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A33" s="439"/>
-      <c r="B33" s="432">
+      <c r="A33" s="431"/>
+      <c r="B33" s="421">
         <v>41</v>
       </c>
       <c r="C33" s="210" t="s">
@@ -10304,52 +10307,52 @@
       <c r="D33" s="210">
         <v>0.06</v>
       </c>
-      <c r="E33" s="432">
+      <c r="E33" s="421">
         <v>950</v>
       </c>
       <c r="F33" s="175">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G33" s="432">
+      <c r="G33" s="421">
         <v>2.06</v>
       </c>
-      <c r="H33" s="435">
+      <c r="H33" s="423">
         <v>0.64</v>
       </c>
-      <c r="I33" s="432">
+      <c r="I33" s="421">
         <v>0.35</v>
       </c>
-      <c r="J33" s="432">
+      <c r="J33" s="421">
         <v>0.39</v>
       </c>
-      <c r="K33" s="432">
+      <c r="K33" s="421">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A34" s="436"/>
-      <c r="B34" s="434"/>
+      <c r="A34" s="424"/>
+      <c r="B34" s="422"/>
       <c r="C34" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D34" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="434"/>
+      <c r="E34" s="422"/>
       <c r="F34" s="175">
         <v>0.3</v>
       </c>
-      <c r="G34" s="434"/>
-      <c r="H34" s="436"/>
-      <c r="I34" s="434"/>
-      <c r="J34" s="434"/>
-      <c r="K34" s="434"/>
+      <c r="G34" s="422"/>
+      <c r="H34" s="424"/>
+      <c r="I34" s="422"/>
+      <c r="J34" s="422"/>
+      <c r="K34" s="422"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A35" s="443" t="s">
+      <c r="A35" s="428" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="432">
+      <c r="B35" s="421">
         <v>12</v>
       </c>
       <c r="C35" s="210" t="s">
@@ -10358,50 +10361,50 @@
       <c r="D35" s="210">
         <v>0.08</v>
       </c>
-      <c r="E35" s="432">
+      <c r="E35" s="421">
         <v>1200</v>
       </c>
       <c r="F35" s="175">
         <v>1.2</v>
       </c>
-      <c r="G35" s="432">
+      <c r="G35" s="421">
         <v>0.63</v>
       </c>
-      <c r="H35" s="435">
+      <c r="H35" s="423">
         <v>0.2</v>
       </c>
-      <c r="I35" s="432">
+      <c r="I35" s="421">
         <v>0.11</v>
       </c>
-      <c r="J35" s="432">
+      <c r="J35" s="421">
         <v>0.72</v>
       </c>
-      <c r="K35" s="432">
+      <c r="K35" s="421">
         <v>6.75</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A36" s="444"/>
-      <c r="B36" s="434"/>
+      <c r="A36" s="429"/>
+      <c r="B36" s="422"/>
       <c r="C36" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D36" s="210">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E36" s="434"/>
+      <c r="E36" s="422"/>
       <c r="F36" s="175">
         <v>0.5</v>
       </c>
-      <c r="G36" s="434"/>
-      <c r="H36" s="436"/>
-      <c r="I36" s="434"/>
-      <c r="J36" s="434"/>
-      <c r="K36" s="434"/>
+      <c r="G36" s="422"/>
+      <c r="H36" s="424"/>
+      <c r="I36" s="422"/>
+      <c r="J36" s="422"/>
+      <c r="K36" s="422"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A37" s="444"/>
-      <c r="B37" s="432">
+      <c r="A37" s="429"/>
+      <c r="B37" s="421">
         <v>25</v>
       </c>
       <c r="C37" s="210" t="s">
@@ -10410,52 +10413,52 @@
       <c r="D37" s="210">
         <v>0.06</v>
       </c>
-      <c r="E37" s="432">
+      <c r="E37" s="421">
         <v>1200</v>
       </c>
       <c r="F37" s="175">
         <v>1.8</v>
       </c>
-      <c r="G37" s="432">
+      <c r="G37" s="421">
         <v>1.59</v>
       </c>
-      <c r="H37" s="435">
+      <c r="H37" s="423">
         <v>0.49</v>
       </c>
-      <c r="I37" s="432">
+      <c r="I37" s="421">
         <v>0.27</v>
       </c>
-      <c r="J37" s="432">
+      <c r="J37" s="421">
         <v>0.24</v>
       </c>
-      <c r="K37" s="432">
+      <c r="K37" s="421">
         <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A38" s="445"/>
-      <c r="B38" s="434"/>
+      <c r="A38" s="430"/>
+      <c r="B38" s="422"/>
       <c r="C38" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D38" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E38" s="434"/>
+      <c r="E38" s="422"/>
       <c r="F38" s="175">
         <v>0.2</v>
       </c>
-      <c r="G38" s="434"/>
-      <c r="H38" s="436"/>
-      <c r="I38" s="434"/>
-      <c r="J38" s="434"/>
-      <c r="K38" s="434"/>
+      <c r="G38" s="422"/>
+      <c r="H38" s="424"/>
+      <c r="I38" s="422"/>
+      <c r="J38" s="422"/>
+      <c r="K38" s="422"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A39" s="440" t="s">
+      <c r="A39" s="425" t="s">
         <v>298</v>
       </c>
-      <c r="B39" s="432">
+      <c r="B39" s="421">
         <v>2</v>
       </c>
       <c r="C39" s="210" t="s">
@@ -10464,50 +10467,50 @@
       <c r="D39" s="210">
         <v>0.25</v>
       </c>
-      <c r="E39" s="432">
+      <c r="E39" s="421">
         <v>1200</v>
       </c>
       <c r="F39" s="175">
         <v>0.6</v>
       </c>
-      <c r="G39" s="432">
+      <c r="G39" s="421">
         <v>0.41</v>
       </c>
-      <c r="H39" s="435">
+      <c r="H39" s="423">
         <v>0.13</v>
       </c>
-      <c r="I39" s="432">
+      <c r="I39" s="421">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J39" s="432">
+      <c r="J39" s="421">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K39" s="432">
+      <c r="K39" s="421">
         <v>8.16</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A40" s="441"/>
-      <c r="B40" s="434"/>
+      <c r="A40" s="426"/>
+      <c r="B40" s="422"/>
       <c r="C40" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D40" s="210">
         <v>0.08</v>
       </c>
-      <c r="E40" s="434"/>
+      <c r="E40" s="422"/>
       <c r="F40" s="175">
         <v>0.2</v>
       </c>
-      <c r="G40" s="434"/>
-      <c r="H40" s="436"/>
-      <c r="I40" s="434"/>
-      <c r="J40" s="434"/>
-      <c r="K40" s="434"/>
+      <c r="G40" s="422"/>
+      <c r="H40" s="424"/>
+      <c r="I40" s="422"/>
+      <c r="J40" s="422"/>
+      <c r="K40" s="422"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A41" s="441"/>
-      <c r="B41" s="432">
+      <c r="A41" s="426"/>
+      <c r="B41" s="421">
         <v>35</v>
       </c>
       <c r="C41" s="210" t="s">
@@ -10516,52 +10519,52 @@
       <c r="D41" s="210">
         <v>0.06</v>
       </c>
-      <c r="E41" s="432">
+      <c r="E41" s="421">
         <v>1200</v>
       </c>
       <c r="F41" s="175">
         <v>2.5</v>
       </c>
-      <c r="G41" s="432">
+      <c r="G41" s="421">
         <v>2.23</v>
       </c>
-      <c r="H41" s="435">
+      <c r="H41" s="423">
         <v>0.69</v>
       </c>
-      <c r="I41" s="432">
+      <c r="I41" s="421">
         <v>0.37</v>
       </c>
-      <c r="J41" s="432">
+      <c r="J41" s="421">
         <v>0.33</v>
       </c>
-      <c r="K41" s="432">
+      <c r="K41" s="421">
         <v>0.88</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A42" s="442"/>
-      <c r="B42" s="434"/>
+      <c r="A42" s="427"/>
+      <c r="B42" s="422"/>
       <c r="C42" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D42" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E42" s="434"/>
+      <c r="E42" s="422"/>
       <c r="F42" s="175">
         <v>0.3</v>
       </c>
-      <c r="G42" s="434"/>
-      <c r="H42" s="436"/>
-      <c r="I42" s="434"/>
-      <c r="J42" s="434"/>
-      <c r="K42" s="434"/>
+      <c r="G42" s="422"/>
+      <c r="H42" s="424"/>
+      <c r="I42" s="422"/>
+      <c r="J42" s="422"/>
+      <c r="K42" s="422"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A43" s="440" t="s">
+      <c r="A43" s="425" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="432">
+      <c r="B43" s="421">
         <v>8</v>
       </c>
       <c r="C43" s="210" t="s">
@@ -10570,50 +10573,50 @@
       <c r="D43" s="210">
         <v>0.25</v>
       </c>
-      <c r="E43" s="432">
+      <c r="E43" s="421">
         <v>2150</v>
       </c>
       <c r="F43" s="175">
         <v>4.3</v>
       </c>
-      <c r="G43" s="432">
+      <c r="G43" s="421">
         <v>2.92</v>
       </c>
-      <c r="H43" s="435">
+      <c r="H43" s="423">
         <v>0.9</v>
       </c>
-      <c r="I43" s="432">
+      <c r="I43" s="421">
         <v>0.49</v>
       </c>
-      <c r="J43" s="432">
+      <c r="J43" s="421">
         <v>2.23</v>
       </c>
-      <c r="K43" s="432">
+      <c r="K43" s="421">
         <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A44" s="441"/>
-      <c r="B44" s="434"/>
+      <c r="A44" s="426"/>
+      <c r="B44" s="422"/>
       <c r="C44" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D44" s="210">
         <v>0.08</v>
       </c>
-      <c r="E44" s="434"/>
+      <c r="E44" s="422"/>
       <c r="F44" s="175">
         <v>1.4</v>
       </c>
-      <c r="G44" s="434"/>
-      <c r="H44" s="436"/>
-      <c r="I44" s="434"/>
-      <c r="J44" s="434"/>
-      <c r="K44" s="434"/>
+      <c r="G44" s="422"/>
+      <c r="H44" s="424"/>
+      <c r="I44" s="422"/>
+      <c r="J44" s="422"/>
+      <c r="K44" s="422"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="441"/>
-      <c r="B45" s="432">
+      <c r="A45" s="426"/>
+      <c r="B45" s="421">
         <v>38</v>
       </c>
       <c r="C45" s="210" t="s">
@@ -10622,52 +10625,52 @@
       <c r="D45" s="210">
         <v>0.06</v>
       </c>
-      <c r="E45" s="432">
+      <c r="E45" s="421">
         <v>2150</v>
       </c>
       <c r="F45" s="175">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G45" s="432">
+      <c r="G45" s="421">
         <v>4.33</v>
       </c>
-      <c r="H45" s="435">
+      <c r="H45" s="423">
         <v>1.34</v>
       </c>
-      <c r="I45" s="432">
+      <c r="I45" s="421">
         <v>0.72</v>
       </c>
-      <c r="J45" s="432">
+      <c r="J45" s="421">
         <v>0.36</v>
       </c>
-      <c r="K45" s="432">
+      <c r="K45" s="421">
         <v>0.49</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A46" s="442"/>
-      <c r="B46" s="434"/>
+      <c r="A46" s="427"/>
+      <c r="B46" s="422"/>
       <c r="C46" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D46" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E46" s="434"/>
+      <c r="E46" s="422"/>
       <c r="F46" s="175">
         <v>0.6</v>
       </c>
-      <c r="G46" s="434"/>
-      <c r="H46" s="436"/>
-      <c r="I46" s="434"/>
-      <c r="J46" s="434"/>
-      <c r="K46" s="434"/>
+      <c r="G46" s="422"/>
+      <c r="H46" s="424"/>
+      <c r="I46" s="422"/>
+      <c r="J46" s="422"/>
+      <c r="K46" s="422"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A47" s="440" t="s">
+      <c r="A47" s="425" t="s">
         <v>301</v>
       </c>
-      <c r="B47" s="432">
+      <c r="B47" s="421">
         <v>12</v>
       </c>
       <c r="C47" s="210" t="s">
@@ -10676,50 +10679,50 @@
       <c r="D47" s="210">
         <v>0.25</v>
       </c>
-      <c r="E47" s="432">
+      <c r="E47" s="421">
         <v>1200</v>
       </c>
       <c r="F47" s="175">
         <v>3.6</v>
       </c>
-      <c r="G47" s="432">
+      <c r="G47" s="421">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H47" s="435">
+      <c r="H47" s="423">
         <v>0.76</v>
       </c>
-      <c r="I47" s="432">
+      <c r="I47" s="421">
         <v>0.41</v>
       </c>
-      <c r="J47" s="432">
+      <c r="J47" s="421">
         <v>3.34</v>
       </c>
-      <c r="K47" s="432">
+      <c r="K47" s="421">
         <v>8.16</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A48" s="441"/>
-      <c r="B48" s="434"/>
+      <c r="A48" s="426"/>
+      <c r="B48" s="422"/>
       <c r="C48" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D48" s="210">
         <v>0.08</v>
       </c>
-      <c r="E48" s="434"/>
+      <c r="E48" s="422"/>
       <c r="F48" s="175">
         <v>1.2</v>
       </c>
-      <c r="G48" s="434"/>
-      <c r="H48" s="436"/>
-      <c r="I48" s="434"/>
-      <c r="J48" s="434"/>
-      <c r="K48" s="434"/>
+      <c r="G48" s="422"/>
+      <c r="H48" s="424"/>
+      <c r="I48" s="422"/>
+      <c r="J48" s="422"/>
+      <c r="K48" s="422"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A49" s="441"/>
-      <c r="B49" s="432">
+      <c r="A49" s="426"/>
+      <c r="B49" s="421">
         <v>45</v>
       </c>
       <c r="C49" s="210" t="s">
@@ -10728,67 +10731,152 @@
       <c r="D49" s="210">
         <v>0.06</v>
       </c>
-      <c r="E49" s="432">
+      <c r="E49" s="421">
         <v>1200</v>
       </c>
       <c r="F49" s="175">
         <v>3.2</v>
       </c>
-      <c r="G49" s="432">
+      <c r="G49" s="421">
         <v>2.86</v>
       </c>
-      <c r="H49" s="435">
+      <c r="H49" s="423">
         <v>0.88</v>
       </c>
-      <c r="I49" s="432">
+      <c r="I49" s="421">
         <v>0.48</v>
       </c>
-      <c r="J49" s="432">
+      <c r="J49" s="421">
         <v>0.42</v>
       </c>
-      <c r="K49" s="432">
+      <c r="K49" s="421">
         <v>0.88</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A50" s="442"/>
-      <c r="B50" s="434"/>
+      <c r="A50" s="427"/>
+      <c r="B50" s="422"/>
       <c r="C50" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D50" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E50" s="434"/>
+      <c r="E50" s="422"/>
       <c r="F50" s="175">
         <v>0.4</v>
       </c>
-      <c r="G50" s="434"/>
-      <c r="H50" s="436"/>
-      <c r="I50" s="434"/>
-      <c r="J50" s="434"/>
-      <c r="K50" s="434"/>
+      <c r="G50" s="422"/>
+      <c r="H50" s="424"/>
+      <c r="I50" s="422"/>
+      <c r="J50" s="422"/>
+      <c r="K50" s="422"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="G33:G34"/>
@@ -10813,109 +10901,24 @@
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="J43:J44"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10968,43 +10971,43 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="114.75" customHeight="1">
-      <c r="A4" s="451" t="s">
+      <c r="A4" s="459" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="446" t="s">
+      <c r="B4" s="454" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="446" t="s">
+      <c r="C4" s="454" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="446" t="s">
+      <c r="D4" s="454" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="452" t="s">
+      <c r="E4" s="460" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="452"/>
-      <c r="G4" s="452"/>
-      <c r="H4" s="446" t="s">
+      <c r="F4" s="460"/>
+      <c r="G4" s="460"/>
+      <c r="H4" s="454" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="446" t="s">
+      <c r="I4" s="454" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="447" t="s">
+      <c r="K4" s="455" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="447"/>
-      <c r="M4" s="447"/>
-      <c r="N4" s="447"/>
-      <c r="O4" s="447"/>
+      <c r="L4" s="455"/>
+      <c r="M4" s="455"/>
+      <c r="N4" s="455"/>
+      <c r="O4" s="455"/>
       <c r="P4" s="182"/>
     </row>
     <row r="5" spans="1:16" ht="111.75" customHeight="1">
-      <c r="A5" s="451"/>
-      <c r="B5" s="446"/>
-      <c r="C5" s="446"/>
-      <c r="D5" s="446"/>
+      <c r="A5" s="459"/>
+      <c r="B5" s="454"/>
+      <c r="C5" s="454"/>
+      <c r="D5" s="454"/>
       <c r="E5" s="183" t="s">
         <v>24</v>
       </c>
@@ -11014,8 +11017,8 @@
       <c r="G5" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="446"/>
-      <c r="I5" s="446"/>
+      <c r="H5" s="454"/>
+      <c r="I5" s="454"/>
       <c r="J5" s="184"/>
       <c r="K5" s="185" t="s">
         <v>244</v>
@@ -11092,12 +11095,12 @@
       <c r="P6" s="190"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="448" t="s">
+      <c r="A7" s="456" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="449"/>
-      <c r="C7" s="449"/>
-      <c r="D7" s="450"/>
+      <c r="B7" s="457"/>
+      <c r="C7" s="457"/>
+      <c r="D7" s="458"/>
       <c r="E7" s="191">
         <f>SUM(E6:E6)</f>
         <v>15.512</v>
@@ -11126,35 +11129,35 @@
       <c r="A9" s="193"/>
     </row>
     <row r="10" spans="1:16" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A10" s="453" t="s">
+      <c r="A10" s="446" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="453" t="s">
+      <c r="B10" s="446" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="453" t="s">
+      <c r="C10" s="446" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="458" t="s">
+      <c r="D10" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="459"/>
-      <c r="F10" s="458" t="s">
+      <c r="E10" s="452"/>
+      <c r="F10" s="451" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="460"/>
-      <c r="H10" s="459"/>
-      <c r="I10" s="453" t="s">
+      <c r="G10" s="453"/>
+      <c r="H10" s="452"/>
+      <c r="I10" s="446" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="453" t="s">
+      <c r="J10" s="446" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="43.5" thickBot="1">
-      <c r="A11" s="454"/>
-      <c r="B11" s="454"/>
-      <c r="C11" s="454"/>
+      <c r="A11" s="447"/>
+      <c r="B11" s="447"/>
+      <c r="C11" s="447"/>
       <c r="D11" s="215" t="s">
         <v>43</v>
       </c>
@@ -11170,22 +11173,22 @@
       <c r="H11" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="454"/>
-      <c r="J11" s="454"/>
+      <c r="I11" s="447"/>
+      <c r="J11" s="447"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A12" s="455" t="s">
+      <c r="A12" s="448" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="456"/>
-      <c r="C12" s="456"/>
-      <c r="D12" s="456"/>
-      <c r="E12" s="456"/>
-      <c r="F12" s="456"/>
-      <c r="G12" s="456"/>
-      <c r="H12" s="456"/>
-      <c r="I12" s="456"/>
-      <c r="J12" s="457"/>
+      <c r="B12" s="449"/>
+      <c r="C12" s="449"/>
+      <c r="D12" s="449"/>
+      <c r="E12" s="449"/>
+      <c r="F12" s="449"/>
+      <c r="G12" s="449"/>
+      <c r="H12" s="449"/>
+      <c r="I12" s="449"/>
+      <c r="J12" s="450"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1">
       <c r="A13" s="217">
@@ -11220,18 +11223,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A14" s="455" t="s">
+      <c r="A14" s="448" t="s">
         <v>285</v>
       </c>
-      <c r="B14" s="456"/>
-      <c r="C14" s="456"/>
-      <c r="D14" s="456"/>
-      <c r="E14" s="456"/>
-      <c r="F14" s="456"/>
-      <c r="G14" s="456"/>
-      <c r="H14" s="456"/>
-      <c r="I14" s="456"/>
-      <c r="J14" s="457"/>
+      <c r="B14" s="449"/>
+      <c r="C14" s="449"/>
+      <c r="D14" s="449"/>
+      <c r="E14" s="449"/>
+      <c r="F14" s="449"/>
+      <c r="G14" s="449"/>
+      <c r="H14" s="449"/>
+      <c r="I14" s="449"/>
+      <c r="J14" s="450"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" thickBot="1">
       <c r="A15" s="217">
@@ -11299,6 +11302,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="A12:J12"/>
@@ -11308,15 +11320,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -11349,58 +11352,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="82.5" customHeight="1" thickBot="1">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="421" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="432" t="s">
+      <c r="B1" s="421" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="432" t="s">
+      <c r="C1" s="421" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="432" t="s">
+      <c r="D1" s="421" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="432" t="s">
+      <c r="E1" s="421" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="432" t="s">
+      <c r="F1" s="421" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="432" t="s">
+      <c r="G1" s="421" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="432" t="s">
+      <c r="H1" s="421" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="371" t="s">
+      <c r="I1" s="373" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="373"/>
-      <c r="K1" s="432" t="s">
+      <c r="J1" s="375"/>
+      <c r="K1" s="421" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="432" t="s">
+      <c r="L1" s="421" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="434"/>
-      <c r="B2" s="434"/>
-      <c r="C2" s="434"/>
-      <c r="D2" s="434"/>
-      <c r="E2" s="434"/>
-      <c r="F2" s="434"/>
-      <c r="G2" s="434"/>
-      <c r="H2" s="434"/>
+      <c r="A2" s="422"/>
+      <c r="B2" s="422"/>
+      <c r="C2" s="422"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="422"/>
+      <c r="G2" s="422"/>
+      <c r="H2" s="422"/>
       <c r="I2" s="175" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="434"/>
-      <c r="L2" s="434"/>
+      <c r="K2" s="422"/>
+      <c r="L2" s="422"/>
     </row>
     <row r="3" spans="1:12" ht="32.25" thickBot="1">
       <c r="A3" s="174" t="s">
@@ -11514,10 +11517,10 @@
     </row>
     <row r="20" spans="1:3" ht="13.5" thickBot="1"/>
     <row r="21" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A21" s="429" t="s">
+      <c r="A21" s="435" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="431"/>
+      <c r="B21" s="437"/>
       <c r="C21" s="213" t="s">
         <v>243</v>
       </c>
@@ -11589,23 +11592,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11631,45 +11634,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="65.25" customHeight="1">
-      <c r="A2" s="374" t="s">
+      <c r="A2" s="359" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="468" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="469"/>
-      <c r="D2" s="374" t="s">
+      <c r="D2" s="359" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="374" t="s">
+      <c r="E2" s="359" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="374" t="s">
+      <c r="F2" s="359" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374" t="s">
+      <c r="G2" s="359"/>
+      <c r="H2" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374" t="s">
+      <c r="I2" s="359"/>
+      <c r="J2" s="359"/>
+      <c r="K2" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="374" t="s">
+      <c r="L2" s="359" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="374"/>
+      <c r="A3" s="359"/>
       <c r="B3" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="359"/>
       <c r="F3" s="17" t="s">
         <v>54</v>
       </c>
@@ -11685,8 +11688,8 @@
       <c r="J3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="374"/>
-      <c r="L3" s="374"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="359"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="400"/>
@@ -11902,47 +11905,47 @@
     </row>
     <row r="20" spans="1:12" ht="13.5" thickBot="1"/>
     <row r="21" spans="1:12" ht="165" customHeight="1" thickBot="1">
-      <c r="A21" s="437" t="s">
+      <c r="A21" s="438" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="427" t="s">
+      <c r="B21" s="433" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="427" t="s">
+      <c r="C21" s="433" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="427" t="s">
+      <c r="D21" s="433" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="427" t="s">
+      <c r="E21" s="433" t="s">
         <v>275</v>
       </c>
-      <c r="F21" s="427" t="s">
+      <c r="F21" s="433" t="s">
         <v>276</v>
       </c>
-      <c r="G21" s="427" t="s">
+      <c r="G21" s="433" t="s">
         <v>277</v>
       </c>
-      <c r="H21" s="429" t="s">
+      <c r="H21" s="435" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="430"/>
-      <c r="J21" s="431"/>
-      <c r="K21" s="427" t="s">
+      <c r="I21" s="436"/>
+      <c r="J21" s="437"/>
+      <c r="K21" s="433" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="427" t="s">
+      <c r="L21" s="433" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A22" s="438"/>
-      <c r="B22" s="428"/>
-      <c r="C22" s="428"/>
-      <c r="D22" s="428"/>
-      <c r="E22" s="428"/>
-      <c r="F22" s="428"/>
-      <c r="G22" s="428"/>
+      <c r="A22" s="439"/>
+      <c r="B22" s="434"/>
+      <c r="C22" s="434"/>
+      <c r="D22" s="434"/>
+      <c r="E22" s="434"/>
+      <c r="F22" s="434"/>
+      <c r="G22" s="434"/>
       <c r="H22" s="212" t="s">
         <v>49</v>
       </c>
@@ -11952,24 +11955,24 @@
       <c r="J22" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="428"/>
-      <c r="L22" s="428"/>
+      <c r="K22" s="434"/>
+      <c r="L22" s="434"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A23" s="359" t="s">
+      <c r="A23" s="361" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="360"/>
-      <c r="C23" s="360"/>
-      <c r="D23" s="360"/>
-      <c r="E23" s="360"/>
-      <c r="F23" s="360"/>
-      <c r="G23" s="360"/>
-      <c r="H23" s="360"/>
-      <c r="I23" s="360"/>
-      <c r="J23" s="360"/>
-      <c r="K23" s="360"/>
-      <c r="L23" s="362"/>
+      <c r="B23" s="362"/>
+      <c r="C23" s="362"/>
+      <c r="D23" s="362"/>
+      <c r="E23" s="362"/>
+      <c r="F23" s="362"/>
+      <c r="G23" s="362"/>
+      <c r="H23" s="362"/>
+      <c r="I23" s="362"/>
+      <c r="J23" s="362"/>
+      <c r="K23" s="362"/>
+      <c r="L23" s="364"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickBot="1">
       <c r="A24" s="174" t="s">
@@ -12071,6 +12074,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A23:L23"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
@@ -12082,16 +12095,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12104,8 +12107,8 @@
   </sheetPr>
   <dimension ref="A1:AL553"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D272" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E281" sqref="E281"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D254" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E277" sqref="E277:E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12143,76 +12146,76 @@
       <c r="B1" s="14"/>
       <c r="C1" s="1"/>
       <c r="D1" s="277"/>
-      <c r="E1" s="516" t="s">
+      <c r="E1" s="487" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
-      <c r="K1" s="516"/>
-      <c r="L1" s="516"/>
-      <c r="M1" s="516"/>
-      <c r="N1" s="516"/>
-      <c r="O1" s="516"/>
-      <c r="P1" s="516"/>
-      <c r="Q1" s="516"/>
-      <c r="R1" s="516"/>
-      <c r="S1" s="516"/>
-      <c r="T1" s="516"/>
-      <c r="U1" s="516"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
+      <c r="L1" s="487"/>
+      <c r="M1" s="487"/>
+      <c r="N1" s="487"/>
+      <c r="O1" s="487"/>
+      <c r="P1" s="487"/>
+      <c r="Q1" s="487"/>
+      <c r="R1" s="487"/>
+      <c r="S1" s="487"/>
+      <c r="T1" s="487"/>
+      <c r="U1" s="487"/>
       <c r="V1" s="20"/>
       <c r="W1" s="22"/>
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="499" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="491" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="494" t="s">
+      <c r="B2" s="500" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="507" t="s">
+      <c r="D2" s="506" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="512" t="s">
+      <c r="E2" s="516" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="513" t="s">
+      <c r="F2" s="517" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="517" t="s">
+      <c r="G2" s="490" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="518"/>
-      <c r="I2" s="518"/>
-      <c r="J2" s="519"/>
-      <c r="K2" s="514" t="s">
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="492"/>
+      <c r="K2" s="518" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="505" t="s">
+      <c r="L2" s="493" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="485" t="s">
+      <c r="M2" s="503" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="505" t="s">
+      <c r="N2" s="493" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="521" t="s">
+      <c r="O2" s="495" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="522"/>
-      <c r="Q2" s="522"/>
-      <c r="R2" s="522"/>
-      <c r="S2" s="522"/>
-      <c r="T2" s="522"/>
-      <c r="U2" s="523"/>
+      <c r="P2" s="496"/>
+      <c r="Q2" s="496"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="496"/>
+      <c r="T2" s="496"/>
+      <c r="U2" s="497"/>
       <c r="V2" s="30"/>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
@@ -12227,47 +12230,47 @@
       <c r="AL2" s="23"/>
     </row>
     <row r="3" spans="1:38" ht="75.75" customHeight="1">
-      <c r="A3" s="489"/>
-      <c r="B3" s="492"/>
-      <c r="C3" s="495"/>
-      <c r="D3" s="498"/>
-      <c r="E3" s="495"/>
-      <c r="F3" s="510"/>
-      <c r="G3" s="489" t="s">
+      <c r="A3" s="488"/>
+      <c r="B3" s="501"/>
+      <c r="C3" s="514"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="514"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="488" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="489" t="s">
+      <c r="H3" s="488" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="489" t="s">
+      <c r="I3" s="488" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="510" t="s">
+      <c r="J3" s="511" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="508"/>
-      <c r="L3" s="508"/>
-      <c r="M3" s="486"/>
-      <c r="N3" s="508"/>
-      <c r="O3" s="505" t="s">
+      <c r="K3" s="509"/>
+      <c r="L3" s="509"/>
+      <c r="M3" s="504"/>
+      <c r="N3" s="509"/>
+      <c r="O3" s="493" t="s">
         <v>333</v>
       </c>
-      <c r="P3" s="505" t="s">
+      <c r="P3" s="493" t="s">
         <v>332</v>
       </c>
-      <c r="Q3" s="505" t="s">
+      <c r="Q3" s="493" t="s">
         <v>334</v>
       </c>
-      <c r="R3" s="470" t="s">
+      <c r="R3" s="480" t="s">
         <v>335</v>
       </c>
-      <c r="S3" s="505" t="s">
+      <c r="S3" s="493" t="s">
         <v>338</v>
       </c>
-      <c r="T3" s="505" t="s">
+      <c r="T3" s="493" t="s">
         <v>336</v>
       </c>
-      <c r="U3" s="505" t="s">
+      <c r="U3" s="493" t="s">
         <v>337</v>
       </c>
       <c r="V3" s="31"/>
@@ -12285,27 +12288,27 @@
       <c r="AL3" s="171"/>
     </row>
     <row r="4" spans="1:38" ht="52.5" customHeight="1">
-      <c r="A4" s="490"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="496"/>
-      <c r="D4" s="499"/>
-      <c r="E4" s="496"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="490"/>
-      <c r="H4" s="490"/>
-      <c r="I4" s="490"/>
-      <c r="J4" s="511"/>
-      <c r="K4" s="509"/>
-      <c r="L4" s="509"/>
-      <c r="M4" s="487"/>
-      <c r="N4" s="509"/>
-      <c r="O4" s="506"/>
-      <c r="P4" s="506"/>
-      <c r="Q4" s="506"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="506"/>
-      <c r="T4" s="506"/>
-      <c r="U4" s="506"/>
+      <c r="A4" s="489"/>
+      <c r="B4" s="502"/>
+      <c r="C4" s="515"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="515"/>
+      <c r="F4" s="512"/>
+      <c r="G4" s="489"/>
+      <c r="H4" s="489"/>
+      <c r="I4" s="489"/>
+      <c r="J4" s="512"/>
+      <c r="K4" s="510"/>
+      <c r="L4" s="510"/>
+      <c r="M4" s="505"/>
+      <c r="N4" s="510"/>
+      <c r="O4" s="494"/>
+      <c r="P4" s="494"/>
+      <c r="Q4" s="494"/>
+      <c r="R4" s="482"/>
+      <c r="S4" s="494"/>
+      <c r="T4" s="494"/>
+      <c r="U4" s="494"/>
       <c r="V4" s="32"/>
       <c r="W4" s="35" t="s">
         <v>32</v>
@@ -12337,26 +12340,26 @@
       <c r="A5" s="199"/>
       <c r="B5" s="200"/>
       <c r="C5" s="201"/>
-      <c r="D5" s="515" t="s">
+      <c r="D5" s="486" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="515"/>
-      <c r="I5" s="515"/>
-      <c r="J5" s="515"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="515"/>
-      <c r="M5" s="515"/>
-      <c r="N5" s="515"/>
-      <c r="O5" s="515"/>
-      <c r="P5" s="515"/>
-      <c r="Q5" s="515"/>
-      <c r="R5" s="515"/>
-      <c r="S5" s="515"/>
-      <c r="T5" s="515"/>
-      <c r="U5" s="515"/>
+      <c r="E5" s="486"/>
+      <c r="F5" s="486"/>
+      <c r="G5" s="486"/>
+      <c r="H5" s="486"/>
+      <c r="I5" s="486"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="486"/>
+      <c r="L5" s="486"/>
+      <c r="M5" s="486"/>
+      <c r="N5" s="486"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="486"/>
+      <c r="Q5" s="486"/>
+      <c r="R5" s="486"/>
+      <c r="S5" s="486"/>
+      <c r="T5" s="486"/>
+      <c r="U5" s="486"/>
       <c r="V5" s="32"/>
       <c r="Z5" s="202"/>
       <c r="AA5" s="202"/>
@@ -12879,26 +12882,26 @@
       <c r="A13" s="199"/>
       <c r="B13" s="200"/>
       <c r="C13" s="201"/>
-      <c r="D13" s="524" t="s">
+      <c r="D13" s="498" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="524"/>
-      <c r="F13" s="524"/>
-      <c r="G13" s="524"/>
-      <c r="H13" s="524"/>
-      <c r="I13" s="524"/>
-      <c r="J13" s="524"/>
-      <c r="K13" s="524"/>
-      <c r="L13" s="524"/>
-      <c r="M13" s="524"/>
-      <c r="N13" s="524"/>
-      <c r="O13" s="524"/>
-      <c r="P13" s="524"/>
-      <c r="Q13" s="524"/>
-      <c r="R13" s="524"/>
-      <c r="S13" s="524"/>
-      <c r="T13" s="524"/>
-      <c r="U13" s="524"/>
+      <c r="E13" s="498"/>
+      <c r="F13" s="498"/>
+      <c r="G13" s="498"/>
+      <c r="H13" s="498"/>
+      <c r="I13" s="498"/>
+      <c r="J13" s="498"/>
+      <c r="K13" s="498"/>
+      <c r="L13" s="498"/>
+      <c r="M13" s="498"/>
+      <c r="N13" s="498"/>
+      <c r="O13" s="498"/>
+      <c r="P13" s="498"/>
+      <c r="Q13" s="498"/>
+      <c r="R13" s="498"/>
+      <c r="S13" s="498"/>
+      <c r="T13" s="498"/>
+      <c r="U13" s="498"/>
       <c r="V13" s="32"/>
       <c r="Z13" s="202"/>
       <c r="AA13" s="202"/>
@@ -13029,26 +13032,26 @@
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="515" t="s">
+      <c r="D16" s="486" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="515"/>
-      <c r="F16" s="515"/>
-      <c r="G16" s="515"/>
-      <c r="H16" s="515"/>
-      <c r="I16" s="515"/>
-      <c r="J16" s="515"/>
-      <c r="K16" s="515"/>
-      <c r="L16" s="515"/>
-      <c r="M16" s="515"/>
-      <c r="N16" s="515"/>
-      <c r="O16" s="515"/>
-      <c r="P16" s="515"/>
-      <c r="Q16" s="515"/>
-      <c r="R16" s="515"/>
-      <c r="S16" s="515"/>
-      <c r="T16" s="515"/>
-      <c r="U16" s="515"/>
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
+      <c r="G16" s="486"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="486"/>
+      <c r="J16" s="486"/>
+      <c r="K16" s="486"/>
+      <c r="L16" s="486"/>
+      <c r="M16" s="486"/>
+      <c r="N16" s="486"/>
+      <c r="O16" s="486"/>
+      <c r="P16" s="486"/>
+      <c r="Q16" s="486"/>
+      <c r="R16" s="486"/>
+      <c r="S16" s="486"/>
+      <c r="T16" s="486"/>
+      <c r="U16" s="486"/>
       <c r="V16" s="33"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
@@ -13101,8 +13104,8 @@
       <c r="W17" s="268"/>
       <c r="X17" s="268"/>
       <c r="Y17" s="268"/>
-      <c r="Z17" s="527"/>
-      <c r="AA17" s="528"/>
+      <c r="Z17" s="472"/>
+      <c r="AA17" s="473"/>
       <c r="AC17" s="270"/>
     </row>
     <row r="18" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -13152,8 +13155,8 @@
       <c r="W18" s="268"/>
       <c r="X18" s="268"/>
       <c r="Y18" s="268"/>
-      <c r="Z18" s="531"/>
-      <c r="AA18" s="532"/>
+      <c r="Z18" s="476"/>
+      <c r="AA18" s="477"/>
       <c r="AC18" s="270"/>
     </row>
     <row r="19" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -13203,8 +13206,8 @@
       <c r="W19" s="268"/>
       <c r="X19" s="268"/>
       <c r="Y19" s="268"/>
-      <c r="Z19" s="531"/>
-      <c r="AA19" s="532"/>
+      <c r="Z19" s="476"/>
+      <c r="AA19" s="477"/>
       <c r="AC19" s="270"/>
     </row>
     <row r="20" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13254,8 +13257,8 @@
       <c r="W20" s="268"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="268"/>
-      <c r="Z20" s="531"/>
-      <c r="AA20" s="532"/>
+      <c r="Z20" s="476"/>
+      <c r="AA20" s="477"/>
       <c r="AC20" s="270"/>
     </row>
     <row r="21" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13308,8 +13311,8 @@
       <c r="W21" s="268"/>
       <c r="X21" s="268"/>
       <c r="Y21" s="268"/>
-      <c r="Z21" s="531"/>
-      <c r="AA21" s="532"/>
+      <c r="Z21" s="476"/>
+      <c r="AA21" s="477"/>
       <c r="AC21" s="270"/>
     </row>
     <row r="22" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13359,8 +13362,8 @@
       <c r="W22" s="268"/>
       <c r="X22" s="268"/>
       <c r="Y22" s="268"/>
-      <c r="Z22" s="531"/>
-      <c r="AA22" s="532"/>
+      <c r="Z22" s="476"/>
+      <c r="AA22" s="477"/>
       <c r="AC22" s="270"/>
     </row>
     <row r="23" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13410,8 +13413,8 @@
       <c r="W23" s="268"/>
       <c r="X23" s="268"/>
       <c r="Y23" s="268"/>
-      <c r="Z23" s="531"/>
-      <c r="AA23" s="532"/>
+      <c r="Z23" s="476"/>
+      <c r="AA23" s="477"/>
       <c r="AC23" s="270"/>
     </row>
     <row r="24" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13461,8 +13464,8 @@
       <c r="W24" s="268"/>
       <c r="X24" s="268"/>
       <c r="Y24" s="268"/>
-      <c r="Z24" s="531"/>
-      <c r="AA24" s="532"/>
+      <c r="Z24" s="476"/>
+      <c r="AA24" s="477"/>
       <c r="AC24" s="270"/>
     </row>
     <row r="25" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13512,8 +13515,8 @@
       <c r="W25" s="268"/>
       <c r="X25" s="268"/>
       <c r="Y25" s="268"/>
-      <c r="Z25" s="531"/>
-      <c r="AA25" s="532"/>
+      <c r="Z25" s="476"/>
+      <c r="AA25" s="477"/>
       <c r="AC25" s="270"/>
     </row>
     <row r="26" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13563,8 +13566,8 @@
       <c r="W26" s="268"/>
       <c r="X26" s="268"/>
       <c r="Y26" s="268"/>
-      <c r="Z26" s="531"/>
-      <c r="AA26" s="532"/>
+      <c r="Z26" s="476"/>
+      <c r="AA26" s="477"/>
       <c r="AC26" s="270"/>
     </row>
     <row r="27" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13614,8 +13617,8 @@
       <c r="W27" s="268"/>
       <c r="X27" s="268"/>
       <c r="Y27" s="268"/>
-      <c r="Z27" s="531"/>
-      <c r="AA27" s="532"/>
+      <c r="Z27" s="476"/>
+      <c r="AA27" s="477"/>
       <c r="AC27" s="270"/>
       <c r="AD27" s="306"/>
     </row>
@@ -13666,8 +13669,8 @@
       <c r="W28" s="268"/>
       <c r="X28" s="268"/>
       <c r="Y28" s="268"/>
-      <c r="Z28" s="531"/>
-      <c r="AA28" s="532"/>
+      <c r="Z28" s="476"/>
+      <c r="AA28" s="477"/>
       <c r="AC28" s="270"/>
     </row>
     <row r="29" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13717,8 +13720,8 @@
       <c r="W29" s="268"/>
       <c r="X29" s="268"/>
       <c r="Y29" s="268"/>
-      <c r="Z29" s="531"/>
-      <c r="AA29" s="532"/>
+      <c r="Z29" s="476"/>
+      <c r="AA29" s="477"/>
       <c r="AC29" s="270"/>
     </row>
     <row r="30" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13768,8 +13771,8 @@
       <c r="W30" s="268"/>
       <c r="X30" s="268"/>
       <c r="Y30" s="268"/>
-      <c r="Z30" s="531"/>
-      <c r="AA30" s="532"/>
+      <c r="Z30" s="476"/>
+      <c r="AA30" s="477"/>
       <c r="AC30" s="270"/>
     </row>
     <row r="31" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13819,8 +13822,8 @@
       <c r="W31" s="268"/>
       <c r="X31" s="268"/>
       <c r="Y31" s="268"/>
-      <c r="Z31" s="531"/>
-      <c r="AA31" s="532"/>
+      <c r="Z31" s="476"/>
+      <c r="AA31" s="477"/>
       <c r="AC31" s="270"/>
     </row>
     <row r="32" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13870,8 +13873,8 @@
       <c r="W32" s="268"/>
       <c r="X32" s="268"/>
       <c r="Y32" s="268"/>
-      <c r="Z32" s="531"/>
-      <c r="AA32" s="532"/>
+      <c r="Z32" s="476"/>
+      <c r="AA32" s="477"/>
       <c r="AC32" s="270"/>
     </row>
     <row r="33" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13921,8 +13924,8 @@
       <c r="W33" s="268"/>
       <c r="X33" s="268"/>
       <c r="Y33" s="268"/>
-      <c r="Z33" s="531"/>
-      <c r="AA33" s="532"/>
+      <c r="Z33" s="476"/>
+      <c r="AA33" s="477"/>
       <c r="AC33" s="270"/>
     </row>
     <row r="34" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13972,8 +13975,8 @@
       <c r="W34" s="268"/>
       <c r="X34" s="268"/>
       <c r="Y34" s="268"/>
-      <c r="Z34" s="531"/>
-      <c r="AA34" s="532"/>
+      <c r="Z34" s="476"/>
+      <c r="AA34" s="477"/>
       <c r="AC34" s="270"/>
     </row>
     <row r="35" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14023,8 +14026,8 @@
       <c r="W35" s="268"/>
       <c r="X35" s="268"/>
       <c r="Y35" s="268"/>
-      <c r="Z35" s="531"/>
-      <c r="AA35" s="532"/>
+      <c r="Z35" s="476"/>
+      <c r="AA35" s="477"/>
       <c r="AC35" s="270"/>
     </row>
     <row r="36" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14074,8 +14077,8 @@
       <c r="W36" s="268"/>
       <c r="X36" s="268"/>
       <c r="Y36" s="268"/>
-      <c r="Z36" s="531"/>
-      <c r="AA36" s="532"/>
+      <c r="Z36" s="476"/>
+      <c r="AA36" s="477"/>
       <c r="AC36" s="270"/>
     </row>
     <row r="37" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14125,8 +14128,8 @@
       <c r="W37" s="268"/>
       <c r="X37" s="268"/>
       <c r="Y37" s="268"/>
-      <c r="Z37" s="531"/>
-      <c r="AA37" s="532"/>
+      <c r="Z37" s="476"/>
+      <c r="AA37" s="477"/>
       <c r="AC37" s="270"/>
     </row>
     <row r="38" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14176,8 +14179,8 @@
       <c r="W38" s="268"/>
       <c r="X38" s="268"/>
       <c r="Y38" s="268"/>
-      <c r="Z38" s="531"/>
-      <c r="AA38" s="532"/>
+      <c r="Z38" s="476"/>
+      <c r="AA38" s="477"/>
       <c r="AC38" s="270"/>
     </row>
     <row r="39" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14227,8 +14230,8 @@
       <c r="W39" s="268"/>
       <c r="X39" s="268"/>
       <c r="Y39" s="268"/>
-      <c r="Z39" s="531"/>
-      <c r="AA39" s="532"/>
+      <c r="Z39" s="476"/>
+      <c r="AA39" s="477"/>
       <c r="AC39" s="270"/>
     </row>
     <row r="40" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14278,8 +14281,8 @@
       <c r="W40" s="268"/>
       <c r="X40" s="268"/>
       <c r="Y40" s="268"/>
-      <c r="Z40" s="531"/>
-      <c r="AA40" s="532"/>
+      <c r="Z40" s="476"/>
+      <c r="AA40" s="477"/>
       <c r="AC40" s="270"/>
     </row>
     <row r="41" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14329,8 +14332,8 @@
       <c r="W41" s="268"/>
       <c r="X41" s="268"/>
       <c r="Y41" s="268"/>
-      <c r="Z41" s="531"/>
-      <c r="AA41" s="532"/>
+      <c r="Z41" s="476"/>
+      <c r="AA41" s="477"/>
       <c r="AC41" s="270"/>
     </row>
     <row r="42" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14380,8 +14383,8 @@
       <c r="W42" s="271"/>
       <c r="X42" s="268"/>
       <c r="Y42" s="268"/>
-      <c r="Z42" s="529"/>
-      <c r="AA42" s="530"/>
+      <c r="Z42" s="474"/>
+      <c r="AA42" s="475"/>
       <c r="AC42" s="270"/>
     </row>
     <row r="43" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14635,8 +14638,8 @@
       <c r="W47" s="50"/>
       <c r="X47" s="43"/>
       <c r="Y47" s="43"/>
-      <c r="Z47" s="533"/>
-      <c r="AA47" s="534"/>
+      <c r="Z47" s="478"/>
+      <c r="AA47" s="479"/>
       <c r="AC47" s="49"/>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1">
@@ -14686,8 +14689,8 @@
       <c r="W48" s="50"/>
       <c r="X48" s="43"/>
       <c r="Y48" s="43"/>
-      <c r="Z48" s="533"/>
-      <c r="AA48" s="534"/>
+      <c r="Z48" s="478"/>
+      <c r="AA48" s="479"/>
       <c r="AC48" s="49"/>
     </row>
     <row r="49" spans="1:38" ht="15.75" customHeight="1">
@@ -15298,8 +15301,8 @@
       <c r="W60" s="50"/>
       <c r="X60" s="43"/>
       <c r="Y60" s="43"/>
-      <c r="Z60" s="533"/>
-      <c r="AA60" s="534"/>
+      <c r="Z60" s="478"/>
+      <c r="AA60" s="479"/>
       <c r="AC60" s="49"/>
     </row>
     <row r="61" spans="1:38" ht="47.25">
@@ -15405,13 +15408,13 @@
       <c r="AC62" s="49"/>
     </row>
     <row r="63" spans="1:38" ht="31.5" customHeight="1">
-      <c r="A63" s="488" t="s">
+      <c r="A63" s="499" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="491" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="494" t="s">
+      <c r="B63" s="500" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="513" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="274">
@@ -15467,9 +15470,9 @@
       <c r="AL63" s="23"/>
     </row>
     <row r="64" spans="1:38" ht="47.25" customHeight="1">
-      <c r="A64" s="489"/>
-      <c r="B64" s="492"/>
-      <c r="C64" s="495"/>
+      <c r="A64" s="488"/>
+      <c r="B64" s="501"/>
+      <c r="C64" s="514"/>
       <c r="D64" s="274">
         <v>48</v>
       </c>
@@ -15524,9 +15527,9 @@
       <c r="AL64" s="171"/>
     </row>
     <row r="65" spans="1:38" ht="31.5" customHeight="1">
-      <c r="A65" s="490"/>
-      <c r="B65" s="493"/>
-      <c r="C65" s="496"/>
+      <c r="A65" s="489"/>
+      <c r="B65" s="502"/>
+      <c r="C65" s="515"/>
       <c r="D65" s="274">
         <v>49</v>
       </c>
@@ -15640,8 +15643,8 @@
       <c r="W66" s="50"/>
       <c r="X66" s="43"/>
       <c r="Y66" s="43"/>
-      <c r="Z66" s="527"/>
-      <c r="AA66" s="528"/>
+      <c r="Z66" s="472"/>
+      <c r="AA66" s="473"/>
       <c r="AC66" s="49"/>
     </row>
     <row r="67" spans="1:38" ht="51.95" customHeight="1">
@@ -15691,8 +15694,8 @@
       <c r="W67" s="50"/>
       <c r="X67" s="43"/>
       <c r="Y67" s="43"/>
-      <c r="Z67" s="531"/>
-      <c r="AA67" s="532"/>
+      <c r="Z67" s="476"/>
+      <c r="AA67" s="477"/>
       <c r="AC67" s="49"/>
     </row>
     <row r="68" spans="1:38" ht="47.25">
@@ -15793,8 +15796,8 @@
       <c r="W69" s="50"/>
       <c r="X69" s="43"/>
       <c r="Y69" s="43"/>
-      <c r="Z69" s="531"/>
-      <c r="AA69" s="532"/>
+      <c r="Z69" s="476"/>
+      <c r="AA69" s="477"/>
       <c r="AC69" s="49"/>
     </row>
     <row r="70" spans="1:38" ht="47.25">
@@ -15844,8 +15847,8 @@
       <c r="W70" s="50"/>
       <c r="X70" s="43"/>
       <c r="Y70" s="43"/>
-      <c r="Z70" s="531"/>
-      <c r="AA70" s="532"/>
+      <c r="Z70" s="476"/>
+      <c r="AA70" s="477"/>
       <c r="AC70" s="49"/>
     </row>
     <row r="71" spans="1:38" ht="47.25" customHeight="1">
@@ -15895,8 +15898,8 @@
       <c r="W71" s="50"/>
       <c r="X71" s="43"/>
       <c r="Y71" s="43"/>
-      <c r="Z71" s="531"/>
-      <c r="AA71" s="532"/>
+      <c r="Z71" s="476"/>
+      <c r="AA71" s="477"/>
       <c r="AC71" s="49"/>
     </row>
     <row r="72" spans="1:38" ht="47.25" customHeight="1">
@@ -15946,8 +15949,8 @@
       <c r="W72" s="50"/>
       <c r="X72" s="43"/>
       <c r="Y72" s="43"/>
-      <c r="Z72" s="531"/>
-      <c r="AA72" s="532"/>
+      <c r="Z72" s="476"/>
+      <c r="AA72" s="477"/>
       <c r="AC72" s="49"/>
     </row>
     <row r="73" spans="1:38" ht="48" customHeight="1">
@@ -15997,8 +16000,8 @@
       <c r="W73" s="50"/>
       <c r="X73" s="43"/>
       <c r="Y73" s="43"/>
-      <c r="Z73" s="531"/>
-      <c r="AA73" s="532"/>
+      <c r="Z73" s="476"/>
+      <c r="AA73" s="477"/>
       <c r="AC73" s="49"/>
     </row>
     <row r="74" spans="1:38" ht="48" customHeight="1">
@@ -16048,8 +16051,8 @@
       <c r="W74" s="50"/>
       <c r="X74" s="43"/>
       <c r="Y74" s="43"/>
-      <c r="Z74" s="529"/>
-      <c r="AA74" s="530"/>
+      <c r="Z74" s="474"/>
+      <c r="AA74" s="475"/>
       <c r="AC74" s="49"/>
     </row>
     <row r="75" spans="1:38" ht="48" customHeight="1">
@@ -16150,8 +16153,8 @@
       <c r="W76" s="50"/>
       <c r="X76" s="43"/>
       <c r="Y76" s="43"/>
-      <c r="Z76" s="527"/>
-      <c r="AA76" s="528"/>
+      <c r="Z76" s="472"/>
+      <c r="AA76" s="473"/>
       <c r="AC76" s="49"/>
     </row>
     <row r="77" spans="1:38" ht="48" customHeight="1">
@@ -16201,8 +16204,8 @@
       <c r="W77" s="50"/>
       <c r="X77" s="43"/>
       <c r="Y77" s="43"/>
-      <c r="Z77" s="529"/>
-      <c r="AA77" s="530"/>
+      <c r="Z77" s="474"/>
+      <c r="AA77" s="475"/>
       <c r="AC77" s="49"/>
     </row>
     <row r="78" spans="1:38" ht="48" customHeight="1">
@@ -24659,10 +24662,10 @@
       <c r="U273" s="245"/>
     </row>
     <row r="274" spans="4:21">
-      <c r="D274" s="503" t="s">
+      <c r="D274" s="523" t="s">
         <v>10</v>
       </c>
-      <c r="E274" s="504"/>
+      <c r="E274" s="524"/>
       <c r="F274" s="57"/>
       <c r="G274" s="12">
         <f>SUM(G17:G273)</f>
@@ -24739,126 +24742,126 @@
       <c r="U276" s="251"/>
     </row>
     <row r="277" spans="4:21">
-      <c r="D277" s="500" t="s">
+      <c r="D277" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="E277" s="497" t="s">
+      <c r="E277" s="519" t="s">
         <v>3</v>
       </c>
-      <c r="F277" s="480" t="s">
+      <c r="F277" s="525" t="s">
         <v>40</v>
       </c>
-      <c r="G277" s="481" t="s">
+      <c r="G277" s="528" t="s">
         <v>4</v>
       </c>
-      <c r="H277" s="482"/>
-      <c r="I277" s="482"/>
-      <c r="J277" s="483"/>
-      <c r="K277" s="484" t="s">
+      <c r="H277" s="529"/>
+      <c r="I277" s="529"/>
+      <c r="J277" s="530"/>
+      <c r="K277" s="531" t="s">
         <v>16</v>
       </c>
-      <c r="L277" s="470" t="s">
+      <c r="L277" s="480" t="s">
         <v>9</v>
       </c>
-      <c r="M277" s="485" t="s">
+      <c r="M277" s="503" t="s">
         <v>28</v>
       </c>
-      <c r="N277" s="470" t="s">
+      <c r="N277" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="O277" s="473" t="s">
+      <c r="O277" s="534" t="s">
         <v>29</v>
       </c>
-      <c r="P277" s="474"/>
-      <c r="Q277" s="474"/>
-      <c r="R277" s="474"/>
-      <c r="S277" s="474"/>
-      <c r="T277" s="474"/>
-      <c r="U277" s="475"/>
+      <c r="P277" s="535"/>
+      <c r="Q277" s="535"/>
+      <c r="R277" s="535"/>
+      <c r="S277" s="535"/>
+      <c r="T277" s="535"/>
+      <c r="U277" s="536"/>
     </row>
     <row r="278" spans="4:21" ht="75.75" customHeight="1">
-      <c r="D278" s="501"/>
-      <c r="E278" s="498"/>
-      <c r="F278" s="478"/>
-      <c r="G278" s="476" t="s">
+      <c r="D278" s="521"/>
+      <c r="E278" s="507"/>
+      <c r="F278" s="526"/>
+      <c r="G278" s="537" t="s">
         <v>11</v>
       </c>
-      <c r="H278" s="476" t="s">
+      <c r="H278" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="I278" s="476" t="s">
+      <c r="I278" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J278" s="478" t="s">
+      <c r="J278" s="526" t="s">
         <v>5</v>
       </c>
-      <c r="K278" s="471"/>
-      <c r="L278" s="471"/>
-      <c r="M278" s="486"/>
-      <c r="N278" s="471"/>
-      <c r="O278" s="470" t="s">
+      <c r="K278" s="532"/>
+      <c r="L278" s="532"/>
+      <c r="M278" s="504"/>
+      <c r="N278" s="532"/>
+      <c r="O278" s="480" t="s">
         <v>333</v>
       </c>
-      <c r="P278" s="470" t="s">
+      <c r="P278" s="480" t="s">
         <v>332</v>
       </c>
-      <c r="Q278" s="470" t="s">
+      <c r="Q278" s="480" t="s">
         <v>334</v>
       </c>
-      <c r="R278" s="470" t="s">
+      <c r="R278" s="480" t="s">
         <v>335</v>
       </c>
-      <c r="S278" s="470" t="s">
+      <c r="S278" s="480" t="s">
         <v>338</v>
       </c>
-      <c r="T278" s="470" t="s">
+      <c r="T278" s="480" t="s">
         <v>336</v>
       </c>
-      <c r="U278" s="470" t="s">
+      <c r="U278" s="480" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="279" spans="4:21" ht="52.5" customHeight="1">
-      <c r="D279" s="502"/>
-      <c r="E279" s="499"/>
-      <c r="F279" s="479"/>
-      <c r="G279" s="477"/>
-      <c r="H279" s="477"/>
-      <c r="I279" s="477"/>
-      <c r="J279" s="479"/>
-      <c r="K279" s="472"/>
-      <c r="L279" s="472"/>
-      <c r="M279" s="487"/>
-      <c r="N279" s="472"/>
-      <c r="O279" s="535"/>
-      <c r="P279" s="535"/>
-      <c r="Q279" s="535"/>
-      <c r="R279" s="520"/>
-      <c r="S279" s="535"/>
-      <c r="T279" s="535"/>
-      <c r="U279" s="535"/>
+      <c r="D279" s="522"/>
+      <c r="E279" s="508"/>
+      <c r="F279" s="527"/>
+      <c r="G279" s="538"/>
+      <c r="H279" s="538"/>
+      <c r="I279" s="538"/>
+      <c r="J279" s="527"/>
+      <c r="K279" s="533"/>
+      <c r="L279" s="533"/>
+      <c r="M279" s="505"/>
+      <c r="N279" s="533"/>
+      <c r="O279" s="481"/>
+      <c r="P279" s="481"/>
+      <c r="Q279" s="481"/>
+      <c r="R279" s="482"/>
+      <c r="S279" s="481"/>
+      <c r="T279" s="481"/>
+      <c r="U279" s="481"/>
     </row>
     <row r="280" spans="4:21">
       <c r="D280" s="314"/>
-      <c r="E280" s="536" t="s">
+      <c r="E280" s="483" t="s">
         <v>325</v>
       </c>
-      <c r="F280" s="537"/>
-      <c r="G280" s="537"/>
-      <c r="H280" s="537"/>
-      <c r="I280" s="537"/>
-      <c r="J280" s="537"/>
-      <c r="K280" s="537"/>
-      <c r="L280" s="537"/>
-      <c r="M280" s="537"/>
-      <c r="N280" s="537"/>
-      <c r="O280" s="537"/>
-      <c r="P280" s="537"/>
-      <c r="Q280" s="537"/>
-      <c r="R280" s="537"/>
-      <c r="S280" s="537"/>
-      <c r="T280" s="537"/>
-      <c r="U280" s="538"/>
+      <c r="F280" s="484"/>
+      <c r="G280" s="484"/>
+      <c r="H280" s="484"/>
+      <c r="I280" s="484"/>
+      <c r="J280" s="484"/>
+      <c r="K280" s="484"/>
+      <c r="L280" s="484"/>
+      <c r="M280" s="484"/>
+      <c r="N280" s="484"/>
+      <c r="O280" s="484"/>
+      <c r="P280" s="484"/>
+      <c r="Q280" s="484"/>
+      <c r="R280" s="484"/>
+      <c r="S280" s="484"/>
+      <c r="T280" s="484"/>
+      <c r="U280" s="485"/>
     </row>
     <row r="281" spans="4:21" ht="31.5">
       <c r="D281" s="294" t="s">
@@ -33595,10 +33598,10 @@
       <c r="U504" s="245"/>
     </row>
     <row r="505" spans="4:21">
-      <c r="D505" s="525" t="s">
+      <c r="D505" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="E505" s="526"/>
+      <c r="E505" s="471"/>
       <c r="F505" s="302"/>
       <c r="G505" s="303">
         <f>SUM(G281:G504)</f>
@@ -34001,6 +34004,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="N277:N279"/>
+    <mergeCell ref="O277:U277"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="I278:I279"/>
+    <mergeCell ref="J278:J279"/>
+    <mergeCell ref="F277:F279"/>
+    <mergeCell ref="G277:J277"/>
+    <mergeCell ref="K277:K279"/>
+    <mergeCell ref="L277:L279"/>
+    <mergeCell ref="M277:M279"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E277:E279"/>
+    <mergeCell ref="D277:D279"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="D16:U16"/>
+    <mergeCell ref="E1:U1"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="D13:U13"/>
     <mergeCell ref="D505:E505"/>
     <mergeCell ref="Z76:AA77"/>
     <mergeCell ref="Z17:AA42"/>
@@ -34017,50 +34064,6 @@
     <mergeCell ref="T278:T279"/>
     <mergeCell ref="U278:U279"/>
     <mergeCell ref="E280:U280"/>
-    <mergeCell ref="D16:U16"/>
-    <mergeCell ref="E1:U1"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="D13:U13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E277:E279"/>
-    <mergeCell ref="D277:D279"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="F277:F279"/>
-    <mergeCell ref="G277:J277"/>
-    <mergeCell ref="K277:K279"/>
-    <mergeCell ref="L277:L279"/>
-    <mergeCell ref="M277:M279"/>
-    <mergeCell ref="N277:N279"/>
-    <mergeCell ref="O277:U277"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="I278:I279"/>
-    <mergeCell ref="J278:J279"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.11811023622047245" bottom="0" header="0" footer="0"/>
@@ -34110,13 +34113,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23">
-      <c r="C2" s="387" t="s">
+      <c r="C2" s="395" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="387" t="s">
+      <c r="D2" s="395" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="387"/>
+      <c r="E2" s="395"/>
       <c r="F2" s="547" t="s">
         <v>39</v>
       </c>
@@ -34138,9 +34141,9 @@
       <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
-      <c r="C3" s="387"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
       <c r="F3" s="547"/>
       <c r="G3" s="547"/>
       <c r="H3" s="539">
@@ -34176,7 +34179,7 @@
       <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:23" ht="28.5" customHeight="1">
-      <c r="C4" s="387"/>
+      <c r="C4" s="395"/>
       <c r="D4" s="38" t="s">
         <v>21</v>
       </c>
@@ -36531,6 +36534,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M2:Q2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -36547,7 +36551,6 @@
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="W1:W1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -36569,8 +36572,8 @@
   </sheetPr>
   <dimension ref="C8:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -37623,8 +37626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AL420"/>
   <sheetViews>
-    <sheetView topLeftCell="D112" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -37662,76 +37665,76 @@
       <c r="B1" s="14"/>
       <c r="C1" s="1"/>
       <c r="D1" s="277"/>
-      <c r="E1" s="516" t="s">
+      <c r="E1" s="487" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
-      <c r="K1" s="516"/>
-      <c r="L1" s="516"/>
-      <c r="M1" s="516"/>
-      <c r="N1" s="516"/>
-      <c r="O1" s="516"/>
-      <c r="P1" s="516"/>
-      <c r="Q1" s="516"/>
-      <c r="R1" s="516"/>
-      <c r="S1" s="516"/>
-      <c r="T1" s="516"/>
-      <c r="U1" s="516"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
+      <c r="L1" s="487"/>
+      <c r="M1" s="487"/>
+      <c r="N1" s="487"/>
+      <c r="O1" s="487"/>
+      <c r="P1" s="487"/>
+      <c r="Q1" s="487"/>
+      <c r="R1" s="487"/>
+      <c r="S1" s="487"/>
+      <c r="T1" s="487"/>
+      <c r="U1" s="487"/>
       <c r="V1" s="20"/>
       <c r="W1" s="22"/>
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="499" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="491" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="494" t="s">
+      <c r="B2" s="500" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="507" t="s">
+      <c r="D2" s="506" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="512" t="s">
+      <c r="E2" s="516" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="513" t="s">
+      <c r="F2" s="517" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="517" t="s">
+      <c r="G2" s="490" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="518"/>
-      <c r="I2" s="518"/>
-      <c r="J2" s="519"/>
-      <c r="K2" s="514" t="s">
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="492"/>
+      <c r="K2" s="518" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="505" t="s">
+      <c r="L2" s="493" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="485" t="s">
+      <c r="M2" s="503" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="505" t="s">
+      <c r="N2" s="493" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="521" t="s">
+      <c r="O2" s="495" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="522"/>
-      <c r="Q2" s="522"/>
-      <c r="R2" s="522"/>
-      <c r="S2" s="522"/>
-      <c r="T2" s="522"/>
-      <c r="U2" s="523"/>
+      <c r="P2" s="496"/>
+      <c r="Q2" s="496"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="496"/>
+      <c r="T2" s="496"/>
+      <c r="U2" s="497"/>
       <c r="V2" s="30"/>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
@@ -37746,47 +37749,47 @@
       <c r="AL2" s="23"/>
     </row>
     <row r="3" spans="1:38" ht="75.75" customHeight="1">
-      <c r="A3" s="489"/>
-      <c r="B3" s="492"/>
-      <c r="C3" s="495"/>
-      <c r="D3" s="498"/>
-      <c r="E3" s="495"/>
-      <c r="F3" s="510"/>
-      <c r="G3" s="489" t="s">
+      <c r="A3" s="488"/>
+      <c r="B3" s="501"/>
+      <c r="C3" s="514"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="514"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="488" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="489" t="s">
+      <c r="H3" s="488" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="489" t="s">
+      <c r="I3" s="488" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="510" t="s">
+      <c r="J3" s="511" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="508"/>
-      <c r="L3" s="508"/>
-      <c r="M3" s="486"/>
-      <c r="N3" s="508"/>
-      <c r="O3" s="505" t="s">
+      <c r="K3" s="509"/>
+      <c r="L3" s="509"/>
+      <c r="M3" s="504"/>
+      <c r="N3" s="509"/>
+      <c r="O3" s="493" t="s">
         <v>333</v>
       </c>
-      <c r="P3" s="505" t="s">
+      <c r="P3" s="493" t="s">
         <v>332</v>
       </c>
-      <c r="Q3" s="505" t="s">
+      <c r="Q3" s="493" t="s">
         <v>334</v>
       </c>
-      <c r="R3" s="470" t="s">
+      <c r="R3" s="480" t="s">
         <v>335</v>
       </c>
-      <c r="S3" s="505" t="s">
+      <c r="S3" s="493" t="s">
         <v>338</v>
       </c>
-      <c r="T3" s="505" t="s">
+      <c r="T3" s="493" t="s">
         <v>336</v>
       </c>
-      <c r="U3" s="505" t="s">
+      <c r="U3" s="493" t="s">
         <v>337</v>
       </c>
       <c r="V3" s="31"/>
@@ -37804,27 +37807,27 @@
       <c r="AL3" s="171"/>
     </row>
     <row r="4" spans="1:38" ht="52.5" customHeight="1">
-      <c r="A4" s="490"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="496"/>
-      <c r="D4" s="499"/>
-      <c r="E4" s="496"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="490"/>
-      <c r="H4" s="490"/>
-      <c r="I4" s="490"/>
-      <c r="J4" s="511"/>
-      <c r="K4" s="509"/>
-      <c r="L4" s="509"/>
-      <c r="M4" s="487"/>
-      <c r="N4" s="509"/>
-      <c r="O4" s="506"/>
-      <c r="P4" s="506"/>
-      <c r="Q4" s="506"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="506"/>
-      <c r="T4" s="506"/>
-      <c r="U4" s="506"/>
+      <c r="A4" s="489"/>
+      <c r="B4" s="502"/>
+      <c r="C4" s="515"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="515"/>
+      <c r="F4" s="512"/>
+      <c r="G4" s="489"/>
+      <c r="H4" s="489"/>
+      <c r="I4" s="489"/>
+      <c r="J4" s="512"/>
+      <c r="K4" s="510"/>
+      <c r="L4" s="510"/>
+      <c r="M4" s="505"/>
+      <c r="N4" s="510"/>
+      <c r="O4" s="494"/>
+      <c r="P4" s="494"/>
+      <c r="Q4" s="494"/>
+      <c r="R4" s="482"/>
+      <c r="S4" s="494"/>
+      <c r="T4" s="494"/>
+      <c r="U4" s="494"/>
       <c r="V4" s="32"/>
       <c r="W4" s="35" t="s">
         <v>32</v>
@@ -37856,26 +37859,26 @@
       <c r="A5" s="340"/>
       <c r="B5" s="341"/>
       <c r="C5" s="343"/>
-      <c r="D5" s="515" t="s">
+      <c r="D5" s="486" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="515"/>
-      <c r="I5" s="515"/>
-      <c r="J5" s="515"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="515"/>
-      <c r="M5" s="515"/>
-      <c r="N5" s="515"/>
-      <c r="O5" s="515"/>
-      <c r="P5" s="515"/>
-      <c r="Q5" s="515"/>
-      <c r="R5" s="515"/>
-      <c r="S5" s="515"/>
-      <c r="T5" s="515"/>
-      <c r="U5" s="515"/>
+      <c r="E5" s="486"/>
+      <c r="F5" s="486"/>
+      <c r="G5" s="486"/>
+      <c r="H5" s="486"/>
+      <c r="I5" s="486"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="486"/>
+      <c r="L5" s="486"/>
+      <c r="M5" s="486"/>
+      <c r="N5" s="486"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="486"/>
+      <c r="Q5" s="486"/>
+      <c r="R5" s="486"/>
+      <c r="S5" s="486"/>
+      <c r="T5" s="486"/>
+      <c r="U5" s="486"/>
       <c r="V5" s="32"/>
       <c r="Z5" s="202"/>
       <c r="AA5" s="202"/>
@@ -38398,26 +38401,26 @@
       <c r="A13" s="340"/>
       <c r="B13" s="341"/>
       <c r="C13" s="343"/>
-      <c r="D13" s="524" t="s">
+      <c r="D13" s="498" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="524"/>
-      <c r="F13" s="524"/>
-      <c r="G13" s="524"/>
-      <c r="H13" s="524"/>
-      <c r="I13" s="524"/>
-      <c r="J13" s="524"/>
-      <c r="K13" s="524"/>
-      <c r="L13" s="524"/>
-      <c r="M13" s="524"/>
-      <c r="N13" s="524"/>
-      <c r="O13" s="524"/>
-      <c r="P13" s="524"/>
-      <c r="Q13" s="524"/>
-      <c r="R13" s="524"/>
-      <c r="S13" s="524"/>
-      <c r="T13" s="524"/>
-      <c r="U13" s="524"/>
+      <c r="E13" s="498"/>
+      <c r="F13" s="498"/>
+      <c r="G13" s="498"/>
+      <c r="H13" s="498"/>
+      <c r="I13" s="498"/>
+      <c r="J13" s="498"/>
+      <c r="K13" s="498"/>
+      <c r="L13" s="498"/>
+      <c r="M13" s="498"/>
+      <c r="N13" s="498"/>
+      <c r="O13" s="498"/>
+      <c r="P13" s="498"/>
+      <c r="Q13" s="498"/>
+      <c r="R13" s="498"/>
+      <c r="S13" s="498"/>
+      <c r="T13" s="498"/>
+      <c r="U13" s="498"/>
       <c r="V13" s="32"/>
       <c r="Z13" s="202"/>
       <c r="AA13" s="202"/>
@@ -38548,26 +38551,26 @@
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="515" t="s">
+      <c r="D16" s="486" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="515"/>
-      <c r="F16" s="515"/>
-      <c r="G16" s="515"/>
-      <c r="H16" s="515"/>
-      <c r="I16" s="515"/>
-      <c r="J16" s="515"/>
-      <c r="K16" s="515"/>
-      <c r="L16" s="515"/>
-      <c r="M16" s="515"/>
-      <c r="N16" s="515"/>
-      <c r="O16" s="515"/>
-      <c r="P16" s="515"/>
-      <c r="Q16" s="515"/>
-      <c r="R16" s="515"/>
-      <c r="S16" s="515"/>
-      <c r="T16" s="515"/>
-      <c r="U16" s="515"/>
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
+      <c r="G16" s="486"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="486"/>
+      <c r="J16" s="486"/>
+      <c r="K16" s="486"/>
+      <c r="L16" s="486"/>
+      <c r="M16" s="486"/>
+      <c r="N16" s="486"/>
+      <c r="O16" s="486"/>
+      <c r="P16" s="486"/>
+      <c r="Q16" s="486"/>
+      <c r="R16" s="486"/>
+      <c r="S16" s="486"/>
+      <c r="T16" s="486"/>
+      <c r="U16" s="486"/>
       <c r="V16" s="33"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
@@ -38620,8 +38623,8 @@
       <c r="W17" s="268"/>
       <c r="X17" s="268"/>
       <c r="Y17" s="268"/>
-      <c r="Z17" s="527"/>
-      <c r="AA17" s="528"/>
+      <c r="Z17" s="472"/>
+      <c r="AA17" s="473"/>
       <c r="AC17" s="270"/>
     </row>
     <row r="18" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38671,8 +38674,8 @@
       <c r="W18" s="268"/>
       <c r="X18" s="268"/>
       <c r="Y18" s="268"/>
-      <c r="Z18" s="531"/>
-      <c r="AA18" s="532"/>
+      <c r="Z18" s="476"/>
+      <c r="AA18" s="477"/>
       <c r="AC18" s="270"/>
     </row>
     <row r="19" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38722,8 +38725,8 @@
       <c r="W19" s="268"/>
       <c r="X19" s="268"/>
       <c r="Y19" s="268"/>
-      <c r="Z19" s="531"/>
-      <c r="AA19" s="532"/>
+      <c r="Z19" s="476"/>
+      <c r="AA19" s="477"/>
       <c r="AC19" s="270"/>
     </row>
     <row r="20" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38773,8 +38776,8 @@
       <c r="W20" s="268"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="268"/>
-      <c r="Z20" s="531"/>
-      <c r="AA20" s="532"/>
+      <c r="Z20" s="476"/>
+      <c r="AA20" s="477"/>
       <c r="AC20" s="270"/>
     </row>
     <row r="21" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38827,8 +38830,8 @@
       <c r="W21" s="268"/>
       <c r="X21" s="268"/>
       <c r="Y21" s="268"/>
-      <c r="Z21" s="531"/>
-      <c r="AA21" s="532"/>
+      <c r="Z21" s="476"/>
+      <c r="AA21" s="477"/>
       <c r="AC21" s="270"/>
     </row>
     <row r="22" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38878,8 +38881,8 @@
       <c r="W22" s="268"/>
       <c r="X22" s="268"/>
       <c r="Y22" s="268"/>
-      <c r="Z22" s="531"/>
-      <c r="AA22" s="532"/>
+      <c r="Z22" s="476"/>
+      <c r="AA22" s="477"/>
       <c r="AC22" s="270"/>
     </row>
     <row r="23" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38929,8 +38932,8 @@
       <c r="W23" s="268"/>
       <c r="X23" s="268"/>
       <c r="Y23" s="268"/>
-      <c r="Z23" s="531"/>
-      <c r="AA23" s="532"/>
+      <c r="Z23" s="476"/>
+      <c r="AA23" s="477"/>
       <c r="AC23" s="270"/>
     </row>
     <row r="24" spans="1:30" s="269" customFormat="1" ht="18.75">
@@ -38980,8 +38983,8 @@
       <c r="W24" s="268"/>
       <c r="X24" s="268"/>
       <c r="Y24" s="268"/>
-      <c r="Z24" s="531"/>
-      <c r="AA24" s="532"/>
+      <c r="Z24" s="476"/>
+      <c r="AA24" s="477"/>
       <c r="AC24" s="270"/>
     </row>
     <row r="25" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -39031,8 +39034,8 @@
       <c r="W25" s="268"/>
       <c r="X25" s="268"/>
       <c r="Y25" s="268"/>
-      <c r="Z25" s="531"/>
-      <c r="AA25" s="532"/>
+      <c r="Z25" s="476"/>
+      <c r="AA25" s="477"/>
       <c r="AC25" s="270"/>
     </row>
     <row r="26" spans="1:30" s="269" customFormat="1">
@@ -39082,8 +39085,8 @@
       <c r="W26" s="268"/>
       <c r="X26" s="268"/>
       <c r="Y26" s="268"/>
-      <c r="Z26" s="531"/>
-      <c r="AA26" s="532"/>
+      <c r="Z26" s="476"/>
+      <c r="AA26" s="477"/>
       <c r="AC26" s="270"/>
     </row>
     <row r="27" spans="1:30" s="269" customFormat="1">
@@ -39133,8 +39136,8 @@
       <c r="W27" s="268"/>
       <c r="X27" s="268"/>
       <c r="Y27" s="268"/>
-      <c r="Z27" s="531"/>
-      <c r="AA27" s="532"/>
+      <c r="Z27" s="476"/>
+      <c r="AA27" s="477"/>
       <c r="AC27" s="270"/>
       <c r="AD27" s="306"/>
     </row>
@@ -39185,8 +39188,8 @@
       <c r="W28" s="268"/>
       <c r="X28" s="268"/>
       <c r="Y28" s="268"/>
-      <c r="Z28" s="531"/>
-      <c r="AA28" s="532"/>
+      <c r="Z28" s="476"/>
+      <c r="AA28" s="477"/>
       <c r="AC28" s="270"/>
     </row>
     <row r="29" spans="1:30" s="269" customFormat="1">
@@ -39236,8 +39239,8 @@
       <c r="W29" s="268"/>
       <c r="X29" s="268"/>
       <c r="Y29" s="268"/>
-      <c r="Z29" s="531"/>
-      <c r="AA29" s="532"/>
+      <c r="Z29" s="476"/>
+      <c r="AA29" s="477"/>
       <c r="AC29" s="270"/>
     </row>
     <row r="30" spans="1:30" s="269" customFormat="1">
@@ -39287,8 +39290,8 @@
       <c r="W30" s="268"/>
       <c r="X30" s="268"/>
       <c r="Y30" s="268"/>
-      <c r="Z30" s="531"/>
-      <c r="AA30" s="532"/>
+      <c r="Z30" s="476"/>
+      <c r="AA30" s="477"/>
       <c r="AC30" s="270"/>
     </row>
     <row r="31" spans="1:30" s="269" customFormat="1">
@@ -39338,8 +39341,8 @@
       <c r="W31" s="268"/>
       <c r="X31" s="268"/>
       <c r="Y31" s="268"/>
-      <c r="Z31" s="531"/>
-      <c r="AA31" s="532"/>
+      <c r="Z31" s="476"/>
+      <c r="AA31" s="477"/>
       <c r="AC31" s="270"/>
     </row>
     <row r="32" spans="1:30" s="269" customFormat="1">
@@ -39389,8 +39392,8 @@
       <c r="W32" s="268"/>
       <c r="X32" s="268"/>
       <c r="Y32" s="268"/>
-      <c r="Z32" s="531"/>
-      <c r="AA32" s="532"/>
+      <c r="Z32" s="476"/>
+      <c r="AA32" s="477"/>
       <c r="AC32" s="270"/>
     </row>
     <row r="33" spans="1:29" s="269" customFormat="1">
@@ -39440,8 +39443,8 @@
       <c r="W33" s="268"/>
       <c r="X33" s="268"/>
       <c r="Y33" s="268"/>
-      <c r="Z33" s="531"/>
-      <c r="AA33" s="532"/>
+      <c r="Z33" s="476"/>
+      <c r="AA33" s="477"/>
       <c r="AC33" s="270"/>
     </row>
     <row r="34" spans="1:29" s="269" customFormat="1">
@@ -39491,8 +39494,8 @@
       <c r="W34" s="268"/>
       <c r="X34" s="268"/>
       <c r="Y34" s="268"/>
-      <c r="Z34" s="531"/>
-      <c r="AA34" s="532"/>
+      <c r="Z34" s="476"/>
+      <c r="AA34" s="477"/>
       <c r="AC34" s="270"/>
     </row>
     <row r="35" spans="1:29" s="269" customFormat="1">
@@ -39542,8 +39545,8 @@
       <c r="W35" s="268"/>
       <c r="X35" s="268"/>
       <c r="Y35" s="268"/>
-      <c r="Z35" s="531"/>
-      <c r="AA35" s="532"/>
+      <c r="Z35" s="476"/>
+      <c r="AA35" s="477"/>
       <c r="AC35" s="270"/>
     </row>
     <row r="36" spans="1:29" s="269" customFormat="1">
@@ -39593,8 +39596,8 @@
       <c r="W36" s="268"/>
       <c r="X36" s="268"/>
       <c r="Y36" s="268"/>
-      <c r="Z36" s="531"/>
-      <c r="AA36" s="532"/>
+      <c r="Z36" s="476"/>
+      <c r="AA36" s="477"/>
       <c r="AC36" s="270"/>
     </row>
     <row r="37" spans="1:29" s="269" customFormat="1">
@@ -39644,8 +39647,8 @@
       <c r="W37" s="268"/>
       <c r="X37" s="268"/>
       <c r="Y37" s="268"/>
-      <c r="Z37" s="531"/>
-      <c r="AA37" s="532"/>
+      <c r="Z37" s="476"/>
+      <c r="AA37" s="477"/>
       <c r="AC37" s="270"/>
     </row>
     <row r="38" spans="1:29" s="269" customFormat="1">
@@ -39695,8 +39698,8 @@
       <c r="W38" s="268"/>
       <c r="X38" s="268"/>
       <c r="Y38" s="268"/>
-      <c r="Z38" s="531"/>
-      <c r="AA38" s="532"/>
+      <c r="Z38" s="476"/>
+      <c r="AA38" s="477"/>
       <c r="AC38" s="270"/>
     </row>
     <row r="39" spans="1:29" s="269" customFormat="1">
@@ -39746,8 +39749,8 @@
       <c r="W39" s="268"/>
       <c r="X39" s="268"/>
       <c r="Y39" s="268"/>
-      <c r="Z39" s="531"/>
-      <c r="AA39" s="532"/>
+      <c r="Z39" s="476"/>
+      <c r="AA39" s="477"/>
       <c r="AC39" s="270"/>
     </row>
     <row r="40" spans="1:29" s="269" customFormat="1">
@@ -39797,8 +39800,8 @@
       <c r="W40" s="268"/>
       <c r="X40" s="268"/>
       <c r="Y40" s="268"/>
-      <c r="Z40" s="531"/>
-      <c r="AA40" s="532"/>
+      <c r="Z40" s="476"/>
+      <c r="AA40" s="477"/>
       <c r="AC40" s="270"/>
     </row>
     <row r="41" spans="1:29" s="269" customFormat="1">
@@ -39848,8 +39851,8 @@
       <c r="W41" s="268"/>
       <c r="X41" s="268"/>
       <c r="Y41" s="268"/>
-      <c r="Z41" s="531"/>
-      <c r="AA41" s="532"/>
+      <c r="Z41" s="476"/>
+      <c r="AA41" s="477"/>
       <c r="AC41" s="270"/>
     </row>
     <row r="42" spans="1:29" s="269" customFormat="1">
@@ -39899,8 +39902,8 @@
       <c r="W42" s="271"/>
       <c r="X42" s="268"/>
       <c r="Y42" s="268"/>
-      <c r="Z42" s="529"/>
-      <c r="AA42" s="530"/>
+      <c r="Z42" s="474"/>
+      <c r="AA42" s="475"/>
       <c r="AC42" s="270"/>
     </row>
     <row r="43" spans="1:29" s="269" customFormat="1">
@@ -40154,8 +40157,8 @@
       <c r="W47" s="50"/>
       <c r="X47" s="43"/>
       <c r="Y47" s="43"/>
-      <c r="Z47" s="533"/>
-      <c r="AA47" s="534"/>
+      <c r="Z47" s="478"/>
+      <c r="AA47" s="479"/>
       <c r="AC47" s="49"/>
     </row>
     <row r="48" spans="1:29">
@@ -40205,8 +40208,8 @@
       <c r="W48" s="50"/>
       <c r="X48" s="43"/>
       <c r="Y48" s="43"/>
-      <c r="Z48" s="533"/>
-      <c r="AA48" s="534"/>
+      <c r="Z48" s="478"/>
+      <c r="AA48" s="479"/>
       <c r="AC48" s="49"/>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1">
@@ -40316,9 +40319,9 @@
       <c r="B51" s="51"/>
       <c r="C51" s="52"/>
       <c r="D51" s="274">
-        <v>36</v>
-      </c>
-      <c r="E51" s="334" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="549" t="s">
         <v>401</v>
       </c>
       <c r="F51" s="246">
@@ -40339,7 +40342,7 @@
         <v>6.9</v>
       </c>
       <c r="M51" s="312">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="N51" s="245">
         <v>71.3</v>
@@ -40367,9 +40370,9 @@
       <c r="B52" s="252"/>
       <c r="C52" s="253"/>
       <c r="D52" s="274">
-        <v>45</v>
-      </c>
-      <c r="E52" s="334" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="549" t="s">
         <v>413</v>
       </c>
       <c r="F52" s="246">
@@ -40390,7 +40393,7 @@
         <v>6.9</v>
       </c>
       <c r="M52" s="312">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="N52" s="245">
         <v>71.3</v>
@@ -40418,9 +40421,9 @@
       <c r="B53" s="51"/>
       <c r="C53" s="52"/>
       <c r="D53" s="274">
-        <v>58</v>
-      </c>
-      <c r="E53" s="334" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="549" t="s">
         <v>453</v>
       </c>
       <c r="F53" s="246">
@@ -40441,7 +40444,7 @@
         <v>6.9</v>
       </c>
       <c r="M53" s="312">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="N53" s="245">
         <v>71.3</v>
@@ -40460,8 +40463,8 @@
       <c r="W53" s="50"/>
       <c r="X53" s="43"/>
       <c r="Y53" s="43"/>
-      <c r="Z53" s="529"/>
-      <c r="AA53" s="530"/>
+      <c r="Z53" s="474"/>
+      <c r="AA53" s="475"/>
       <c r="AC53" s="49"/>
     </row>
     <row r="54" spans="1:29" ht="48" customHeight="1">
@@ -40469,9 +40472,9 @@
       <c r="B54" s="51"/>
       <c r="C54" s="52"/>
       <c r="D54" s="274">
-        <v>63</v>
-      </c>
-      <c r="E54" s="334" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="549" t="s">
         <v>457</v>
       </c>
       <c r="F54" s="246">
@@ -40492,7 +40495,7 @@
         <v>6.9</v>
       </c>
       <c r="M54" s="312">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="N54" s="245">
         <v>71.3</v>
@@ -40520,9 +40523,9 @@
       <c r="B55" s="51"/>
       <c r="C55" s="52"/>
       <c r="D55" s="274">
-        <v>64</v>
-      </c>
-      <c r="E55" s="334" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="549" t="s">
         <v>457</v>
       </c>
       <c r="F55" s="246">
@@ -40543,7 +40546,7 @@
         <v>6.9</v>
       </c>
       <c r="M55" s="312">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="N55" s="245">
         <v>71.3</v>
@@ -40571,9 +40574,9 @@
       <c r="B56" s="51"/>
       <c r="C56" s="52"/>
       <c r="D56" s="274">
-        <v>67</v>
-      </c>
-      <c r="E56" s="334" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="549" t="s">
         <v>466</v>
       </c>
       <c r="F56" s="246">
@@ -40594,7 +40597,7 @@
         <v>6.9</v>
       </c>
       <c r="M56" s="312">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="N56" s="245">
         <v>71.3</v>
@@ -40622,9 +40625,9 @@
       <c r="B57" s="265"/>
       <c r="C57" s="266"/>
       <c r="D57" s="274">
-        <v>70</v>
-      </c>
-      <c r="E57" s="334" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="549" t="s">
         <v>475</v>
       </c>
       <c r="F57" s="246">
@@ -40673,9 +40676,9 @@
       <c r="B58" s="265"/>
       <c r="C58" s="266"/>
       <c r="D58" s="274">
-        <v>75</v>
-      </c>
-      <c r="E58" s="334" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="549" t="s">
         <v>482</v>
       </c>
       <c r="F58" s="246">
@@ -40724,9 +40727,9 @@
       <c r="B59" s="265"/>
       <c r="C59" s="266"/>
       <c r="D59" s="274">
-        <v>78</v>
-      </c>
-      <c r="E59" s="334" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="549" t="s">
         <v>486</v>
       </c>
       <c r="F59" s="246">
@@ -40747,7 +40750,7 @@
         <v>6.9</v>
       </c>
       <c r="M59" s="312">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="N59" s="245">
         <v>71.3</v>
@@ -40775,9 +40778,9 @@
       <c r="B60" s="265"/>
       <c r="C60" s="266"/>
       <c r="D60" s="274">
-        <v>79</v>
-      </c>
-      <c r="E60" s="334" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="549" t="s">
         <v>486</v>
       </c>
       <c r="F60" s="246">
@@ -40798,7 +40801,7 @@
         <v>6.9</v>
       </c>
       <c r="M60" s="312">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="N60" s="245">
         <v>71.3</v>
@@ -40826,9 +40829,9 @@
       <c r="B61" s="265"/>
       <c r="C61" s="266"/>
       <c r="D61" s="274">
-        <v>83</v>
-      </c>
-      <c r="E61" s="334" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="549" t="s">
         <v>505</v>
       </c>
       <c r="F61" s="246">
@@ -40849,7 +40852,7 @@
         <v>6.9</v>
       </c>
       <c r="M61" s="312">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="N61" s="245">
         <v>71.3</v>
@@ -40877,9 +40880,9 @@
       <c r="B62" s="265"/>
       <c r="C62" s="266"/>
       <c r="D62" s="274">
-        <v>84</v>
-      </c>
-      <c r="E62" s="334" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="549" t="s">
         <v>506</v>
       </c>
       <c r="F62" s="246">
@@ -40900,7 +40903,7 @@
         <v>6.9</v>
       </c>
       <c r="M62" s="312">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="N62" s="245">
         <v>71.3</v>
@@ -40928,9 +40931,9 @@
       <c r="B63" s="265"/>
       <c r="C63" s="266"/>
       <c r="D63" s="274">
-        <v>86</v>
-      </c>
-      <c r="E63" s="334" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="549" t="s">
         <v>509</v>
       </c>
       <c r="F63" s="246">
@@ -40951,7 +40954,7 @@
         <v>9.5</v>
       </c>
       <c r="M63" s="312">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="N63" s="245">
         <v>71.3</v>
@@ -40979,9 +40982,9 @@
       <c r="B64" s="265"/>
       <c r="C64" s="266"/>
       <c r="D64" s="274">
-        <v>87</v>
-      </c>
-      <c r="E64" s="334" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="549" t="s">
         <v>507</v>
       </c>
       <c r="F64" s="246">
@@ -41002,7 +41005,7 @@
         <v>6.9</v>
       </c>
       <c r="M64" s="312">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="N64" s="245">
         <v>71.3</v>
@@ -41030,9 +41033,9 @@
       <c r="B65" s="51"/>
       <c r="C65" s="52"/>
       <c r="D65" s="274">
-        <v>88</v>
-      </c>
-      <c r="E65" s="334" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="549" t="s">
         <v>510</v>
       </c>
       <c r="F65" s="246">
@@ -41078,9 +41081,9 @@
     </row>
     <row r="66" spans="1:29" ht="47.25">
       <c r="D66" s="274">
-        <v>97</v>
-      </c>
-      <c r="E66" s="334" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" s="549" t="s">
         <v>532</v>
       </c>
       <c r="F66" s="246">
@@ -41119,9 +41122,9 @@
     </row>
     <row r="67" spans="1:29" ht="47.25">
       <c r="D67" s="274">
-        <v>100</v>
-      </c>
-      <c r="E67" s="334" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="549" t="s">
         <v>536</v>
       </c>
       <c r="F67" s="246">
@@ -41142,7 +41145,7 @@
         <v>6.9</v>
       </c>
       <c r="M67" s="312">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N67" s="245">
         <v>71.3</v>
@@ -41160,9 +41163,9 @@
     </row>
     <row r="68" spans="1:29" ht="47.25">
       <c r="D68" s="274">
-        <v>101</v>
-      </c>
-      <c r="E68" s="334" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="549" t="s">
         <v>539</v>
       </c>
       <c r="F68" s="246">
@@ -41183,7 +41186,7 @@
         <v>6.9</v>
       </c>
       <c r="M68" s="312">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N68" s="245">
         <v>71.3</v>
@@ -41201,9 +41204,9 @@
     </row>
     <row r="69" spans="1:29" ht="47.25">
       <c r="D69" s="274">
-        <v>102</v>
-      </c>
-      <c r="E69" s="334" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="549" t="s">
         <v>540</v>
       </c>
       <c r="F69" s="246">
@@ -41224,7 +41227,7 @@
         <v>6.9</v>
       </c>
       <c r="M69" s="312">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N69" s="245">
         <v>71.3</v>
@@ -41242,9 +41245,9 @@
     </row>
     <row r="70" spans="1:29" ht="47.25">
       <c r="D70" s="274">
-        <v>107</v>
-      </c>
-      <c r="E70" s="334" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="549" t="s">
         <v>546</v>
       </c>
       <c r="F70" s="246">
@@ -41265,7 +41268,7 @@
         <v>6.9</v>
       </c>
       <c r="M70" s="312">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N70" s="245">
         <v>71.3</v>
@@ -41283,9 +41286,9 @@
     </row>
     <row r="71" spans="1:29" ht="47.25">
       <c r="D71" s="274">
-        <v>109</v>
-      </c>
-      <c r="E71" s="334" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="549" t="s">
         <v>547</v>
       </c>
       <c r="F71" s="246">
@@ -41324,9 +41327,9 @@
     </row>
     <row r="72" spans="1:29" ht="47.25">
       <c r="D72" s="274">
-        <v>113</v>
-      </c>
-      <c r="E72" s="334" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="549" t="s">
         <v>552</v>
       </c>
       <c r="F72" s="246">
@@ -41365,9 +41368,9 @@
     </row>
     <row r="73" spans="1:29" ht="47.25">
       <c r="D73" s="274">
-        <v>114</v>
-      </c>
-      <c r="E73" s="334" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="549" t="s">
         <v>552</v>
       </c>
       <c r="F73" s="246">
@@ -41406,9 +41409,9 @@
     </row>
     <row r="74" spans="1:29" ht="47.25">
       <c r="D74" s="274">
-        <v>121</v>
-      </c>
-      <c r="E74" s="334" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="549" t="s">
         <v>572</v>
       </c>
       <c r="F74" s="246">
@@ -41447,9 +41450,9 @@
     </row>
     <row r="75" spans="1:29" ht="47.25">
       <c r="D75" s="274">
-        <v>127</v>
-      </c>
-      <c r="E75" s="334" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="549" t="s">
         <v>583</v>
       </c>
       <c r="F75" s="246">
@@ -41488,7 +41491,7 @@
     </row>
     <row r="76" spans="1:29" ht="31.5">
       <c r="D76" s="274">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="E76" s="261" t="s">
         <v>807</v>
@@ -41529,7 +41532,7 @@
     </row>
     <row r="77" spans="1:29" ht="31.5">
       <c r="D77" s="274">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E77" s="261" t="s">
         <v>808</v>
@@ -41570,7 +41573,7 @@
     </row>
     <row r="78" spans="1:29" ht="31.5">
       <c r="D78" s="274">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="E78" s="261" t="s">
         <v>809</v>
@@ -41611,7 +41614,7 @@
     </row>
     <row r="79" spans="1:29" ht="31.5">
       <c r="D79" s="274">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="E79" s="261" t="s">
         <v>810</v>
@@ -41652,7 +41655,7 @@
     </row>
     <row r="80" spans="1:29" ht="31.5">
       <c r="D80" s="274">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E80" s="261" t="s">
         <v>812</v>
@@ -41693,7 +41696,7 @@
     </row>
     <row r="81" spans="1:21" ht="31.5">
       <c r="D81" s="274">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="E81" s="261" t="s">
         <v>813</v>
@@ -41734,7 +41737,7 @@
     </row>
     <row r="82" spans="1:21" ht="31.5">
       <c r="D82" s="274">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="E82" s="261" t="s">
         <v>815</v>
@@ -41775,7 +41778,7 @@
     </row>
     <row r="83" spans="1:21" ht="31.5">
       <c r="D83" s="274">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="E83" s="261" t="s">
         <v>816</v>
@@ -41816,7 +41819,7 @@
     </row>
     <row r="84" spans="1:21" ht="31.5">
       <c r="D84" s="274">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E84" s="261" t="s">
         <v>818</v>
@@ -41857,7 +41860,7 @@
     </row>
     <row r="85" spans="1:21" ht="31.5">
       <c r="D85" s="274">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="E85" s="261" t="s">
         <v>819</v>
@@ -41898,7 +41901,7 @@
     </row>
     <row r="86" spans="1:21" ht="31.5">
       <c r="D86" s="274">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="E86" s="261" t="s">
         <v>820</v>
@@ -41921,7 +41924,7 @@
         <v>3.5769152859912072</v>
       </c>
       <c r="M86" s="312">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="N86" s="313">
         <v>0.25</v>
@@ -41939,7 +41942,7 @@
     </row>
     <row r="87" spans="1:21" ht="31.5">
       <c r="D87" s="274">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="E87" s="261" t="s">
         <v>821</v>
@@ -41962,7 +41965,7 @@
         <v>3.5769152859912072</v>
       </c>
       <c r="M87" s="312">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="N87" s="313">
         <v>0.25</v>
@@ -41980,7 +41983,7 @@
     </row>
     <row r="88" spans="1:21" ht="31.5">
       <c r="D88" s="274">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="E88" s="261" t="s">
         <v>822</v>
@@ -42003,7 +42006,7 @@
         <v>3.5769152859912072</v>
       </c>
       <c r="M88" s="312">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="N88" s="313">
         <v>0.25</v>
@@ -42021,7 +42024,7 @@
     </row>
     <row r="89" spans="1:21" ht="31.5">
       <c r="D89" s="274">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="E89" s="261" t="s">
         <v>823</v>
@@ -42062,7 +42065,7 @@
     </row>
     <row r="90" spans="1:21" ht="31.5">
       <c r="D90" s="274">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="E90" s="261" t="s">
         <v>824</v>
@@ -42103,7 +42106,7 @@
     </row>
     <row r="91" spans="1:21" ht="31.5">
       <c r="D91" s="274">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E91" s="261" t="s">
         <v>825</v>
@@ -42144,7 +42147,7 @@
     </row>
     <row r="92" spans="1:21" ht="31.5">
       <c r="D92" s="274">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="E92" s="261" t="s">
         <v>826</v>
@@ -42185,7 +42188,7 @@
     </row>
     <row r="93" spans="1:21" ht="31.5">
       <c r="D93" s="274">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="E93" s="261" t="s">
         <v>827</v>
@@ -42226,7 +42229,7 @@
     </row>
     <row r="94" spans="1:21" ht="31.5">
       <c r="D94" s="274">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="E94" s="261" t="s">
         <v>828</v>
@@ -42267,7 +42270,7 @@
     </row>
     <row r="95" spans="1:21" ht="31.5">
       <c r="D95" s="274">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E95" s="261" t="s">
         <v>829</v>
@@ -42311,7 +42314,7 @@
       <c r="B96" s="324"/>
       <c r="C96" s="325"/>
       <c r="D96" s="274">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="E96" s="261" t="s">
         <v>830</v>
@@ -42334,7 +42337,7 @@
         <v>3.6055306082791354</v>
       </c>
       <c r="M96" s="312">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N96" s="313">
         <v>0.21</v>
@@ -42355,7 +42358,7 @@
       <c r="B97" s="324"/>
       <c r="C97" s="325"/>
       <c r="D97" s="274">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="E97" s="261" t="s">
         <v>831</v>
@@ -42378,7 +42381,7 @@
         <v>3.6055306082791354</v>
       </c>
       <c r="M97" s="312">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N97" s="313">
         <v>0.21</v>
@@ -42399,7 +42402,7 @@
       <c r="B98" s="324"/>
       <c r="C98" s="325"/>
       <c r="D98" s="274">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="E98" s="261" t="s">
         <v>832</v>
@@ -42422,7 +42425,7 @@
         <v>3.6055306082791354</v>
       </c>
       <c r="M98" s="312">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N98" s="313">
         <v>0.21</v>
@@ -42443,7 +42446,7 @@
       <c r="B99" s="324"/>
       <c r="C99" s="325"/>
       <c r="D99" s="274">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="E99" s="261" t="s">
         <v>833</v>
@@ -42466,7 +42469,7 @@
         <v>3.6055306082791354</v>
       </c>
       <c r="M99" s="312">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N99" s="313">
         <v>0.21</v>
@@ -42487,7 +42490,7 @@
       <c r="B100" s="324"/>
       <c r="C100" s="325"/>
       <c r="D100" s="274">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="E100" s="261" t="s">
         <v>834</v>
@@ -42510,7 +42513,7 @@
         <v>3.6055306082791354</v>
       </c>
       <c r="M100" s="312">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N100" s="313">
         <v>0.21</v>
@@ -42531,7 +42534,7 @@
       <c r="B101" s="324"/>
       <c r="C101" s="325"/>
       <c r="D101" s="274">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="E101" s="261" t="s">
         <v>835</v>
@@ -42554,7 +42557,7 @@
         <v>0.163437513836829</v>
       </c>
       <c r="M101" s="312">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N101" s="313">
         <v>0.02</v>
@@ -42575,7 +42578,7 @@
       <c r="B102" s="324"/>
       <c r="C102" s="325"/>
       <c r="D102" s="274">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="E102" s="261" t="s">
         <v>836</v>
@@ -42619,7 +42622,7 @@
       <c r="B103" s="324"/>
       <c r="C103" s="325"/>
       <c r="D103" s="274">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="E103" s="261" t="s">
         <v>837</v>
@@ -42663,7 +42666,7 @@
       <c r="B104" s="324"/>
       <c r="C104" s="325"/>
       <c r="D104" s="274">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="E104" s="261" t="s">
         <v>838</v>
@@ -42707,7 +42710,7 @@
       <c r="B105" s="324"/>
       <c r="C105" s="325"/>
       <c r="D105" s="274">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="E105" s="261" t="s">
         <v>839</v>
@@ -42751,7 +42754,7 @@
       <c r="B106" s="324"/>
       <c r="C106" s="325"/>
       <c r="D106" s="274">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="E106" s="261" t="s">
         <v>845</v>
@@ -42774,7 +42777,7 @@
         <v>3.5769152859912072</v>
       </c>
       <c r="M106" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N106" s="313">
         <v>0.25</v>
@@ -42795,7 +42798,7 @@
       <c r="B107" s="324"/>
       <c r="C107" s="325"/>
       <c r="D107" s="274">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="E107" s="261" t="s">
         <v>846</v>
@@ -42818,7 +42821,7 @@
         <v>3.5769152859912072</v>
       </c>
       <c r="M107" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N107" s="313">
         <v>0.25</v>
@@ -42839,7 +42842,7 @@
       <c r="B108" s="324"/>
       <c r="C108" s="325"/>
       <c r="D108" s="274">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="E108" s="261" t="s">
         <v>847</v>
@@ -42862,7 +42865,7 @@
         <v>3.5769152859912072</v>
       </c>
       <c r="M108" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N108" s="313">
         <v>0.25</v>
@@ -42883,7 +42886,7 @@
       <c r="B109" s="324"/>
       <c r="C109" s="325"/>
       <c r="D109" s="274">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="E109" s="261" t="s">
         <v>848</v>
@@ -42906,7 +42909,7 @@
         <v>3.3766080299756984</v>
       </c>
       <c r="M109" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N109" s="245">
         <v>1.18</v>
@@ -42927,7 +42930,7 @@
       <c r="B110" s="324"/>
       <c r="C110" s="325"/>
       <c r="D110" s="274">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="E110" s="261" t="s">
         <v>848</v>
@@ -42950,7 +42953,7 @@
         <v>0.17433334809261755</v>
       </c>
       <c r="M110" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N110" s="313">
         <v>0.32</v>
@@ -42971,7 +42974,7 @@
       <c r="B111" s="324"/>
       <c r="C111" s="325"/>
       <c r="D111" s="274">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="E111" s="261" t="s">
         <v>849</v>
@@ -42994,7 +42997,7 @@
         <v>1.9813764316785154</v>
       </c>
       <c r="M111" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N111" s="313">
         <v>0.18</v>
@@ -43015,7 +43018,7 @@
       <c r="B112" s="324"/>
       <c r="C112" s="325"/>
       <c r="D112" s="274">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="E112" s="261" t="s">
         <v>850</v>
@@ -43038,7 +43041,7 @@
         <v>3.5769152859912072</v>
       </c>
       <c r="M112" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N112" s="313">
         <v>0.25</v>
@@ -43059,7 +43062,7 @@
       <c r="B113" s="324"/>
       <c r="C113" s="325"/>
       <c r="D113" s="274">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="E113" s="261" t="s">
         <v>851</v>
@@ -43082,7 +43085,7 @@
         <v>3.6055306082791354</v>
       </c>
       <c r="M113" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N113" s="313">
         <v>0.42</v>
@@ -43103,7 +43106,7 @@
       <c r="B114" s="324"/>
       <c r="C114" s="325"/>
       <c r="D114" s="274">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="E114" s="261" t="s">
         <v>852</v>
@@ -43126,7 +43129,7 @@
         <v>3.7199918974308557</v>
       </c>
       <c r="M114" s="312">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N114" s="313">
         <v>0.26</v>
@@ -43147,7 +43150,7 @@
       <c r="B115" s="324"/>
       <c r="C115" s="325"/>
       <c r="D115" s="274">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="E115" s="261" t="s">
         <v>853</v>
@@ -43188,7 +43191,7 @@
     </row>
     <row r="116" spans="1:21" ht="31.5">
       <c r="D116" s="274">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="E116" s="261" t="s">
         <v>858</v>
@@ -43211,7 +43214,7 @@
         <v>3.7199918974308557</v>
       </c>
       <c r="M116" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N116" s="313">
         <v>0.13</v>
@@ -43229,7 +43232,7 @@
     </row>
     <row r="117" spans="1:21" ht="31.5">
       <c r="D117" s="274">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="E117" s="261" t="s">
         <v>859</v>
@@ -43252,7 +43255,7 @@
         <v>3.7199918974308557</v>
       </c>
       <c r="M117" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N117" s="313">
         <v>0.13</v>
@@ -43270,7 +43273,7 @@
     </row>
     <row r="118" spans="1:21" ht="31.5">
       <c r="D118" s="274">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="E118" s="261" t="s">
         <v>863</v>
@@ -43293,7 +43296,7 @@
         <v>3.6484535917110303</v>
       </c>
       <c r="M118" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N118" s="313">
         <v>0.17</v>
@@ -43311,7 +43314,7 @@
     </row>
     <row r="119" spans="1:21" ht="31.5">
       <c r="D119" s="274">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="E119" s="261" t="s">
         <v>864</v>
@@ -43334,7 +43337,7 @@
         <v>3.6</v>
       </c>
       <c r="M119" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N119" s="313">
         <v>0.17</v>
@@ -43352,7 +43355,7 @@
     </row>
     <row r="120" spans="1:21" ht="31.5">
       <c r="D120" s="274">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="E120" s="261" t="s">
         <v>865</v>
@@ -43375,7 +43378,7 @@
         <v>3.6</v>
       </c>
       <c r="M120" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N120" s="313">
         <v>0.17</v>
@@ -43393,7 +43396,7 @@
     </row>
     <row r="121" spans="1:21" ht="31.5">
       <c r="D121" s="274">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="E121" s="261" t="s">
         <v>866</v>
@@ -43416,7 +43419,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="M121" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N121" s="313">
         <v>0.35</v>
@@ -43434,7 +43437,7 @@
     </row>
     <row r="122" spans="1:21" ht="31.5">
       <c r="D122" s="274">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="E122" s="261" t="s">
         <v>866</v>
@@ -43457,7 +43460,7 @@
         <v>3.6</v>
       </c>
       <c r="M122" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N122" s="313">
         <v>0.17</v>
@@ -43475,7 +43478,7 @@
     </row>
     <row r="123" spans="1:21" ht="31.5">
       <c r="D123" s="274">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="E123" s="261" t="s">
         <v>867</v>
@@ -43498,7 +43501,7 @@
         <v>3.6</v>
       </c>
       <c r="M123" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N123" s="313">
         <v>0.42</v>
@@ -43516,7 +43519,7 @@
     </row>
     <row r="124" spans="1:21" ht="31.5">
       <c r="D124" s="274">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="E124" s="261" t="s">
         <v>868</v>
@@ -43539,7 +43542,7 @@
         <v>3.6</v>
       </c>
       <c r="M124" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N124" s="313">
         <v>0.42</v>
@@ -43557,7 +43560,7 @@
     </row>
     <row r="125" spans="1:21" ht="31.5">
       <c r="D125" s="274">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="E125" s="261" t="s">
         <v>869</v>
@@ -43580,7 +43583,7 @@
         <v>3.6</v>
       </c>
       <c r="M125" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N125" s="313">
         <v>0.42</v>
@@ -43598,7 +43601,7 @@
     </row>
     <row r="126" spans="1:21" ht="31.5">
       <c r="D126" s="274">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="E126" s="261" t="s">
         <v>870</v>
@@ -43621,7 +43624,7 @@
         <v>3.6055306082791354</v>
       </c>
       <c r="M126" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N126" s="313">
         <v>0.42</v>
@@ -43639,7 +43642,7 @@
     </row>
     <row r="127" spans="1:21" ht="31.5">
       <c r="D127" s="274">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="E127" s="261" t="s">
         <v>871</v>
@@ -43662,7 +43665,7 @@
         <v>3.6055306082791354</v>
       </c>
       <c r="M127" s="312">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N127" s="313">
         <v>0.42</v>
@@ -43680,7 +43683,7 @@
     </row>
     <row r="128" spans="1:21" ht="31.5">
       <c r="D128" s="274">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="E128" s="261" t="s">
         <v>872</v>
@@ -43721,7 +43724,7 @@
     </row>
     <row r="129" spans="4:21" ht="31.5">
       <c r="D129" s="274">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="E129" s="261" t="s">
         <v>873</v>
@@ -43762,7 +43765,7 @@
     </row>
     <row r="130" spans="4:21" ht="31.5">
       <c r="D130" s="274">
-        <v>237</v>
+        <v>114</v>
       </c>
       <c r="E130" s="261" t="s">
         <v>874</v>
@@ -43803,7 +43806,7 @@
     </row>
     <row r="131" spans="4:21" ht="31.5">
       <c r="D131" s="274">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="E131" s="261" t="s">
         <v>875</v>
@@ -43844,7 +43847,7 @@
     </row>
     <row r="132" spans="4:21" ht="31.5">
       <c r="D132" s="274">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="E132" s="261" t="s">
         <v>876</v>
@@ -43885,7 +43888,7 @@
     </row>
     <row r="133" spans="4:21" ht="31.5">
       <c r="D133" s="274">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="E133" s="261" t="s">
         <v>877</v>
@@ -43926,7 +43929,7 @@
     </row>
     <row r="134" spans="4:21" ht="31.5">
       <c r="D134" s="274">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="E134" s="261" t="s">
         <v>878</v>
@@ -43967,7 +43970,7 @@
     </row>
     <row r="135" spans="4:21" ht="31.5">
       <c r="D135" s="274">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="E135" s="261" t="s">
         <v>879</v>
@@ -44008,7 +44011,7 @@
     </row>
     <row r="136" spans="4:21" ht="31.5">
       <c r="D136" s="274">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="E136" s="261" t="s">
         <v>880</v>
@@ -44049,7 +44052,7 @@
     </row>
     <row r="137" spans="4:21" ht="31.5">
       <c r="D137" s="274">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="E137" s="261" t="s">
         <v>881</v>
@@ -44090,7 +44093,7 @@
     </row>
     <row r="138" spans="4:21" ht="31.5">
       <c r="D138" s="274">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="E138" s="261" t="s">
         <v>882</v>
@@ -44131,7 +44134,7 @@
     </row>
     <row r="139" spans="4:21" ht="31.5">
       <c r="D139" s="274">
-        <v>255</v>
+        <v>123</v>
       </c>
       <c r="E139" s="261" t="s">
         <v>883</v>
@@ -44172,7 +44175,7 @@
     </row>
     <row r="140" spans="4:21" ht="31.5">
       <c r="D140" s="274">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="E140" s="261" t="s">
         <v>884</v>
@@ -44212,10 +44215,10 @@
       <c r="U140" s="245"/>
     </row>
     <row r="141" spans="4:21">
-      <c r="D141" s="503" t="s">
+      <c r="D141" s="523" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="504"/>
+      <c r="E141" s="524"/>
       <c r="F141" s="57">
         <f>SUM(F76:F140)</f>
         <v>1731</v>
@@ -44295,126 +44298,126 @@
       <c r="U143" s="251"/>
     </row>
     <row r="144" spans="4:21">
-      <c r="D144" s="500" t="s">
+      <c r="D144" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="497" t="s">
+      <c r="E144" s="519" t="s">
         <v>3</v>
       </c>
-      <c r="F144" s="480" t="s">
+      <c r="F144" s="525" t="s">
         <v>40</v>
       </c>
-      <c r="G144" s="481" t="s">
+      <c r="G144" s="528" t="s">
         <v>4</v>
       </c>
-      <c r="H144" s="482"/>
-      <c r="I144" s="482"/>
-      <c r="J144" s="483"/>
-      <c r="K144" s="484" t="s">
+      <c r="H144" s="529"/>
+      <c r="I144" s="529"/>
+      <c r="J144" s="530"/>
+      <c r="K144" s="531" t="s">
         <v>16</v>
       </c>
-      <c r="L144" s="470" t="s">
+      <c r="L144" s="480" t="s">
         <v>9</v>
       </c>
-      <c r="M144" s="485" t="s">
+      <c r="M144" s="503" t="s">
         <v>28</v>
       </c>
-      <c r="N144" s="470" t="s">
+      <c r="N144" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="O144" s="473" t="s">
+      <c r="O144" s="534" t="s">
         <v>29</v>
       </c>
-      <c r="P144" s="474"/>
-      <c r="Q144" s="474"/>
-      <c r="R144" s="474"/>
-      <c r="S144" s="474"/>
-      <c r="T144" s="474"/>
-      <c r="U144" s="475"/>
+      <c r="P144" s="535"/>
+      <c r="Q144" s="535"/>
+      <c r="R144" s="535"/>
+      <c r="S144" s="535"/>
+      <c r="T144" s="535"/>
+      <c r="U144" s="536"/>
     </row>
     <row r="145" spans="4:21">
-      <c r="D145" s="501"/>
-      <c r="E145" s="498"/>
-      <c r="F145" s="478"/>
-      <c r="G145" s="476" t="s">
+      <c r="D145" s="521"/>
+      <c r="E145" s="507"/>
+      <c r="F145" s="526"/>
+      <c r="G145" s="537" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="476" t="s">
+      <c r="H145" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="I145" s="476" t="s">
+      <c r="I145" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J145" s="478" t="s">
+      <c r="J145" s="526" t="s">
         <v>5</v>
       </c>
-      <c r="K145" s="471"/>
-      <c r="L145" s="471"/>
-      <c r="M145" s="486"/>
-      <c r="N145" s="471"/>
-      <c r="O145" s="470" t="s">
+      <c r="K145" s="532"/>
+      <c r="L145" s="532"/>
+      <c r="M145" s="504"/>
+      <c r="N145" s="532"/>
+      <c r="O145" s="480" t="s">
         <v>333</v>
       </c>
-      <c r="P145" s="470" t="s">
+      <c r="P145" s="480" t="s">
         <v>332</v>
       </c>
-      <c r="Q145" s="470" t="s">
+      <c r="Q145" s="480" t="s">
         <v>334</v>
       </c>
-      <c r="R145" s="470" t="s">
+      <c r="R145" s="480" t="s">
         <v>335</v>
       </c>
-      <c r="S145" s="470" t="s">
+      <c r="S145" s="480" t="s">
         <v>338</v>
       </c>
-      <c r="T145" s="470" t="s">
+      <c r="T145" s="480" t="s">
         <v>336</v>
       </c>
-      <c r="U145" s="470" t="s">
+      <c r="U145" s="480" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="146" spans="4:21">
-      <c r="D146" s="502"/>
-      <c r="E146" s="499"/>
-      <c r="F146" s="479"/>
-      <c r="G146" s="477"/>
-      <c r="H146" s="477"/>
-      <c r="I146" s="477"/>
-      <c r="J146" s="479"/>
-      <c r="K146" s="472"/>
-      <c r="L146" s="472"/>
-      <c r="M146" s="487"/>
-      <c r="N146" s="472"/>
-      <c r="O146" s="535"/>
-      <c r="P146" s="535"/>
-      <c r="Q146" s="535"/>
-      <c r="R146" s="520"/>
-      <c r="S146" s="535"/>
-      <c r="T146" s="535"/>
-      <c r="U146" s="535"/>
+      <c r="D146" s="522"/>
+      <c r="E146" s="508"/>
+      <c r="F146" s="527"/>
+      <c r="G146" s="538"/>
+      <c r="H146" s="538"/>
+      <c r="I146" s="538"/>
+      <c r="J146" s="527"/>
+      <c r="K146" s="533"/>
+      <c r="L146" s="533"/>
+      <c r="M146" s="505"/>
+      <c r="N146" s="533"/>
+      <c r="O146" s="481"/>
+      <c r="P146" s="481"/>
+      <c r="Q146" s="481"/>
+      <c r="R146" s="482"/>
+      <c r="S146" s="481"/>
+      <c r="T146" s="481"/>
+      <c r="U146" s="481"/>
     </row>
     <row r="147" spans="4:21">
       <c r="D147" s="335"/>
-      <c r="E147" s="536" t="s">
+      <c r="E147" s="483" t="s">
         <v>325</v>
       </c>
-      <c r="F147" s="537"/>
-      <c r="G147" s="537"/>
-      <c r="H147" s="537"/>
-      <c r="I147" s="537"/>
-      <c r="J147" s="537"/>
-      <c r="K147" s="537"/>
-      <c r="L147" s="537"/>
-      <c r="M147" s="537"/>
-      <c r="N147" s="537"/>
-      <c r="O147" s="537"/>
-      <c r="P147" s="537"/>
-      <c r="Q147" s="537"/>
-      <c r="R147" s="537"/>
-      <c r="S147" s="537"/>
-      <c r="T147" s="537"/>
-      <c r="U147" s="538"/>
+      <c r="F147" s="484"/>
+      <c r="G147" s="484"/>
+      <c r="H147" s="484"/>
+      <c r="I147" s="484"/>
+      <c r="J147" s="484"/>
+      <c r="K147" s="484"/>
+      <c r="L147" s="484"/>
+      <c r="M147" s="484"/>
+      <c r="N147" s="484"/>
+      <c r="O147" s="484"/>
+      <c r="P147" s="484"/>
+      <c r="Q147" s="484"/>
+      <c r="R147" s="484"/>
+      <c r="S147" s="484"/>
+      <c r="T147" s="484"/>
+      <c r="U147" s="485"/>
     </row>
     <row r="148" spans="4:21" ht="31.5">
       <c r="D148" s="294" t="s">
@@ -53151,10 +53154,10 @@
       <c r="U371" s="245"/>
     </row>
     <row r="372" spans="4:21">
-      <c r="D372" s="525" t="s">
+      <c r="D372" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="E372" s="526"/>
+      <c r="E372" s="471"/>
       <c r="F372" s="302"/>
       <c r="G372" s="303">
         <f>SUM(G148:G371)</f>
@@ -53253,11 +53256,11 @@
       <c r="F379" s="246"/>
       <c r="G379" s="278">
         <f>SUMIF(M:M,E379,J:J)</f>
-        <v>147.54916977853645</v>
+        <v>108.3539533230467</v>
       </c>
       <c r="H379" s="297">
         <f>G379*100/G374</f>
-        <v>3.2759584764328697</v>
+        <v>2.4057272052186214</v>
       </c>
       <c r="I379" s="298"/>
       <c r="J379" s="299"/>
@@ -53267,7 +53270,7 @@
       <c r="L379" s="246"/>
       <c r="M379" s="278">
         <f>SUMIF(M17:M140,K379,G17:G140)</f>
-        <v>458.85489792000004</v>
+        <v>336.91125068799994</v>
       </c>
       <c r="N379" s="300"/>
       <c r="O379" s="246">
@@ -53286,11 +53289,11 @@
       <c r="F380" s="246"/>
       <c r="G380" s="301">
         <f>SUMIF(M:M,E380,J:J)</f>
-        <v>180.93923038048098</v>
+        <v>102.13288351327337</v>
       </c>
       <c r="H380" s="300">
         <f>G380*100/G374</f>
-        <v>4.0173008521421174</v>
+        <v>2.2676039856410606</v>
       </c>
       <c r="I380" s="298"/>
       <c r="J380" s="299"/>
@@ -53300,7 +53303,7 @@
       <c r="L380" s="246"/>
       <c r="M380" s="278">
         <f>SUMIF(M17:M140,K380,G17:G140)</f>
-        <v>512.94633206399999</v>
+        <v>267.76813865599979</v>
       </c>
       <c r="N380" s="300"/>
       <c r="O380" s="246">
@@ -53319,11 +53322,11 @@
       <c r="F381" s="246"/>
       <c r="G381" s="301">
         <f>SUMIF(M:M,E381,J:J)</f>
-        <v>157.49311870123245</v>
+        <v>167.38777815972441</v>
       </c>
       <c r="H381" s="300">
         <f>G381*100/G374</f>
-        <v>3.4967388699207915</v>
+        <v>3.7164249147363324</v>
       </c>
       <c r="I381" s="298"/>
       <c r="J381" s="299"/>
@@ -53333,7 +53336,7 @@
       <c r="L381" s="246"/>
       <c r="M381" s="301">
         <f>SUMIF(M17:M140,K381,G17:G140)</f>
-        <v>489.80031180799989</v>
+        <v>520.55067596799995</v>
       </c>
       <c r="N381" s="300"/>
       <c r="O381" s="246">
@@ -53352,11 +53355,11 @@
       <c r="F382" s="246"/>
       <c r="G382" s="301">
         <f>SUMIF(M:M,E382,J:J)</f>
-        <v>124.85768727542515</v>
+        <v>155.5298971531891</v>
       </c>
       <c r="H382" s="300">
         <f>G382*100/G374</f>
-        <v>2.7721511384419437</v>
+        <v>3.4531504696533992</v>
       </c>
       <c r="I382" s="298"/>
       <c r="J382" s="299"/>
@@ -53366,7 +53369,7 @@
       <c r="L382" s="246"/>
       <c r="M382" s="301">
         <f>SUMIF(M17:M140,K382,G17:G140)</f>
-        <v>388.40163430399997</v>
+        <v>483.8522048000001</v>
       </c>
       <c r="N382" s="300"/>
       <c r="O382" s="246">
@@ -53385,11 +53388,11 @@
       <c r="F383" s="246"/>
       <c r="G383" s="301">
         <f>SUMIF(M:M,E383,J:J)</f>
-        <v>103.68874272391039</v>
+        <v>181.1234367103518</v>
       </c>
       <c r="H383" s="300">
         <f>G383*100/G374</f>
-        <v>2.3021479290388633</v>
+        <v>4.0213906907271708</v>
       </c>
       <c r="I383" s="298"/>
       <c r="J383" s="299"/>
@@ -53399,7 +53402,7 @@
       <c r="L383" s="246"/>
       <c r="M383" s="301">
         <f>SUMIF(M17:M140,K383,G17:G140)</f>
-        <v>322.55275289600036</v>
+        <v>563.47365887999968</v>
       </c>
       <c r="N383" s="300"/>
       <c r="O383" s="246">
@@ -53557,6 +53560,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="E1:U1"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="D16:U16"/>
+    <mergeCell ref="Z17:AA42"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="G144:J144"/>
+    <mergeCell ref="K144:K146"/>
+    <mergeCell ref="L144:L146"/>
     <mergeCell ref="D372:E372"/>
     <mergeCell ref="M144:M146"/>
     <mergeCell ref="N144:N146"/>
@@ -53573,44 +53614,6 @@
     <mergeCell ref="T145:T146"/>
     <mergeCell ref="U145:U146"/>
     <mergeCell ref="E147:U147"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="G144:J144"/>
-    <mergeCell ref="K144:K146"/>
-    <mergeCell ref="L144:L146"/>
-    <mergeCell ref="D16:U16"/>
-    <mergeCell ref="Z17:AA42"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="D13:U13"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="E1:U1"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54438,6 +54441,12 @@
     <row r="314" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="G1:H1"/>
@@ -54446,12 +54455,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56494,73 +56497,73 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:29" ht="127.5" customHeight="1">
-      <c r="A4" s="386" t="s">
+      <c r="A4" s="394" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="386" t="s">
+      <c r="B4" s="394" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="386" t="s">
+      <c r="C4" s="394" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="386" t="s">
+      <c r="D4" s="394" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="386" t="s">
+      <c r="E4" s="394" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="386" t="s">
+      <c r="F4" s="394" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="386"/>
-      <c r="H4" s="386" t="s">
+      <c r="G4" s="394"/>
+      <c r="H4" s="394" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="386" t="s">
+      <c r="I4" s="394" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="386" t="s">
+      <c r="J4" s="394" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="386"/>
-      <c r="L4" s="386" t="s">
+      <c r="K4" s="394"/>
+      <c r="L4" s="394" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="386"/>
-      <c r="N4" s="386" t="s">
+      <c r="M4" s="394"/>
+      <c r="N4" s="394" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="386"/>
-      <c r="P4" s="386" t="s">
+      <c r="O4" s="394"/>
+      <c r="P4" s="394" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="386"/>
-      <c r="R4" s="387" t="s">
+      <c r="Q4" s="394"/>
+      <c r="R4" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="387"/>
-      <c r="T4" s="387"/>
-      <c r="U4" s="386" t="s">
+      <c r="S4" s="395"/>
+      <c r="T4" s="395"/>
+      <c r="U4" s="394" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="386" t="s">
+      <c r="V4" s="394" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A5" s="386"/>
-      <c r="B5" s="386"/>
-      <c r="C5" s="386"/>
-      <c r="D5" s="386"/>
-      <c r="E5" s="386"/>
+      <c r="A5" s="394"/>
+      <c r="B5" s="394"/>
+      <c r="C5" s="394"/>
+      <c r="D5" s="394"/>
+      <c r="E5" s="394"/>
       <c r="F5" s="61" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="386"/>
-      <c r="I5" s="386"/>
+      <c r="H5" s="394"/>
+      <c r="I5" s="394"/>
       <c r="J5" s="61" t="s">
         <v>54</v>
       </c>
@@ -56594,8 +56597,8 @@
       <c r="T5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="386"/>
-      <c r="V5" s="386"/>
+      <c r="U5" s="394"/>
+      <c r="V5" s="394"/>
     </row>
     <row r="6" spans="1:29" ht="31.5">
       <c r="A6" s="16" t="s">
@@ -57196,83 +57199,83 @@
       <c r="V18"/>
     </row>
     <row r="19" spans="3:22" ht="409.6" customHeight="1" thickBot="1">
-      <c r="C19" s="384" t="s">
+      <c r="C19" s="387" t="s">
         <v>303</v>
       </c>
-      <c r="D19" s="384" t="s">
+      <c r="D19" s="387" t="s">
         <v>304</v>
       </c>
-      <c r="E19" s="384" t="s">
+      <c r="E19" s="387" t="s">
         <v>305</v>
       </c>
-      <c r="F19" s="391" t="s">
+      <c r="F19" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="392"/>
-      <c r="H19" s="384" t="s">
+      <c r="G19" s="390"/>
+      <c r="H19" s="387" t="s">
         <v>306</v>
       </c>
-      <c r="I19" s="384" t="s">
+      <c r="I19" s="387" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="384" t="s">
+      <c r="J19" s="387" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="384" t="s">
+      <c r="K19" s="387" t="s">
         <v>308</v>
       </c>
-      <c r="L19" s="384" t="s">
+      <c r="L19" s="387" t="s">
         <v>309</v>
       </c>
-      <c r="M19" s="384" t="s">
+      <c r="M19" s="387" t="s">
         <v>310</v>
       </c>
-      <c r="N19" s="384" t="s">
+      <c r="N19" s="387" t="s">
         <v>311</v>
       </c>
-      <c r="O19" s="391" t="s">
+      <c r="O19" s="389" t="s">
         <v>312</v>
       </c>
-      <c r="P19" s="392"/>
-      <c r="Q19" s="384" t="s">
+      <c r="P19" s="390"/>
+      <c r="Q19" s="387" t="s">
         <v>313</v>
       </c>
-      <c r="R19" s="393" t="s">
+      <c r="R19" s="391" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="394"/>
-      <c r="T19" s="395"/>
-      <c r="U19" s="384" t="s">
+      <c r="S19" s="392"/>
+      <c r="T19" s="393"/>
+      <c r="U19" s="387" t="s">
         <v>48</v>
       </c>
-      <c r="V19" s="384" t="s">
+      <c r="V19" s="387" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="3:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C20" s="385"/>
-      <c r="D20" s="385"/>
-      <c r="E20" s="385"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="388"/>
+      <c r="E20" s="388"/>
       <c r="F20" s="220" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="385"/>
-      <c r="I20" s="385"/>
-      <c r="J20" s="385"/>
-      <c r="K20" s="385"/>
-      <c r="L20" s="385"/>
-      <c r="M20" s="385"/>
-      <c r="N20" s="385"/>
+      <c r="H20" s="388"/>
+      <c r="I20" s="388"/>
+      <c r="J20" s="388"/>
+      <c r="K20" s="388"/>
+      <c r="L20" s="388"/>
+      <c r="M20" s="388"/>
+      <c r="N20" s="388"/>
       <c r="O20" s="220" t="s">
         <v>314</v>
       </c>
       <c r="P20" s="218" t="s">
         <v>315</v>
       </c>
-      <c r="Q20" s="385"/>
+      <c r="Q20" s="388"/>
       <c r="R20" s="220" t="s">
         <v>24</v>
       </c>
@@ -57282,32 +57285,32 @@
       <c r="T20" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="385"/>
-      <c r="V20" s="385"/>
+      <c r="U20" s="388"/>
+      <c r="V20" s="388"/>
     </row>
     <row r="21" spans="3:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C21" s="388" t="s">
+      <c r="C21" s="384" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="389"/>
-      <c r="E21" s="389"/>
-      <c r="F21" s="389"/>
-      <c r="G21" s="389"/>
-      <c r="H21" s="389"/>
-      <c r="I21" s="389"/>
-      <c r="J21" s="389"/>
-      <c r="K21" s="389"/>
-      <c r="L21" s="389"/>
-      <c r="M21" s="389"/>
-      <c r="N21" s="389"/>
-      <c r="O21" s="389"/>
-      <c r="P21" s="389"/>
-      <c r="Q21" s="389"/>
-      <c r="R21" s="389"/>
-      <c r="S21" s="389"/>
-      <c r="T21" s="389"/>
-      <c r="U21" s="389"/>
-      <c r="V21" s="390"/>
+      <c r="D21" s="385"/>
+      <c r="E21" s="385"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="385"/>
+      <c r="I21" s="385"/>
+      <c r="J21" s="385"/>
+      <c r="K21" s="385"/>
+      <c r="L21" s="385"/>
+      <c r="M21" s="385"/>
+      <c r="N21" s="385"/>
+      <c r="O21" s="385"/>
+      <c r="P21" s="385"/>
+      <c r="Q21" s="385"/>
+      <c r="R21" s="385"/>
+      <c r="S21" s="385"/>
+      <c r="T21" s="385"/>
+      <c r="U21" s="385"/>
+      <c r="V21" s="386"/>
     </row>
     <row r="22" spans="3:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="C22" s="221">
@@ -57523,6 +57526,22 @@
     <row r="151" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="C21:V21"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="O19:P19"/>
@@ -57539,22 +57558,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58937,11 +58940,11 @@
         <v>53</v>
       </c>
       <c r="J4" s="399"/>
-      <c r="K4" s="374" t="s">
+      <c r="K4" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="374"/>
-      <c r="M4" s="374"/>
+      <c r="L4" s="359"/>
+      <c r="M4" s="359"/>
       <c r="N4" s="399" t="s">
         <v>48</v>
       </c>
@@ -59279,7 +59282,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="94.5" thickBot="1">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="409" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="219" t="s">
@@ -59298,29 +59301,29 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A4" s="403"/>
+      <c r="A4" s="409"/>
       <c r="B4" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="406" t="s">
+      <c r="C4" s="403" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="407"/>
-      <c r="E4" s="406" t="s">
+      <c r="D4" s="405"/>
+      <c r="E4" s="403" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="407"/>
+      <c r="F4" s="405"/>
       <c r="G4" s="225" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="226" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="406" t="s">
+      <c r="I4" s="403" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="408"/>
-      <c r="K4" s="407"/>
+      <c r="J4" s="404"/>
+      <c r="K4" s="405"/>
       <c r="L4" s="226" t="s">
         <v>42</v>
       </c>
@@ -59482,20 +59485,20 @@
       <c r="E21" s="155"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="403" t="s">
+      <c r="A22" s="409" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="404"/>
+      <c r="B22" s="410"/>
       <c r="C22" s="148"/>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
+      <c r="D22" s="408"/>
+      <c r="E22" s="408"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="403"/>
-      <c r="B23" s="404"/>
+      <c r="A23" s="409"/>
+      <c r="B23" s="410"/>
       <c r="C23" s="148"/>
-      <c r="D23" s="405"/>
-      <c r="E23" s="405"/>
+      <c r="D23" s="408"/>
+      <c r="E23" s="408"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="148" t="s">
@@ -59503,8 +59506,8 @@
       </c>
       <c r="B24" s="153"/>
       <c r="C24" s="148"/>
-      <c r="D24" s="405"/>
-      <c r="E24" s="405"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="408"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="148" t="s">
@@ -59512,8 +59515,8 @@
       </c>
       <c r="B25" s="153"/>
       <c r="C25" s="148"/>
-      <c r="D25" s="405"/>
-      <c r="E25" s="405"/>
+      <c r="D25" s="408"/>
+      <c r="E25" s="408"/>
     </row>
     <row r="30" spans="1:13" ht="94.5" thickBot="1">
       <c r="B30" s="219" t="s">
@@ -59532,37 +59535,37 @@
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13" ht="60.75" customHeight="1" thickBot="1">
-      <c r="B31" s="384" t="s">
+      <c r="B31" s="387" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="406" t="s">
+      <c r="C31" s="403" t="s">
         <v>318</v>
       </c>
-      <c r="D31" s="407"/>
-      <c r="E31" s="406" t="s">
+      <c r="D31" s="405"/>
+      <c r="E31" s="403" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="407"/>
-      <c r="G31" s="409" t="s">
+      <c r="F31" s="405"/>
+      <c r="G31" s="406" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="384" t="s">
+      <c r="H31" s="387" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="406" t="s">
+      <c r="I31" s="403" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="408"/>
-      <c r="K31" s="407"/>
-      <c r="L31" s="384" t="s">
+      <c r="J31" s="404"/>
+      <c r="K31" s="405"/>
+      <c r="L31" s="387" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="384" t="s">
+      <c r="M31" s="387" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="33.75" thickBot="1">
-      <c r="B32" s="385"/>
+      <c r="B32" s="388"/>
       <c r="C32" s="218" t="s">
         <v>132</v>
       </c>
@@ -59575,8 +59578,8 @@
       <c r="F32" s="218" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="410"/>
-      <c r="H32" s="385"/>
+      <c r="G32" s="407"/>
+      <c r="H32" s="388"/>
       <c r="I32" s="218" t="s">
         <v>24</v>
       </c>
@@ -59586,8 +59589,8 @@
       <c r="K32" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="385"/>
-      <c r="M32" s="385"/>
+      <c r="L32" s="388"/>
+      <c r="M32" s="388"/>
     </row>
     <row r="33" spans="2:13" ht="16.5" thickBot="1">
       <c r="B33" s="221">
@@ -59629,6 +59632,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="I4:K4"/>
@@ -59640,13 +59650,6 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59686,30 +59689,30 @@
   <sheetData>
     <row r="1" spans="1:11" s="164" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:11" ht="100.5" customHeight="1">
-      <c r="A2" s="403"/>
-      <c r="B2" s="411"/>
-      <c r="C2" s="411"/>
-      <c r="D2" s="411"/>
-      <c r="E2" s="411"/>
-      <c r="F2" s="411"/>
+      <c r="A2" s="409"/>
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
       <c r="G2" s="414"/>
       <c r="H2" s="414"/>
       <c r="I2" s="414"/>
-      <c r="J2" s="411"/>
-      <c r="K2" s="411"/>
+      <c r="J2" s="412"/>
+      <c r="K2" s="412"/>
     </row>
     <row r="3" spans="1:11" ht="108.75" customHeight="1">
-      <c r="A3" s="403"/>
-      <c r="B3" s="412"/>
-      <c r="C3" s="412"/>
-      <c r="D3" s="412"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
+      <c r="A3" s="409"/>
+      <c r="B3" s="413"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="89"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
     </row>
     <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="165"/>
@@ -59767,7 +59770,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1">
-      <c r="D14" s="413"/>
+      <c r="D14" s="411"/>
       <c r="E14" s="210">
         <v>4.5</v>
       </c>
@@ -59776,7 +59779,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1">
-      <c r="D15" s="413"/>
+      <c r="D15" s="411"/>
       <c r="E15" s="210">
         <v>61.8</v>
       </c>
@@ -59806,16 +59809,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59852,39 +59855,39 @@
       <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A2" s="416" t="s">
+      <c r="A2" s="415" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="416" t="s">
+      <c r="B2" s="415" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="416" t="s">
+      <c r="C2" s="415" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="416" t="s">
+      <c r="D2" s="415" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="416" t="s">
+      <c r="E2" s="415" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="416" t="s">
+      <c r="F2" s="415" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="416"/>
-      <c r="H2" s="416"/>
-      <c r="I2" s="416" t="s">
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="416" t="s">
+      <c r="J2" s="415" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A3" s="416"/>
-      <c r="B3" s="416"/>
-      <c r="C3" s="416"/>
-      <c r="D3" s="416"/>
-      <c r="E3" s="416"/>
+      <c r="A3" s="415"/>
+      <c r="B3" s="415"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
       <c r="F3" s="71" t="s">
         <v>72</v>
       </c>
@@ -59894,20 +59897,20 @@
       <c r="H3" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="416"/>
-      <c r="J3" s="416"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
     </row>
     <row r="4" spans="1:10" s="72" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="417"/>
-      <c r="B4" s="417"/>
-      <c r="C4" s="417"/>
-      <c r="D4" s="417"/>
-      <c r="E4" s="417"/>
-      <c r="F4" s="417"/>
-      <c r="G4" s="417"/>
-      <c r="H4" s="417"/>
-      <c r="I4" s="417"/>
-      <c r="J4" s="417"/>
+      <c r="A4" s="419"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="419"/>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
+      <c r="G4" s="419"/>
+      <c r="H4" s="419"/>
+      <c r="I4" s="419"/>
+      <c r="J4" s="419"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="71">
@@ -59946,13 +59949,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="418" t="s">
+      <c r="A6" s="420" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="418"/>
-      <c r="C6" s="418"/>
-      <c r="D6" s="418"/>
-      <c r="E6" s="418"/>
+      <c r="B6" s="420"/>
+      <c r="C6" s="420"/>
+      <c r="D6" s="420"/>
+      <c r="E6" s="420"/>
       <c r="F6" s="75">
         <f>F5</f>
         <v>9.1475999999999988</v>
@@ -59972,40 +59975,40 @@
       <c r="J6" s="76"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="419"/>
-      <c r="B11" s="419"/>
-      <c r="C11" s="419"/>
-      <c r="D11" s="419"/>
-      <c r="E11" s="419"/>
-      <c r="F11" s="419"/>
-      <c r="G11" s="419"/>
-      <c r="H11" s="419"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="419"/>
+      <c r="A11" s="416"/>
+      <c r="B11" s="416"/>
+      <c r="C11" s="416"/>
+      <c r="D11" s="416"/>
+      <c r="E11" s="416"/>
+      <c r="F11" s="416"/>
+      <c r="G11" s="416"/>
+      <c r="H11" s="416"/>
+      <c r="I11" s="416"/>
+      <c r="J11" s="416"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="419"/>
-      <c r="B12" s="419"/>
-      <c r="C12" s="419"/>
-      <c r="D12" s="419"/>
-      <c r="E12" s="419"/>
+      <c r="A12" s="416"/>
+      <c r="B12" s="416"/>
+      <c r="C12" s="416"/>
+      <c r="D12" s="416"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="419"/>
-      <c r="J12" s="419"/>
+      <c r="I12" s="416"/>
+      <c r="J12" s="416"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="420"/>
-      <c r="B13" s="420"/>
-      <c r="C13" s="420"/>
-      <c r="D13" s="420"/>
-      <c r="E13" s="420"/>
-      <c r="F13" s="420"/>
-      <c r="G13" s="420"/>
-      <c r="H13" s="420"/>
-      <c r="I13" s="420"/>
-      <c r="J13" s="420"/>
+      <c r="A13" s="417"/>
+      <c r="B13" s="417"/>
+      <c r="C13" s="417"/>
+      <c r="D13" s="417"/>
+      <c r="E13" s="417"/>
+      <c r="F13" s="417"/>
+      <c r="G13" s="417"/>
+      <c r="H13" s="417"/>
+      <c r="I13" s="417"/>
+      <c r="J13" s="417"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="77"/>
@@ -60020,11 +60023,11 @@
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="415"/>
-      <c r="B15" s="415"/>
-      <c r="C15" s="415"/>
-      <c r="D15" s="415"/>
-      <c r="E15" s="415"/>
+      <c r="A15" s="418"/>
+      <c r="B15" s="418"/>
+      <c r="C15" s="418"/>
+      <c r="D15" s="418"/>
+      <c r="E15" s="418"/>
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
@@ -60033,6 +60036,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
@@ -60049,10 +60056,6 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -60295,34 +60298,34 @@
       </c>
     </row>
     <row r="17" spans="2:28" ht="48.75" customHeight="1">
-      <c r="B17" s="416" t="s">
+      <c r="B17" s="415" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="411" t="s">
+      <c r="C17" s="412" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="411" t="s">
+      <c r="D17" s="412" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="411" t="s">
+      <c r="E17" s="412" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="411" t="s">
+      <c r="F17" s="412" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="411" t="s">
+      <c r="G17" s="412" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="411" t="s">
+      <c r="H17" s="412" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="411" t="s">
+      <c r="I17" s="412" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="411" t="s">
+      <c r="J17" s="412" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="411" t="s">
+      <c r="K17" s="412" t="s">
         <v>95</v>
       </c>
       <c r="L17" s="414" t="s">
@@ -60330,10 +60333,10 @@
       </c>
       <c r="M17" s="414"/>
       <c r="N17" s="414"/>
-      <c r="O17" s="411" t="s">
+      <c r="O17" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="411" t="s">
+      <c r="P17" s="412" t="s">
         <v>9</v>
       </c>
       <c r="R17" s="88" t="s">
@@ -60362,16 +60365,16 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="128.25" customHeight="1">
-      <c r="B18" s="416"/>
-      <c r="C18" s="412"/>
-      <c r="D18" s="412"/>
-      <c r="E18" s="412"/>
-      <c r="F18" s="412"/>
-      <c r="G18" s="412"/>
-      <c r="H18" s="412"/>
-      <c r="I18" s="412"/>
-      <c r="J18" s="412"/>
-      <c r="K18" s="412"/>
+      <c r="B18" s="415"/>
+      <c r="C18" s="413"/>
+      <c r="D18" s="413"/>
+      <c r="E18" s="413"/>
+      <c r="F18" s="413"/>
+      <c r="G18" s="413"/>
+      <c r="H18" s="413"/>
+      <c r="I18" s="413"/>
+      <c r="J18" s="413"/>
+      <c r="K18" s="413"/>
       <c r="L18" s="89" t="s">
         <v>72</v>
       </c>
@@ -60381,8 +60384,8 @@
       <c r="N18" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="O18" s="412"/>
-      <c r="P18" s="412"/>
+      <c r="O18" s="413"/>
+      <c r="P18" s="413"/>
       <c r="R18" s="90" t="s">
         <v>100</v>
       </c>
@@ -60756,6 +60759,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
@@ -60763,12 +60772,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="O17:O18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Программа мер-тий + прогрессивные с разбивкой -Лещун.xlsx
+++ b/Программа мер-тий + прогрессивные с разбивкой -Лещун.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Перехвал\Белтелеком_Междуг_связь\Beltelekom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DF6B34-D4C6-45DF-A5E3-E5F55FD4D942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5840D79E-43BA-45CE-B80B-3DE3B6C75C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6322,11 +6322,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="50" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6373,6 +6370,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -6397,6 +6400,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6405,12 +6420,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -6426,12 +6435,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6454,13 +6457,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6469,23 +6481,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6508,7 +6511,43 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6518,6 +6557,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6538,49 +6586,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6605,27 +6629,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6654,6 +6657,171 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="9" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6685,14 +6853,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6703,164 +6865,8 @@
     <xf numFmtId="0" fontId="49" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -6888,12 +6894,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -8233,13 +8233,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="376" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="360" t="s">
+      <c r="B1" s="376" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="360" t="s">
+      <c r="C1" s="376" t="s">
         <v>158</v>
       </c>
       <c r="D1" s="131" t="s">
@@ -8254,11 +8254,11 @@
       <c r="G1" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="359" t="s">
+      <c r="H1" s="375" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="359"/>
-      <c r="J1" s="359"/>
+      <c r="I1" s="375"/>
+      <c r="J1" s="375"/>
       <c r="K1" s="131" t="s">
         <v>224</v>
       </c>
@@ -8273,9 +8273,9 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A2" s="360"/>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
+      <c r="A2" s="376"/>
+      <c r="B2" s="376"/>
+      <c r="C2" s="376"/>
       <c r="D2" s="104" t="s">
         <v>204</v>
       </c>
@@ -8307,20 +8307,20 @@
       <c r="P2" s="132"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="360" t="s">
+      <c r="A3" s="376" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
-      <c r="I3" s="360"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="360"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
       <c r="O3" s="132" t="s">
         <v>166</v>
       </c>
@@ -8419,20 +8419,20 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="365" t="s">
+      <c r="A6" s="364" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="365"/>
-      <c r="C6" s="365"/>
-      <c r="D6" s="365"/>
-      <c r="E6" s="365"/>
-      <c r="F6" s="365"/>
-      <c r="G6" s="365"/>
-      <c r="H6" s="365"/>
-      <c r="I6" s="365"/>
-      <c r="J6" s="365"/>
-      <c r="K6" s="365"/>
-      <c r="L6" s="365"/>
+      <c r="B6" s="364"/>
+      <c r="C6" s="364"/>
+      <c r="D6" s="364"/>
+      <c r="E6" s="364"/>
+      <c r="F6" s="364"/>
+      <c r="G6" s="364"/>
+      <c r="H6" s="364"/>
+      <c r="I6" s="364"/>
+      <c r="J6" s="364"/>
+      <c r="K6" s="364"/>
+      <c r="L6" s="364"/>
       <c r="Q6" s="130">
         <v>1900</v>
       </c>
@@ -8501,20 +8501,20 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="365" t="s">
+      <c r="A8" s="364" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="365"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
-      <c r="G8" s="365"/>
-      <c r="H8" s="365"/>
-      <c r="I8" s="365"/>
-      <c r="J8" s="365"/>
-      <c r="K8" s="365"/>
-      <c r="L8" s="365"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
+      <c r="G8" s="364"/>
+      <c r="H8" s="364"/>
+      <c r="I8" s="364"/>
+      <c r="J8" s="364"/>
+      <c r="K8" s="364"/>
+      <c r="L8" s="364"/>
       <c r="Q8" s="130">
         <f>Q7*0.1</f>
         <v>38</v>
@@ -8586,20 +8586,20 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="365" t="s">
+      <c r="A10" s="364" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="365"/>
-      <c r="C10" s="365"/>
-      <c r="D10" s="365"/>
-      <c r="E10" s="365"/>
-      <c r="F10" s="365"/>
-      <c r="G10" s="365"/>
-      <c r="H10" s="365"/>
-      <c r="I10" s="365"/>
-      <c r="J10" s="365"/>
-      <c r="K10" s="365"/>
-      <c r="L10" s="365"/>
+      <c r="B10" s="364"/>
+      <c r="C10" s="364"/>
+      <c r="D10" s="364"/>
+      <c r="E10" s="364"/>
+      <c r="F10" s="364"/>
+      <c r="G10" s="364"/>
+      <c r="H10" s="364"/>
+      <c r="I10" s="364"/>
+      <c r="J10" s="364"/>
+      <c r="K10" s="364"/>
+      <c r="L10" s="364"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="159">
@@ -8719,20 +8719,20 @@
       </c>
     </row>
     <row r="18" spans="4:19" ht="15.75" hidden="1" thickBot="1">
-      <c r="E18" s="366" t="s">
+      <c r="E18" s="365" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="367"/>
-      <c r="G18" s="367"/>
-      <c r="H18" s="367"/>
-      <c r="I18" s="367"/>
-      <c r="J18" s="367"/>
-      <c r="K18" s="367"/>
-      <c r="L18" s="367"/>
-      <c r="M18" s="367"/>
-      <c r="N18" s="367"/>
-      <c r="O18" s="367"/>
-      <c r="P18" s="368"/>
+      <c r="F18" s="366"/>
+      <c r="G18" s="366"/>
+      <c r="H18" s="366"/>
+      <c r="I18" s="366"/>
+      <c r="J18" s="366"/>
+      <c r="K18" s="366"/>
+      <c r="L18" s="366"/>
+      <c r="M18" s="366"/>
+      <c r="N18" s="366"/>
+      <c r="O18" s="366"/>
+      <c r="P18" s="367"/>
       <c r="S18" s="130">
         <f>S17*0.2</f>
         <v>500</v>
@@ -9225,35 +9225,35 @@
       <c r="I45" s="156"/>
     </row>
     <row r="46" spans="2:12" ht="48" customHeight="1" thickBot="1">
-      <c r="B46" s="369" t="s">
+      <c r="B46" s="368" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="369" t="s">
+      <c r="C46" s="368" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="369" t="s">
+      <c r="D46" s="368" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="371" t="s">
+      <c r="E46" s="370" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="372"/>
-      <c r="G46" s="373" t="s">
+      <c r="F46" s="371"/>
+      <c r="G46" s="372" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="374"/>
-      <c r="I46" s="375"/>
-      <c r="J46" s="369" t="s">
+      <c r="H46" s="373"/>
+      <c r="I46" s="374"/>
+      <c r="J46" s="368" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="369" t="s">
+      <c r="K46" s="368" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B47" s="370"/>
-      <c r="C47" s="370"/>
-      <c r="D47" s="370"/>
+      <c r="B47" s="369"/>
+      <c r="C47" s="369"/>
+      <c r="D47" s="369"/>
       <c r="E47" s="207" t="s">
         <v>43</v>
       </c>
@@ -9269,22 +9269,22 @@
       <c r="I47" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="370"/>
-      <c r="K47" s="370"/>
+      <c r="J47" s="369"/>
+      <c r="K47" s="369"/>
     </row>
     <row r="48" spans="2:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B48" s="361" t="s">
+      <c r="B48" s="360" t="s">
         <v>259</v>
       </c>
-      <c r="C48" s="362"/>
-      <c r="D48" s="362"/>
-      <c r="E48" s="362"/>
-      <c r="F48" s="362"/>
-      <c r="G48" s="362"/>
-      <c r="H48" s="362"/>
-      <c r="I48" s="362"/>
-      <c r="J48" s="362"/>
-      <c r="K48" s="363"/>
+      <c r="C48" s="361"/>
+      <c r="D48" s="361"/>
+      <c r="E48" s="361"/>
+      <c r="F48" s="361"/>
+      <c r="G48" s="361"/>
+      <c r="H48" s="361"/>
+      <c r="I48" s="361"/>
+      <c r="J48" s="361"/>
+      <c r="K48" s="362"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B49" s="206">
@@ -9319,18 +9319,18 @@
       </c>
     </row>
     <row r="50" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B50" s="361" t="s">
+      <c r="B50" s="360" t="s">
         <v>321</v>
       </c>
-      <c r="C50" s="362"/>
-      <c r="D50" s="362"/>
-      <c r="E50" s="362"/>
-      <c r="F50" s="362"/>
-      <c r="G50" s="362"/>
-      <c r="H50" s="362"/>
-      <c r="I50" s="362"/>
-      <c r="J50" s="362"/>
-      <c r="K50" s="363"/>
+      <c r="C50" s="361"/>
+      <c r="D50" s="361"/>
+      <c r="E50" s="361"/>
+      <c r="F50" s="361"/>
+      <c r="G50" s="361"/>
+      <c r="H50" s="361"/>
+      <c r="I50" s="361"/>
+      <c r="J50" s="361"/>
+      <c r="K50" s="362"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B51" s="206">
@@ -9365,18 +9365,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B52" s="361" t="s">
+      <c r="B52" s="360" t="s">
         <v>322</v>
       </c>
-      <c r="C52" s="362"/>
-      <c r="D52" s="362"/>
-      <c r="E52" s="362"/>
-      <c r="F52" s="362"/>
-      <c r="G52" s="362"/>
-      <c r="H52" s="362"/>
-      <c r="I52" s="362"/>
-      <c r="J52" s="362"/>
-      <c r="K52" s="364"/>
+      <c r="C52" s="361"/>
+      <c r="D52" s="361"/>
+      <c r="E52" s="361"/>
+      <c r="F52" s="361"/>
+      <c r="G52" s="361"/>
+      <c r="H52" s="361"/>
+      <c r="I52" s="361"/>
+      <c r="J52" s="361"/>
+      <c r="K52" s="363"/>
     </row>
     <row r="53" spans="2:11" ht="16.5" thickBot="1">
       <c r="B53" s="206">
@@ -9443,6 +9443,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:L3"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B52:K52"/>
@@ -9457,11 +9462,6 @@
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="K46:K47"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -9496,35 +9496,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="102.75" customHeight="1">
-      <c r="A3" s="440" t="s">
+      <c r="A3" s="422" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="422" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="440" t="s">
+      <c r="C3" s="422" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="440" t="s">
+      <c r="D3" s="422" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="440"/>
-      <c r="F3" s="445" t="s">
+      <c r="E3" s="422"/>
+      <c r="F3" s="427" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="440" t="s">
+      <c r="G3" s="427"/>
+      <c r="H3" s="427"/>
+      <c r="I3" s="422" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="440" t="s">
+      <c r="J3" s="422" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="98.25" customHeight="1">
-      <c r="A4" s="440"/>
-      <c r="B4" s="440"/>
-      <c r="C4" s="440"/>
+      <c r="A4" s="422"/>
+      <c r="B4" s="422"/>
+      <c r="C4" s="422"/>
       <c r="D4" s="68" t="s">
         <v>43</v>
       </c>
@@ -9540,22 +9540,22 @@
       <c r="H4" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="440"/>
-      <c r="J4" s="440"/>
+      <c r="I4" s="422"/>
+      <c r="J4" s="422"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="441" t="s">
+      <c r="A5" s="423" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="442"/>
-      <c r="C5" s="442"/>
-      <c r="D5" s="442"/>
-      <c r="E5" s="442"/>
-      <c r="F5" s="442"/>
-      <c r="G5" s="442"/>
-      <c r="H5" s="442"/>
-      <c r="I5" s="442"/>
-      <c r="J5" s="443"/>
+      <c r="B5" s="424"/>
+      <c r="C5" s="424"/>
+      <c r="D5" s="424"/>
+      <c r="E5" s="424"/>
+      <c r="F5" s="424"/>
+      <c r="G5" s="424"/>
+      <c r="H5" s="424"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="425"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="60">
@@ -9681,18 +9681,18 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="441" t="s">
+      <c r="A9" s="423" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="442"/>
-      <c r="C9" s="442"/>
-      <c r="D9" s="442"/>
-      <c r="E9" s="442"/>
-      <c r="F9" s="442"/>
-      <c r="G9" s="442"/>
-      <c r="H9" s="442"/>
-      <c r="I9" s="442"/>
-      <c r="J9" s="443"/>
+      <c r="B9" s="424"/>
+      <c r="C9" s="424"/>
+      <c r="D9" s="424"/>
+      <c r="E9" s="424"/>
+      <c r="F9" s="424"/>
+      <c r="G9" s="424"/>
+      <c r="H9" s="424"/>
+      <c r="I9" s="424"/>
+      <c r="J9" s="425"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="60">
@@ -9730,11 +9730,11 @@
         <f>I10/H10</f>
         <v>0.63488672928269629</v>
       </c>
-      <c r="N10" s="444" t="s">
+      <c r="N10" s="426" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="444"/>
-      <c r="P10" s="444"/>
+      <c r="O10" s="426"/>
+      <c r="P10" s="426"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="60">
@@ -9828,40 +9828,40 @@
       <c r="A15" s="438" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="433" t="s">
+      <c r="B15" s="428" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="433" t="s">
+      <c r="C15" s="428" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="433" t="s">
+      <c r="D15" s="428" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="433" t="s">
+      <c r="E15" s="428" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="433" t="s">
+      <c r="F15" s="428" t="s">
         <v>288</v>
       </c>
-      <c r="G15" s="435" t="s">
+      <c r="G15" s="430" t="s">
         <v>289</v>
       </c>
-      <c r="H15" s="436"/>
-      <c r="I15" s="437"/>
-      <c r="J15" s="433" t="s">
+      <c r="H15" s="431"/>
+      <c r="I15" s="432"/>
+      <c r="J15" s="428" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="433" t="s">
+      <c r="K15" s="428" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="66.75" thickBot="1">
       <c r="A16" s="439"/>
-      <c r="B16" s="434"/>
-      <c r="C16" s="434"/>
-      <c r="D16" s="434"/>
-      <c r="E16" s="434"/>
-      <c r="F16" s="434"/>
+      <c r="B16" s="429"/>
+      <c r="C16" s="429"/>
+      <c r="D16" s="429"/>
+      <c r="E16" s="429"/>
+      <c r="F16" s="429"/>
       <c r="G16" s="212" t="s">
         <v>49</v>
       </c>
@@ -9871,14 +9871,14 @@
       <c r="I16" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="434"/>
-      <c r="K16" s="434"/>
+      <c r="J16" s="429"/>
+      <c r="K16" s="429"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A17" s="421" t="s">
+      <c r="A17" s="433" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="421">
+      <c r="B17" s="433">
         <v>64</v>
       </c>
       <c r="C17" s="210" t="s">
@@ -9887,50 +9887,50 @@
       <c r="D17" s="210">
         <v>0.08</v>
       </c>
-      <c r="E17" s="421">
+      <c r="E17" s="433">
         <v>2150</v>
       </c>
       <c r="F17" s="175">
         <v>11</v>
       </c>
-      <c r="G17" s="421">
+      <c r="G17" s="433">
         <v>6.05</v>
       </c>
-      <c r="H17" s="423">
+      <c r="H17" s="436">
         <v>1.87</v>
       </c>
-      <c r="I17" s="421">
+      <c r="I17" s="433">
         <v>1.01</v>
       </c>
-      <c r="J17" s="421">
+      <c r="J17" s="433">
         <v>3.82</v>
       </c>
-      <c r="K17" s="421">
+      <c r="K17" s="433">
         <v>3.77</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A18" s="432"/>
-      <c r="B18" s="422"/>
+      <c r="A18" s="434"/>
+      <c r="B18" s="435"/>
       <c r="C18" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D18" s="210">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E18" s="422"/>
+      <c r="E18" s="435"/>
       <c r="F18" s="175">
         <v>5</v>
       </c>
-      <c r="G18" s="422"/>
-      <c r="H18" s="424"/>
-      <c r="I18" s="422"/>
-      <c r="J18" s="422"/>
-      <c r="K18" s="422"/>
+      <c r="G18" s="435"/>
+      <c r="H18" s="437"/>
+      <c r="I18" s="435"/>
+      <c r="J18" s="435"/>
+      <c r="K18" s="435"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A19" s="432"/>
-      <c r="B19" s="421">
+      <c r="A19" s="434"/>
+      <c r="B19" s="433">
         <v>35</v>
       </c>
       <c r="C19" s="210" t="s">
@@ -9939,50 +9939,50 @@
       <c r="D19" s="210">
         <v>0.25</v>
       </c>
-      <c r="E19" s="421">
+      <c r="E19" s="433">
         <v>2150</v>
       </c>
       <c r="F19" s="175">
         <v>18.8</v>
       </c>
-      <c r="G19" s="421">
+      <c r="G19" s="433">
         <v>12.79</v>
       </c>
-      <c r="H19" s="423">
+      <c r="H19" s="436">
         <v>3.96</v>
       </c>
-      <c r="I19" s="421">
+      <c r="I19" s="433">
         <v>2.14</v>
       </c>
-      <c r="J19" s="421">
+      <c r="J19" s="433">
         <v>9.75</v>
       </c>
-      <c r="K19" s="421">
+      <c r="K19" s="433">
         <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A20" s="432"/>
-      <c r="B20" s="422"/>
+      <c r="A20" s="434"/>
+      <c r="B20" s="435"/>
       <c r="C20" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D20" s="210">
         <v>0.08</v>
       </c>
-      <c r="E20" s="422"/>
+      <c r="E20" s="435"/>
       <c r="F20" s="175">
         <v>6</v>
       </c>
-      <c r="G20" s="422"/>
-      <c r="H20" s="424"/>
-      <c r="I20" s="422"/>
-      <c r="J20" s="422"/>
-      <c r="K20" s="422"/>
+      <c r="G20" s="435"/>
+      <c r="H20" s="437"/>
+      <c r="I20" s="435"/>
+      <c r="J20" s="435"/>
+      <c r="K20" s="435"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A21" s="432"/>
-      <c r="B21" s="421">
+      <c r="A21" s="434"/>
+      <c r="B21" s="433">
         <v>65</v>
       </c>
       <c r="C21" s="210" t="s">
@@ -9991,52 +9991,52 @@
       <c r="D21" s="210">
         <v>0.06</v>
       </c>
-      <c r="E21" s="421">
+      <c r="E21" s="433">
         <v>2150</v>
       </c>
       <c r="F21" s="175">
         <v>8.4</v>
       </c>
-      <c r="G21" s="421">
+      <c r="G21" s="433">
         <v>7.41</v>
       </c>
-      <c r="H21" s="423">
+      <c r="H21" s="436">
         <v>2.29</v>
       </c>
-      <c r="I21" s="421">
+      <c r="I21" s="433">
         <v>1.24</v>
       </c>
-      <c r="J21" s="421">
+      <c r="J21" s="433">
         <v>0.61</v>
       </c>
-      <c r="K21" s="421">
+      <c r="K21" s="433">
         <v>0.49</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A22" s="422"/>
-      <c r="B22" s="422"/>
+      <c r="A22" s="435"/>
+      <c r="B22" s="435"/>
       <c r="C22" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D22" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E22" s="422"/>
+      <c r="E22" s="435"/>
       <c r="F22" s="175">
         <v>1</v>
       </c>
-      <c r="G22" s="422"/>
-      <c r="H22" s="424"/>
-      <c r="I22" s="422"/>
-      <c r="J22" s="422"/>
-      <c r="K22" s="422"/>
+      <c r="G22" s="435"/>
+      <c r="H22" s="437"/>
+      <c r="I22" s="435"/>
+      <c r="J22" s="435"/>
+      <c r="K22" s="435"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A23" s="421" t="s">
+      <c r="A23" s="433" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="421">
+      <c r="B23" s="433">
         <v>76</v>
       </c>
       <c r="C23" s="210" t="s">
@@ -10045,50 +10045,50 @@
       <c r="D23" s="210">
         <v>0.08</v>
       </c>
-      <c r="E23" s="421">
+      <c r="E23" s="433">
         <v>2150</v>
       </c>
       <c r="F23" s="175">
         <v>13.1</v>
       </c>
-      <c r="G23" s="421">
+      <c r="G23" s="433">
         <v>7.19</v>
       </c>
-      <c r="H23" s="423">
+      <c r="H23" s="436">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I23" s="421">
+      <c r="I23" s="433">
         <v>1.2</v>
       </c>
-      <c r="J23" s="421">
+      <c r="J23" s="433">
         <v>4.53</v>
       </c>
-      <c r="K23" s="421">
+      <c r="K23" s="433">
         <v>3.77</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A24" s="432"/>
-      <c r="B24" s="422"/>
+      <c r="A24" s="434"/>
+      <c r="B24" s="435"/>
       <c r="C24" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D24" s="210">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E24" s="422"/>
+      <c r="E24" s="435"/>
       <c r="F24" s="175">
         <v>5.9</v>
       </c>
-      <c r="G24" s="422"/>
-      <c r="H24" s="424"/>
-      <c r="I24" s="422"/>
-      <c r="J24" s="422"/>
-      <c r="K24" s="422"/>
+      <c r="G24" s="435"/>
+      <c r="H24" s="437"/>
+      <c r="I24" s="435"/>
+      <c r="J24" s="435"/>
+      <c r="K24" s="435"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A25" s="432"/>
-      <c r="B25" s="421">
+      <c r="A25" s="434"/>
+      <c r="B25" s="433">
         <v>4</v>
       </c>
       <c r="C25" s="210" t="s">
@@ -10097,50 +10097,50 @@
       <c r="D25" s="210">
         <v>0.25</v>
       </c>
-      <c r="E25" s="421">
+      <c r="E25" s="433">
         <v>2150</v>
       </c>
       <c r="F25" s="175">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G25" s="421">
+      <c r="G25" s="433">
         <v>1.46</v>
       </c>
-      <c r="H25" s="423">
+      <c r="H25" s="436">
         <v>0.45</v>
       </c>
-      <c r="I25" s="421">
+      <c r="I25" s="433">
         <v>0.24</v>
       </c>
-      <c r="J25" s="421">
+      <c r="J25" s="433">
         <v>1.35</v>
       </c>
-      <c r="K25" s="421">
+      <c r="K25" s="433">
         <v>5.52</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A26" s="432"/>
-      <c r="B26" s="422"/>
+      <c r="A26" s="434"/>
+      <c r="B26" s="435"/>
       <c r="C26" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D26" s="210">
         <v>0.08</v>
       </c>
-      <c r="E26" s="422"/>
+      <c r="E26" s="435"/>
       <c r="F26" s="175">
         <v>0.7</v>
       </c>
-      <c r="G26" s="422"/>
-      <c r="H26" s="424"/>
-      <c r="I26" s="422"/>
-      <c r="J26" s="422"/>
-      <c r="K26" s="422"/>
+      <c r="G26" s="435"/>
+      <c r="H26" s="437"/>
+      <c r="I26" s="435"/>
+      <c r="J26" s="435"/>
+      <c r="K26" s="435"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A27" s="432"/>
-      <c r="B27" s="421">
+      <c r="A27" s="434"/>
+      <c r="B27" s="433">
         <v>19</v>
       </c>
       <c r="C27" s="210" t="s">
@@ -10149,50 +10149,50 @@
       <c r="D27" s="210">
         <v>0.06</v>
       </c>
-      <c r="E27" s="421">
+      <c r="E27" s="433">
         <v>2150</v>
       </c>
       <c r="F27" s="175">
         <v>2.5</v>
       </c>
-      <c r="G27" s="421">
+      <c r="G27" s="433">
         <v>2.17</v>
       </c>
-      <c r="H27" s="423">
+      <c r="H27" s="436">
         <v>0.67</v>
       </c>
-      <c r="I27" s="421">
+      <c r="I27" s="433">
         <v>0.36</v>
       </c>
-      <c r="J27" s="421">
+      <c r="J27" s="433">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K27" s="421">
+      <c r="K27" s="433">
         <v>3.08</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A28" s="432"/>
-      <c r="B28" s="422"/>
+      <c r="A28" s="434"/>
+      <c r="B28" s="435"/>
       <c r="C28" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D28" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="422"/>
+      <c r="E28" s="435"/>
       <c r="F28" s="175">
         <v>0.3</v>
       </c>
-      <c r="G28" s="422"/>
-      <c r="H28" s="424"/>
-      <c r="I28" s="422"/>
-      <c r="J28" s="422"/>
-      <c r="K28" s="422"/>
+      <c r="G28" s="435"/>
+      <c r="H28" s="437"/>
+      <c r="I28" s="435"/>
+      <c r="J28" s="435"/>
+      <c r="K28" s="435"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A29" s="432"/>
-      <c r="B29" s="421">
+      <c r="A29" s="434"/>
+      <c r="B29" s="433">
         <v>6</v>
       </c>
       <c r="C29" s="210" t="s">
@@ -10201,52 +10201,52 @@
       <c r="D29" s="210">
         <v>0.125</v>
       </c>
-      <c r="E29" s="421">
+      <c r="E29" s="433">
         <v>2150</v>
       </c>
       <c r="F29" s="175">
         <v>1.6</v>
       </c>
-      <c r="G29" s="421">
+      <c r="G29" s="433">
         <v>0.84</v>
       </c>
-      <c r="H29" s="423">
+      <c r="H29" s="436">
         <v>0.26</v>
       </c>
-      <c r="I29" s="421">
+      <c r="I29" s="433">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J29" s="421">
+      <c r="J29" s="433">
         <v>0.19</v>
       </c>
-      <c r="K29" s="421">
+      <c r="K29" s="433">
         <v>1.36</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A30" s="422"/>
-      <c r="B30" s="422"/>
+      <c r="A30" s="435"/>
+      <c r="B30" s="435"/>
       <c r="C30" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D30" s="210">
         <v>0.06</v>
       </c>
-      <c r="E30" s="422"/>
+      <c r="E30" s="435"/>
       <c r="F30" s="175">
         <v>0.8</v>
       </c>
-      <c r="G30" s="422"/>
-      <c r="H30" s="424"/>
-      <c r="I30" s="422"/>
-      <c r="J30" s="422"/>
-      <c r="K30" s="422"/>
+      <c r="G30" s="435"/>
+      <c r="H30" s="437"/>
+      <c r="I30" s="435"/>
+      <c r="J30" s="435"/>
+      <c r="K30" s="435"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A31" s="423" t="s">
+      <c r="A31" s="436" t="s">
         <v>296</v>
       </c>
-      <c r="B31" s="421">
+      <c r="B31" s="433">
         <v>7</v>
       </c>
       <c r="C31" s="210" t="s">
@@ -10255,50 +10255,50 @@
       <c r="D31" s="210">
         <v>0.08</v>
       </c>
-      <c r="E31" s="421">
+      <c r="E31" s="433">
         <v>950</v>
       </c>
       <c r="F31" s="175">
         <v>0.5</v>
       </c>
-      <c r="G31" s="421">
+      <c r="G31" s="433">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H31" s="423">
+      <c r="H31" s="436">
         <v>0.09</v>
       </c>
-      <c r="I31" s="421">
+      <c r="I31" s="433">
         <v>0.05</v>
       </c>
-      <c r="J31" s="421">
+      <c r="J31" s="433">
         <v>0.42</v>
       </c>
-      <c r="K31" s="421">
+      <c r="K31" s="433">
         <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A32" s="431"/>
-      <c r="B32" s="422"/>
+      <c r="A32" s="440"/>
+      <c r="B32" s="435"/>
       <c r="C32" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D32" s="210">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E32" s="422"/>
+      <c r="E32" s="435"/>
       <c r="F32" s="175">
         <v>0.2</v>
       </c>
-      <c r="G32" s="422"/>
-      <c r="H32" s="424"/>
-      <c r="I32" s="422"/>
-      <c r="J32" s="422"/>
-      <c r="K32" s="422"/>
+      <c r="G32" s="435"/>
+      <c r="H32" s="437"/>
+      <c r="I32" s="435"/>
+      <c r="J32" s="435"/>
+      <c r="K32" s="435"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A33" s="431"/>
-      <c r="B33" s="421">
+      <c r="A33" s="440"/>
+      <c r="B33" s="433">
         <v>41</v>
       </c>
       <c r="C33" s="210" t="s">
@@ -10307,52 +10307,52 @@
       <c r="D33" s="210">
         <v>0.06</v>
       </c>
-      <c r="E33" s="421">
+      <c r="E33" s="433">
         <v>950</v>
       </c>
       <c r="F33" s="175">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G33" s="421">
+      <c r="G33" s="433">
         <v>2.06</v>
       </c>
-      <c r="H33" s="423">
+      <c r="H33" s="436">
         <v>0.64</v>
       </c>
-      <c r="I33" s="421">
+      <c r="I33" s="433">
         <v>0.35</v>
       </c>
-      <c r="J33" s="421">
+      <c r="J33" s="433">
         <v>0.39</v>
       </c>
-      <c r="K33" s="421">
+      <c r="K33" s="433">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A34" s="424"/>
-      <c r="B34" s="422"/>
+      <c r="A34" s="437"/>
+      <c r="B34" s="435"/>
       <c r="C34" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D34" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="422"/>
+      <c r="E34" s="435"/>
       <c r="F34" s="175">
         <v>0.3</v>
       </c>
-      <c r="G34" s="422"/>
-      <c r="H34" s="424"/>
-      <c r="I34" s="422"/>
-      <c r="J34" s="422"/>
-      <c r="K34" s="422"/>
+      <c r="G34" s="435"/>
+      <c r="H34" s="437"/>
+      <c r="I34" s="435"/>
+      <c r="J34" s="435"/>
+      <c r="K34" s="435"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A35" s="428" t="s">
+      <c r="A35" s="444" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="421">
+      <c r="B35" s="433">
         <v>12</v>
       </c>
       <c r="C35" s="210" t="s">
@@ -10361,50 +10361,50 @@
       <c r="D35" s="210">
         <v>0.08</v>
       </c>
-      <c r="E35" s="421">
+      <c r="E35" s="433">
         <v>1200</v>
       </c>
       <c r="F35" s="175">
         <v>1.2</v>
       </c>
-      <c r="G35" s="421">
+      <c r="G35" s="433">
         <v>0.63</v>
       </c>
-      <c r="H35" s="423">
+      <c r="H35" s="436">
         <v>0.2</v>
       </c>
-      <c r="I35" s="421">
+      <c r="I35" s="433">
         <v>0.11</v>
       </c>
-      <c r="J35" s="421">
+      <c r="J35" s="433">
         <v>0.72</v>
       </c>
-      <c r="K35" s="421">
+      <c r="K35" s="433">
         <v>6.75</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A36" s="429"/>
-      <c r="B36" s="422"/>
+      <c r="A36" s="445"/>
+      <c r="B36" s="435"/>
       <c r="C36" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D36" s="210">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E36" s="422"/>
+      <c r="E36" s="435"/>
       <c r="F36" s="175">
         <v>0.5</v>
       </c>
-      <c r="G36" s="422"/>
-      <c r="H36" s="424"/>
-      <c r="I36" s="422"/>
-      <c r="J36" s="422"/>
-      <c r="K36" s="422"/>
+      <c r="G36" s="435"/>
+      <c r="H36" s="437"/>
+      <c r="I36" s="435"/>
+      <c r="J36" s="435"/>
+      <c r="K36" s="435"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A37" s="429"/>
-      <c r="B37" s="421">
+      <c r="A37" s="445"/>
+      <c r="B37" s="433">
         <v>25</v>
       </c>
       <c r="C37" s="210" t="s">
@@ -10413,52 +10413,52 @@
       <c r="D37" s="210">
         <v>0.06</v>
       </c>
-      <c r="E37" s="421">
+      <c r="E37" s="433">
         <v>1200</v>
       </c>
       <c r="F37" s="175">
         <v>1.8</v>
       </c>
-      <c r="G37" s="421">
+      <c r="G37" s="433">
         <v>1.59</v>
       </c>
-      <c r="H37" s="423">
+      <c r="H37" s="436">
         <v>0.49</v>
       </c>
-      <c r="I37" s="421">
+      <c r="I37" s="433">
         <v>0.27</v>
       </c>
-      <c r="J37" s="421">
+      <c r="J37" s="433">
         <v>0.24</v>
       </c>
-      <c r="K37" s="421">
+      <c r="K37" s="433">
         <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A38" s="430"/>
-      <c r="B38" s="422"/>
+      <c r="A38" s="446"/>
+      <c r="B38" s="435"/>
       <c r="C38" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D38" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E38" s="422"/>
+      <c r="E38" s="435"/>
       <c r="F38" s="175">
         <v>0.2</v>
       </c>
-      <c r="G38" s="422"/>
-      <c r="H38" s="424"/>
-      <c r="I38" s="422"/>
-      <c r="J38" s="422"/>
-      <c r="K38" s="422"/>
+      <c r="G38" s="435"/>
+      <c r="H38" s="437"/>
+      <c r="I38" s="435"/>
+      <c r="J38" s="435"/>
+      <c r="K38" s="435"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A39" s="425" t="s">
+      <c r="A39" s="441" t="s">
         <v>298</v>
       </c>
-      <c r="B39" s="421">
+      <c r="B39" s="433">
         <v>2</v>
       </c>
       <c r="C39" s="210" t="s">
@@ -10467,50 +10467,50 @@
       <c r="D39" s="210">
         <v>0.25</v>
       </c>
-      <c r="E39" s="421">
+      <c r="E39" s="433">
         <v>1200</v>
       </c>
       <c r="F39" s="175">
         <v>0.6</v>
       </c>
-      <c r="G39" s="421">
+      <c r="G39" s="433">
         <v>0.41</v>
       </c>
-      <c r="H39" s="423">
+      <c r="H39" s="436">
         <v>0.13</v>
       </c>
-      <c r="I39" s="421">
+      <c r="I39" s="433">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J39" s="421">
+      <c r="J39" s="433">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K39" s="421">
+      <c r="K39" s="433">
         <v>8.16</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A40" s="426"/>
-      <c r="B40" s="422"/>
+      <c r="A40" s="442"/>
+      <c r="B40" s="435"/>
       <c r="C40" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D40" s="210">
         <v>0.08</v>
       </c>
-      <c r="E40" s="422"/>
+      <c r="E40" s="435"/>
       <c r="F40" s="175">
         <v>0.2</v>
       </c>
-      <c r="G40" s="422"/>
-      <c r="H40" s="424"/>
-      <c r="I40" s="422"/>
-      <c r="J40" s="422"/>
-      <c r="K40" s="422"/>
+      <c r="G40" s="435"/>
+      <c r="H40" s="437"/>
+      <c r="I40" s="435"/>
+      <c r="J40" s="435"/>
+      <c r="K40" s="435"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A41" s="426"/>
-      <c r="B41" s="421">
+      <c r="A41" s="442"/>
+      <c r="B41" s="433">
         <v>35</v>
       </c>
       <c r="C41" s="210" t="s">
@@ -10519,52 +10519,52 @@
       <c r="D41" s="210">
         <v>0.06</v>
       </c>
-      <c r="E41" s="421">
+      <c r="E41" s="433">
         <v>1200</v>
       </c>
       <c r="F41" s="175">
         <v>2.5</v>
       </c>
-      <c r="G41" s="421">
+      <c r="G41" s="433">
         <v>2.23</v>
       </c>
-      <c r="H41" s="423">
+      <c r="H41" s="436">
         <v>0.69</v>
       </c>
-      <c r="I41" s="421">
+      <c r="I41" s="433">
         <v>0.37</v>
       </c>
-      <c r="J41" s="421">
+      <c r="J41" s="433">
         <v>0.33</v>
       </c>
-      <c r="K41" s="421">
+      <c r="K41" s="433">
         <v>0.88</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A42" s="427"/>
-      <c r="B42" s="422"/>
+      <c r="A42" s="443"/>
+      <c r="B42" s="435"/>
       <c r="C42" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D42" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E42" s="422"/>
+      <c r="E42" s="435"/>
       <c r="F42" s="175">
         <v>0.3</v>
       </c>
-      <c r="G42" s="422"/>
-      <c r="H42" s="424"/>
-      <c r="I42" s="422"/>
-      <c r="J42" s="422"/>
-      <c r="K42" s="422"/>
+      <c r="G42" s="435"/>
+      <c r="H42" s="437"/>
+      <c r="I42" s="435"/>
+      <c r="J42" s="435"/>
+      <c r="K42" s="435"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A43" s="425" t="s">
+      <c r="A43" s="441" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="421">
+      <c r="B43" s="433">
         <v>8</v>
       </c>
       <c r="C43" s="210" t="s">
@@ -10573,50 +10573,50 @@
       <c r="D43" s="210">
         <v>0.25</v>
       </c>
-      <c r="E43" s="421">
+      <c r="E43" s="433">
         <v>2150</v>
       </c>
       <c r="F43" s="175">
         <v>4.3</v>
       </c>
-      <c r="G43" s="421">
+      <c r="G43" s="433">
         <v>2.92</v>
       </c>
-      <c r="H43" s="423">
+      <c r="H43" s="436">
         <v>0.9</v>
       </c>
-      <c r="I43" s="421">
+      <c r="I43" s="433">
         <v>0.49</v>
       </c>
-      <c r="J43" s="421">
+      <c r="J43" s="433">
         <v>2.23</v>
       </c>
-      <c r="K43" s="421">
+      <c r="K43" s="433">
         <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A44" s="426"/>
-      <c r="B44" s="422"/>
+      <c r="A44" s="442"/>
+      <c r="B44" s="435"/>
       <c r="C44" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D44" s="210">
         <v>0.08</v>
       </c>
-      <c r="E44" s="422"/>
+      <c r="E44" s="435"/>
       <c r="F44" s="175">
         <v>1.4</v>
       </c>
-      <c r="G44" s="422"/>
-      <c r="H44" s="424"/>
-      <c r="I44" s="422"/>
-      <c r="J44" s="422"/>
-      <c r="K44" s="422"/>
+      <c r="G44" s="435"/>
+      <c r="H44" s="437"/>
+      <c r="I44" s="435"/>
+      <c r="J44" s="435"/>
+      <c r="K44" s="435"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="426"/>
-      <c r="B45" s="421">
+      <c r="A45" s="442"/>
+      <c r="B45" s="433">
         <v>38</v>
       </c>
       <c r="C45" s="210" t="s">
@@ -10625,52 +10625,52 @@
       <c r="D45" s="210">
         <v>0.06</v>
       </c>
-      <c r="E45" s="421">
+      <c r="E45" s="433">
         <v>2150</v>
       </c>
       <c r="F45" s="175">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G45" s="421">
+      <c r="G45" s="433">
         <v>4.33</v>
       </c>
-      <c r="H45" s="423">
+      <c r="H45" s="436">
         <v>1.34</v>
       </c>
-      <c r="I45" s="421">
+      <c r="I45" s="433">
         <v>0.72</v>
       </c>
-      <c r="J45" s="421">
+      <c r="J45" s="433">
         <v>0.36</v>
       </c>
-      <c r="K45" s="421">
+      <c r="K45" s="433">
         <v>0.49</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A46" s="427"/>
-      <c r="B46" s="422"/>
+      <c r="A46" s="443"/>
+      <c r="B46" s="435"/>
       <c r="C46" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D46" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E46" s="422"/>
+      <c r="E46" s="435"/>
       <c r="F46" s="175">
         <v>0.6</v>
       </c>
-      <c r="G46" s="422"/>
-      <c r="H46" s="424"/>
-      <c r="I46" s="422"/>
-      <c r="J46" s="422"/>
-      <c r="K46" s="422"/>
+      <c r="G46" s="435"/>
+      <c r="H46" s="437"/>
+      <c r="I46" s="435"/>
+      <c r="J46" s="435"/>
+      <c r="K46" s="435"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A47" s="425" t="s">
+      <c r="A47" s="441" t="s">
         <v>301</v>
       </c>
-      <c r="B47" s="421">
+      <c r="B47" s="433">
         <v>12</v>
       </c>
       <c r="C47" s="210" t="s">
@@ -10679,50 +10679,50 @@
       <c r="D47" s="210">
         <v>0.25</v>
       </c>
-      <c r="E47" s="421">
+      <c r="E47" s="433">
         <v>1200</v>
       </c>
       <c r="F47" s="175">
         <v>3.6</v>
       </c>
-      <c r="G47" s="421">
+      <c r="G47" s="433">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H47" s="423">
+      <c r="H47" s="436">
         <v>0.76</v>
       </c>
-      <c r="I47" s="421">
+      <c r="I47" s="433">
         <v>0.41</v>
       </c>
-      <c r="J47" s="421">
+      <c r="J47" s="433">
         <v>3.34</v>
       </c>
-      <c r="K47" s="421">
+      <c r="K47" s="433">
         <v>8.16</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A48" s="426"/>
-      <c r="B48" s="422"/>
+      <c r="A48" s="442"/>
+      <c r="B48" s="435"/>
       <c r="C48" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D48" s="210">
         <v>0.08</v>
       </c>
-      <c r="E48" s="422"/>
+      <c r="E48" s="435"/>
       <c r="F48" s="175">
         <v>1.2</v>
       </c>
-      <c r="G48" s="422"/>
-      <c r="H48" s="424"/>
-      <c r="I48" s="422"/>
-      <c r="J48" s="422"/>
-      <c r="K48" s="422"/>
+      <c r="G48" s="435"/>
+      <c r="H48" s="437"/>
+      <c r="I48" s="435"/>
+      <c r="J48" s="435"/>
+      <c r="K48" s="435"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A49" s="426"/>
-      <c r="B49" s="421">
+      <c r="A49" s="442"/>
+      <c r="B49" s="433">
         <v>45</v>
       </c>
       <c r="C49" s="210" t="s">
@@ -10731,59 +10731,160 @@
       <c r="D49" s="210">
         <v>0.06</v>
       </c>
-      <c r="E49" s="421">
+      <c r="E49" s="433">
         <v>1200</v>
       </c>
       <c r="F49" s="175">
         <v>3.2</v>
       </c>
-      <c r="G49" s="421">
+      <c r="G49" s="433">
         <v>2.86</v>
       </c>
-      <c r="H49" s="423">
+      <c r="H49" s="436">
         <v>0.88</v>
       </c>
-      <c r="I49" s="421">
+      <c r="I49" s="433">
         <v>0.48</v>
       </c>
-      <c r="J49" s="421">
+      <c r="J49" s="433">
         <v>0.42</v>
       </c>
-      <c r="K49" s="421">
+      <c r="K49" s="433">
         <v>0.88</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A50" s="427"/>
-      <c r="B50" s="422"/>
+      <c r="A50" s="443"/>
+      <c r="B50" s="435"/>
       <c r="C50" s="210" t="s">
         <v>292</v>
       </c>
       <c r="D50" s="210">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E50" s="422"/>
+      <c r="E50" s="435"/>
       <c r="F50" s="175">
         <v>0.4</v>
       </c>
-      <c r="G50" s="422"/>
-      <c r="H50" s="424"/>
-      <c r="I50" s="422"/>
-      <c r="J50" s="422"/>
-      <c r="K50" s="422"/>
+      <c r="G50" s="435"/>
+      <c r="H50" s="437"/>
+      <c r="I50" s="435"/>
+      <c r="J50" s="435"/>
+      <c r="K50" s="435"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:J16"/>
@@ -10808,117 +10909,16 @@
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10971,43 +10971,43 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="114.75" customHeight="1">
-      <c r="A4" s="459" t="s">
+      <c r="A4" s="452" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="454" t="s">
+      <c r="B4" s="447" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="454" t="s">
+      <c r="C4" s="447" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="454" t="s">
+      <c r="D4" s="447" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="460" t="s">
+      <c r="E4" s="453" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="460"/>
-      <c r="G4" s="460"/>
-      <c r="H4" s="454" t="s">
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="447" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="454" t="s">
+      <c r="I4" s="447" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="455" t="s">
+      <c r="K4" s="448" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="455"/>
-      <c r="M4" s="455"/>
-      <c r="N4" s="455"/>
-      <c r="O4" s="455"/>
+      <c r="L4" s="448"/>
+      <c r="M4" s="448"/>
+      <c r="N4" s="448"/>
+      <c r="O4" s="448"/>
       <c r="P4" s="182"/>
     </row>
     <row r="5" spans="1:16" ht="111.75" customHeight="1">
-      <c r="A5" s="459"/>
-      <c r="B5" s="454"/>
-      <c r="C5" s="454"/>
-      <c r="D5" s="454"/>
+      <c r="A5" s="452"/>
+      <c r="B5" s="447"/>
+      <c r="C5" s="447"/>
+      <c r="D5" s="447"/>
       <c r="E5" s="183" t="s">
         <v>24</v>
       </c>
@@ -11017,8 +11017,8 @@
       <c r="G5" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="454"/>
-      <c r="I5" s="454"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="447"/>
       <c r="J5" s="184"/>
       <c r="K5" s="185" t="s">
         <v>244</v>
@@ -11095,12 +11095,12 @@
       <c r="P6" s="190"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="456" t="s">
+      <c r="A7" s="449" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="457"/>
-      <c r="C7" s="457"/>
-      <c r="D7" s="458"/>
+      <c r="B7" s="450"/>
+      <c r="C7" s="450"/>
+      <c r="D7" s="451"/>
       <c r="E7" s="191">
         <f>SUM(E6:E6)</f>
         <v>15.512</v>
@@ -11129,35 +11129,35 @@
       <c r="A9" s="193"/>
     </row>
     <row r="10" spans="1:16" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A10" s="446" t="s">
+      <c r="A10" s="454" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="446" t="s">
+      <c r="B10" s="454" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="446" t="s">
+      <c r="C10" s="454" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="451" t="s">
+      <c r="D10" s="459" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="452"/>
-      <c r="F10" s="451" t="s">
+      <c r="E10" s="460"/>
+      <c r="F10" s="459" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="453"/>
-      <c r="H10" s="452"/>
-      <c r="I10" s="446" t="s">
+      <c r="G10" s="461"/>
+      <c r="H10" s="460"/>
+      <c r="I10" s="454" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="446" t="s">
+      <c r="J10" s="454" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="43.5" thickBot="1">
-      <c r="A11" s="447"/>
-      <c r="B11" s="447"/>
-      <c r="C11" s="447"/>
+      <c r="A11" s="455"/>
+      <c r="B11" s="455"/>
+      <c r="C11" s="455"/>
       <c r="D11" s="215" t="s">
         <v>43</v>
       </c>
@@ -11173,22 +11173,22 @@
       <c r="H11" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="447"/>
-      <c r="J11" s="447"/>
+      <c r="I11" s="455"/>
+      <c r="J11" s="455"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A12" s="448" t="s">
+      <c r="A12" s="456" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="449"/>
-      <c r="C12" s="449"/>
-      <c r="D12" s="449"/>
-      <c r="E12" s="449"/>
-      <c r="F12" s="449"/>
-      <c r="G12" s="449"/>
-      <c r="H12" s="449"/>
-      <c r="I12" s="449"/>
-      <c r="J12" s="450"/>
+      <c r="B12" s="457"/>
+      <c r="C12" s="457"/>
+      <c r="D12" s="457"/>
+      <c r="E12" s="457"/>
+      <c r="F12" s="457"/>
+      <c r="G12" s="457"/>
+      <c r="H12" s="457"/>
+      <c r="I12" s="457"/>
+      <c r="J12" s="458"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1">
       <c r="A13" s="217">
@@ -11223,18 +11223,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A14" s="448" t="s">
+      <c r="A14" s="456" t="s">
         <v>285</v>
       </c>
-      <c r="B14" s="449"/>
-      <c r="C14" s="449"/>
-      <c r="D14" s="449"/>
-      <c r="E14" s="449"/>
-      <c r="F14" s="449"/>
-      <c r="G14" s="449"/>
-      <c r="H14" s="449"/>
-      <c r="I14" s="449"/>
-      <c r="J14" s="450"/>
+      <c r="B14" s="457"/>
+      <c r="C14" s="457"/>
+      <c r="D14" s="457"/>
+      <c r="E14" s="457"/>
+      <c r="F14" s="457"/>
+      <c r="G14" s="457"/>
+      <c r="H14" s="457"/>
+      <c r="I14" s="457"/>
+      <c r="J14" s="458"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" thickBot="1">
       <c r="A15" s="217">
@@ -11302,6 +11302,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="A7:D7"/>
@@ -11311,15 +11320,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -11352,58 +11352,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="82.5" customHeight="1" thickBot="1">
-      <c r="A1" s="421" t="s">
+      <c r="A1" s="433" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="421" t="s">
+      <c r="B1" s="433" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="421" t="s">
+      <c r="C1" s="433" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="421" t="s">
+      <c r="D1" s="433" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="421" t="s">
+      <c r="E1" s="433" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="421" t="s">
+      <c r="F1" s="433" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="421" t="s">
+      <c r="G1" s="433" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="421" t="s">
+      <c r="H1" s="433" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="373" t="s">
+      <c r="I1" s="372" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="375"/>
-      <c r="K1" s="421" t="s">
+      <c r="J1" s="374"/>
+      <c r="K1" s="433" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="421" t="s">
+      <c r="L1" s="433" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="422"/>
-      <c r="B2" s="422"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="422"/>
-      <c r="E2" s="422"/>
-      <c r="F2" s="422"/>
-      <c r="G2" s="422"/>
-      <c r="H2" s="422"/>
+      <c r="A2" s="435"/>
+      <c r="B2" s="435"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
+      <c r="G2" s="435"/>
+      <c r="H2" s="435"/>
       <c r="I2" s="175" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="422"/>
-      <c r="L2" s="422"/>
+      <c r="K2" s="435"/>
+      <c r="L2" s="435"/>
     </row>
     <row r="3" spans="1:12" ht="32.25" thickBot="1">
       <c r="A3" s="174" t="s">
@@ -11517,34 +11517,34 @@
     </row>
     <row r="20" spans="1:3" ht="13.5" thickBot="1"/>
     <row r="21" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A21" s="435" t="s">
+      <c r="A21" s="430" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="437"/>
+      <c r="B21" s="432"/>
       <c r="C21" s="213" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A22" s="463" t="s">
+      <c r="A22" s="464" t="s">
         <v>281</v>
       </c>
-      <c r="B22" s="464"/>
+      <c r="B22" s="465"/>
       <c r="C22" s="175">
         <v>62.2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A23" s="463" t="s">
+      <c r="A23" s="464" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="464"/>
+      <c r="B23" s="465"/>
       <c r="C23" s="175">
         <v>23.3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A24" s="465" t="s">
+      <c r="A24" s="466" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="214" t="s">
@@ -11555,7 +11555,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A25" s="466"/>
+      <c r="A25" s="467"/>
       <c r="B25" s="214" t="s">
         <v>30</v>
       </c>
@@ -11564,7 +11564,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A26" s="467"/>
+      <c r="A26" s="468"/>
       <c r="B26" s="214" t="s">
         <v>31</v>
       </c>
@@ -11573,42 +11573,42 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A27" s="461" t="s">
+      <c r="A27" s="462" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="462"/>
+      <c r="B27" s="463"/>
       <c r="C27" s="175">
         <v>64.400000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A28" s="461" t="s">
+      <c r="A28" s="462" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="462"/>
+      <c r="B28" s="463"/>
       <c r="C28" s="175">
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11634,45 +11634,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="65.25" customHeight="1">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="375" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="468" t="s">
+      <c r="B2" s="469" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="469"/>
-      <c r="D2" s="359" t="s">
+      <c r="C2" s="470"/>
+      <c r="D2" s="375" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="359" t="s">
+      <c r="E2" s="375" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="359" t="s">
+      <c r="F2" s="375" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="359"/>
-      <c r="H2" s="359" t="s">
+      <c r="G2" s="375"/>
+      <c r="H2" s="375" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="359"/>
-      <c r="J2" s="359"/>
-      <c r="K2" s="359" t="s">
+      <c r="I2" s="375"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="359" t="s">
+      <c r="L2" s="375" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="359"/>
+      <c r="A3" s="375"/>
       <c r="B3" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
       <c r="F3" s="17" t="s">
         <v>54</v>
       </c>
@@ -11688,22 +11688,22 @@
       <c r="J3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="359"/>
-      <c r="L3" s="359"/>
+      <c r="K3" s="375"/>
+      <c r="L3" s="375"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="400"/>
-      <c r="B4" s="400"/>
-      <c r="C4" s="400"/>
-      <c r="D4" s="400"/>
-      <c r="E4" s="400"/>
-      <c r="F4" s="400"/>
-      <c r="G4" s="400"/>
-      <c r="H4" s="400"/>
-      <c r="I4" s="400"/>
-      <c r="J4" s="400"/>
-      <c r="K4" s="400"/>
-      <c r="L4" s="400"/>
+      <c r="A4" s="401"/>
+      <c r="B4" s="401"/>
+      <c r="C4" s="401"/>
+      <c r="D4" s="401"/>
+      <c r="E4" s="401"/>
+      <c r="F4" s="401"/>
+      <c r="G4" s="401"/>
+      <c r="H4" s="401"/>
+      <c r="I4" s="401"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="16" t="s">
@@ -11796,13 +11796,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="397"/>
-      <c r="B7" s="397"/>
-      <c r="C7" s="397"/>
-      <c r="D7" s="397"/>
-      <c r="E7" s="397"/>
-      <c r="F7" s="397"/>
-      <c r="G7" s="398"/>
+      <c r="A7" s="398"/>
+      <c r="B7" s="398"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="398"/>
+      <c r="G7" s="399"/>
       <c r="H7" s="178">
         <f>SUM(H5:H6)</f>
         <v>144.54000000000002</v>
@@ -11908,44 +11908,44 @@
       <c r="A21" s="438" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="433" t="s">
+      <c r="B21" s="428" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="433" t="s">
+      <c r="C21" s="428" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="433" t="s">
+      <c r="D21" s="428" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="433" t="s">
+      <c r="E21" s="428" t="s">
         <v>275</v>
       </c>
-      <c r="F21" s="433" t="s">
+      <c r="F21" s="428" t="s">
         <v>276</v>
       </c>
-      <c r="G21" s="433" t="s">
+      <c r="G21" s="428" t="s">
         <v>277</v>
       </c>
-      <c r="H21" s="435" t="s">
+      <c r="H21" s="430" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="436"/>
-      <c r="J21" s="437"/>
-      <c r="K21" s="433" t="s">
+      <c r="I21" s="431"/>
+      <c r="J21" s="432"/>
+      <c r="K21" s="428" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="433" t="s">
+      <c r="L21" s="428" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="39.75" thickBot="1">
       <c r="A22" s="439"/>
-      <c r="B22" s="434"/>
-      <c r="C22" s="434"/>
-      <c r="D22" s="434"/>
-      <c r="E22" s="434"/>
-      <c r="F22" s="434"/>
-      <c r="G22" s="434"/>
+      <c r="B22" s="429"/>
+      <c r="C22" s="429"/>
+      <c r="D22" s="429"/>
+      <c r="E22" s="429"/>
+      <c r="F22" s="429"/>
+      <c r="G22" s="429"/>
       <c r="H22" s="212" t="s">
         <v>49</v>
       </c>
@@ -11955,24 +11955,24 @@
       <c r="J22" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="434"/>
-      <c r="L22" s="434"/>
+      <c r="K22" s="429"/>
+      <c r="L22" s="429"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A23" s="361" t="s">
+      <c r="A23" s="360" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="362"/>
-      <c r="C23" s="362"/>
-      <c r="D23" s="362"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="362"/>
-      <c r="G23" s="362"/>
-      <c r="H23" s="362"/>
-      <c r="I23" s="362"/>
-      <c r="J23" s="362"/>
-      <c r="K23" s="362"/>
-      <c r="L23" s="364"/>
+      <c r="B23" s="361"/>
+      <c r="C23" s="361"/>
+      <c r="D23" s="361"/>
+      <c r="E23" s="361"/>
+      <c r="F23" s="361"/>
+      <c r="G23" s="361"/>
+      <c r="H23" s="361"/>
+      <c r="I23" s="361"/>
+      <c r="J23" s="361"/>
+      <c r="K23" s="361"/>
+      <c r="L23" s="363"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickBot="1">
       <c r="A24" s="174" t="s">
@@ -12074,16 +12074,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A23:L23"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
@@ -12095,6 +12085,16 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12146,76 +12146,76 @@
       <c r="B1" s="14"/>
       <c r="C1" s="1"/>
       <c r="D1" s="277"/>
-      <c r="E1" s="487" t="s">
+      <c r="E1" s="517" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="487"/>
-      <c r="G1" s="487"/>
-      <c r="H1" s="487"/>
-      <c r="I1" s="487"/>
-      <c r="J1" s="487"/>
-      <c r="K1" s="487"/>
-      <c r="L1" s="487"/>
-      <c r="M1" s="487"/>
-      <c r="N1" s="487"/>
-      <c r="O1" s="487"/>
-      <c r="P1" s="487"/>
-      <c r="Q1" s="487"/>
-      <c r="R1" s="487"/>
-      <c r="S1" s="487"/>
-      <c r="T1" s="487"/>
-      <c r="U1" s="487"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
+      <c r="L1" s="517"/>
+      <c r="M1" s="517"/>
+      <c r="N1" s="517"/>
+      <c r="O1" s="517"/>
+      <c r="P1" s="517"/>
+      <c r="Q1" s="517"/>
+      <c r="R1" s="517"/>
+      <c r="S1" s="517"/>
+      <c r="T1" s="517"/>
+      <c r="U1" s="517"/>
       <c r="V1" s="20"/>
       <c r="W1" s="22"/>
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="499" t="s">
+      <c r="A2" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="500" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="513" t="s">
+      <c r="B2" s="492" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="495" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="506" t="s">
+      <c r="D2" s="508" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="516" t="s">
+      <c r="E2" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="517" t="s">
+      <c r="F2" s="514" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="490" t="s">
+      <c r="G2" s="518" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="492"/>
-      <c r="K2" s="518" t="s">
+      <c r="H2" s="519"/>
+      <c r="I2" s="519"/>
+      <c r="J2" s="520"/>
+      <c r="K2" s="515" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="493" t="s">
+      <c r="L2" s="506" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="503" t="s">
+      <c r="M2" s="486" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="493" t="s">
+      <c r="N2" s="506" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="495" t="s">
+      <c r="O2" s="522" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="496"/>
-      <c r="Q2" s="496"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="496"/>
-      <c r="T2" s="496"/>
-      <c r="U2" s="497"/>
+      <c r="P2" s="523"/>
+      <c r="Q2" s="523"/>
+      <c r="R2" s="523"/>
+      <c r="S2" s="523"/>
+      <c r="T2" s="523"/>
+      <c r="U2" s="524"/>
       <c r="V2" s="30"/>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
@@ -12230,19 +12230,19 @@
       <c r="AL2" s="23"/>
     </row>
     <row r="3" spans="1:38" ht="75.75" customHeight="1">
-      <c r="A3" s="488"/>
-      <c r="B3" s="501"/>
-      <c r="C3" s="514"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="514"/>
+      <c r="A3" s="490"/>
+      <c r="B3" s="493"/>
+      <c r="C3" s="496"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="496"/>
       <c r="F3" s="511"/>
-      <c r="G3" s="488" t="s">
+      <c r="G3" s="490" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="488" t="s">
+      <c r="H3" s="490" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="488" t="s">
+      <c r="I3" s="490" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="511" t="s">
@@ -12250,27 +12250,27 @@
       </c>
       <c r="K3" s="509"/>
       <c r="L3" s="509"/>
-      <c r="M3" s="504"/>
+      <c r="M3" s="487"/>
       <c r="N3" s="509"/>
-      <c r="O3" s="493" t="s">
+      <c r="O3" s="506" t="s">
         <v>333</v>
       </c>
-      <c r="P3" s="493" t="s">
+      <c r="P3" s="506" t="s">
         <v>332</v>
       </c>
-      <c r="Q3" s="493" t="s">
+      <c r="Q3" s="506" t="s">
         <v>334</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="471" t="s">
         <v>335</v>
       </c>
-      <c r="S3" s="493" t="s">
+      <c r="S3" s="506" t="s">
         <v>338</v>
       </c>
-      <c r="T3" s="493" t="s">
+      <c r="T3" s="506" t="s">
         <v>336</v>
       </c>
-      <c r="U3" s="493" t="s">
+      <c r="U3" s="506" t="s">
         <v>337</v>
       </c>
       <c r="V3" s="31"/>
@@ -12288,27 +12288,27 @@
       <c r="AL3" s="171"/>
     </row>
     <row r="4" spans="1:38" ht="52.5" customHeight="1">
-      <c r="A4" s="489"/>
-      <c r="B4" s="502"/>
-      <c r="C4" s="515"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="515"/>
+      <c r="A4" s="491"/>
+      <c r="B4" s="494"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="497"/>
       <c r="F4" s="512"/>
-      <c r="G4" s="489"/>
-      <c r="H4" s="489"/>
-      <c r="I4" s="489"/>
+      <c r="G4" s="491"/>
+      <c r="H4" s="491"/>
+      <c r="I4" s="491"/>
       <c r="J4" s="512"/>
       <c r="K4" s="510"/>
       <c r="L4" s="510"/>
-      <c r="M4" s="505"/>
+      <c r="M4" s="488"/>
       <c r="N4" s="510"/>
-      <c r="O4" s="494"/>
-      <c r="P4" s="494"/>
-      <c r="Q4" s="494"/>
-      <c r="R4" s="482"/>
-      <c r="S4" s="494"/>
-      <c r="T4" s="494"/>
-      <c r="U4" s="494"/>
+      <c r="O4" s="507"/>
+      <c r="P4" s="507"/>
+      <c r="Q4" s="507"/>
+      <c r="R4" s="521"/>
+      <c r="S4" s="507"/>
+      <c r="T4" s="507"/>
+      <c r="U4" s="507"/>
       <c r="V4" s="32"/>
       <c r="W4" s="35" t="s">
         <v>32</v>
@@ -12340,26 +12340,26 @@
       <c r="A5" s="199"/>
       <c r="B5" s="200"/>
       <c r="C5" s="201"/>
-      <c r="D5" s="486" t="s">
+      <c r="D5" s="516" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="486"/>
-      <c r="F5" s="486"/>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="486"/>
-      <c r="J5" s="486"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="486"/>
-      <c r="M5" s="486"/>
-      <c r="N5" s="486"/>
-      <c r="O5" s="486"/>
-      <c r="P5" s="486"/>
-      <c r="Q5" s="486"/>
-      <c r="R5" s="486"/>
-      <c r="S5" s="486"/>
-      <c r="T5" s="486"/>
-      <c r="U5" s="486"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="516"/>
+      <c r="J5" s="516"/>
+      <c r="K5" s="516"/>
+      <c r="L5" s="516"/>
+      <c r="M5" s="516"/>
+      <c r="N5" s="516"/>
+      <c r="O5" s="516"/>
+      <c r="P5" s="516"/>
+      <c r="Q5" s="516"/>
+      <c r="R5" s="516"/>
+      <c r="S5" s="516"/>
+      <c r="T5" s="516"/>
+      <c r="U5" s="516"/>
       <c r="V5" s="32"/>
       <c r="Z5" s="202"/>
       <c r="AA5" s="202"/>
@@ -12882,26 +12882,26 @@
       <c r="A13" s="199"/>
       <c r="B13" s="200"/>
       <c r="C13" s="201"/>
-      <c r="D13" s="498" t="s">
+      <c r="D13" s="525" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="498"/>
-      <c r="F13" s="498"/>
-      <c r="G13" s="498"/>
-      <c r="H13" s="498"/>
-      <c r="I13" s="498"/>
-      <c r="J13" s="498"/>
-      <c r="K13" s="498"/>
-      <c r="L13" s="498"/>
-      <c r="M13" s="498"/>
-      <c r="N13" s="498"/>
-      <c r="O13" s="498"/>
-      <c r="P13" s="498"/>
-      <c r="Q13" s="498"/>
-      <c r="R13" s="498"/>
-      <c r="S13" s="498"/>
-      <c r="T13" s="498"/>
-      <c r="U13" s="498"/>
+      <c r="E13" s="525"/>
+      <c r="F13" s="525"/>
+      <c r="G13" s="525"/>
+      <c r="H13" s="525"/>
+      <c r="I13" s="525"/>
+      <c r="J13" s="525"/>
+      <c r="K13" s="525"/>
+      <c r="L13" s="525"/>
+      <c r="M13" s="525"/>
+      <c r="N13" s="525"/>
+      <c r="O13" s="525"/>
+      <c r="P13" s="525"/>
+      <c r="Q13" s="525"/>
+      <c r="R13" s="525"/>
+      <c r="S13" s="525"/>
+      <c r="T13" s="525"/>
+      <c r="U13" s="525"/>
       <c r="V13" s="32"/>
       <c r="Z13" s="202"/>
       <c r="AA13" s="202"/>
@@ -13032,26 +13032,26 @@
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="486" t="s">
+      <c r="D16" s="516" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
-      <c r="G16" s="486"/>
-      <c r="H16" s="486"/>
-      <c r="I16" s="486"/>
-      <c r="J16" s="486"/>
-      <c r="K16" s="486"/>
-      <c r="L16" s="486"/>
-      <c r="M16" s="486"/>
-      <c r="N16" s="486"/>
-      <c r="O16" s="486"/>
-      <c r="P16" s="486"/>
-      <c r="Q16" s="486"/>
-      <c r="R16" s="486"/>
-      <c r="S16" s="486"/>
-      <c r="T16" s="486"/>
-      <c r="U16" s="486"/>
+      <c r="E16" s="516"/>
+      <c r="F16" s="516"/>
+      <c r="G16" s="516"/>
+      <c r="H16" s="516"/>
+      <c r="I16" s="516"/>
+      <c r="J16" s="516"/>
+      <c r="K16" s="516"/>
+      <c r="L16" s="516"/>
+      <c r="M16" s="516"/>
+      <c r="N16" s="516"/>
+      <c r="O16" s="516"/>
+      <c r="P16" s="516"/>
+      <c r="Q16" s="516"/>
+      <c r="R16" s="516"/>
+      <c r="S16" s="516"/>
+      <c r="T16" s="516"/>
+      <c r="U16" s="516"/>
       <c r="V16" s="33"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
@@ -13104,8 +13104,8 @@
       <c r="W17" s="268"/>
       <c r="X17" s="268"/>
       <c r="Y17" s="268"/>
-      <c r="Z17" s="472"/>
-      <c r="AA17" s="473"/>
+      <c r="Z17" s="528"/>
+      <c r="AA17" s="529"/>
       <c r="AC17" s="270"/>
     </row>
     <row r="18" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -13155,8 +13155,8 @@
       <c r="W18" s="268"/>
       <c r="X18" s="268"/>
       <c r="Y18" s="268"/>
-      <c r="Z18" s="476"/>
-      <c r="AA18" s="477"/>
+      <c r="Z18" s="532"/>
+      <c r="AA18" s="533"/>
       <c r="AC18" s="270"/>
     </row>
     <row r="19" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -13206,8 +13206,8 @@
       <c r="W19" s="268"/>
       <c r="X19" s="268"/>
       <c r="Y19" s="268"/>
-      <c r="Z19" s="476"/>
-      <c r="AA19" s="477"/>
+      <c r="Z19" s="532"/>
+      <c r="AA19" s="533"/>
       <c r="AC19" s="270"/>
     </row>
     <row r="20" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13257,8 +13257,8 @@
       <c r="W20" s="268"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="268"/>
-      <c r="Z20" s="476"/>
-      <c r="AA20" s="477"/>
+      <c r="Z20" s="532"/>
+      <c r="AA20" s="533"/>
       <c r="AC20" s="270"/>
     </row>
     <row r="21" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13311,8 +13311,8 @@
       <c r="W21" s="268"/>
       <c r="X21" s="268"/>
       <c r="Y21" s="268"/>
-      <c r="Z21" s="476"/>
-      <c r="AA21" s="477"/>
+      <c r="Z21" s="532"/>
+      <c r="AA21" s="533"/>
       <c r="AC21" s="270"/>
     </row>
     <row r="22" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13362,8 +13362,8 @@
       <c r="W22" s="268"/>
       <c r="X22" s="268"/>
       <c r="Y22" s="268"/>
-      <c r="Z22" s="476"/>
-      <c r="AA22" s="477"/>
+      <c r="Z22" s="532"/>
+      <c r="AA22" s="533"/>
       <c r="AC22" s="270"/>
     </row>
     <row r="23" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13413,8 +13413,8 @@
       <c r="W23" s="268"/>
       <c r="X23" s="268"/>
       <c r="Y23" s="268"/>
-      <c r="Z23" s="476"/>
-      <c r="AA23" s="477"/>
+      <c r="Z23" s="532"/>
+      <c r="AA23" s="533"/>
       <c r="AC23" s="270"/>
     </row>
     <row r="24" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13464,8 +13464,8 @@
       <c r="W24" s="268"/>
       <c r="X24" s="268"/>
       <c r="Y24" s="268"/>
-      <c r="Z24" s="476"/>
-      <c r="AA24" s="477"/>
+      <c r="Z24" s="532"/>
+      <c r="AA24" s="533"/>
       <c r="AC24" s="270"/>
     </row>
     <row r="25" spans="1:30" s="269" customFormat="1" ht="31.5" customHeight="1">
@@ -13515,8 +13515,8 @@
       <c r="W25" s="268"/>
       <c r="X25" s="268"/>
       <c r="Y25" s="268"/>
-      <c r="Z25" s="476"/>
-      <c r="AA25" s="477"/>
+      <c r="Z25" s="532"/>
+      <c r="AA25" s="533"/>
       <c r="AC25" s="270"/>
     </row>
     <row r="26" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13566,8 +13566,8 @@
       <c r="W26" s="268"/>
       <c r="X26" s="268"/>
       <c r="Y26" s="268"/>
-      <c r="Z26" s="476"/>
-      <c r="AA26" s="477"/>
+      <c r="Z26" s="532"/>
+      <c r="AA26" s="533"/>
       <c r="AC26" s="270"/>
     </row>
     <row r="27" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13617,8 +13617,8 @@
       <c r="W27" s="268"/>
       <c r="X27" s="268"/>
       <c r="Y27" s="268"/>
-      <c r="Z27" s="476"/>
-      <c r="AA27" s="477"/>
+      <c r="Z27" s="532"/>
+      <c r="AA27" s="533"/>
       <c r="AC27" s="270"/>
       <c r="AD27" s="306"/>
     </row>
@@ -13669,8 +13669,8 @@
       <c r="W28" s="268"/>
       <c r="X28" s="268"/>
       <c r="Y28" s="268"/>
-      <c r="Z28" s="476"/>
-      <c r="AA28" s="477"/>
+      <c r="Z28" s="532"/>
+      <c r="AA28" s="533"/>
       <c r="AC28" s="270"/>
     </row>
     <row r="29" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13720,8 +13720,8 @@
       <c r="W29" s="268"/>
       <c r="X29" s="268"/>
       <c r="Y29" s="268"/>
-      <c r="Z29" s="476"/>
-      <c r="AA29" s="477"/>
+      <c r="Z29" s="532"/>
+      <c r="AA29" s="533"/>
       <c r="AC29" s="270"/>
     </row>
     <row r="30" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13771,8 +13771,8 @@
       <c r="W30" s="268"/>
       <c r="X30" s="268"/>
       <c r="Y30" s="268"/>
-      <c r="Z30" s="476"/>
-      <c r="AA30" s="477"/>
+      <c r="Z30" s="532"/>
+      <c r="AA30" s="533"/>
       <c r="AC30" s="270"/>
     </row>
     <row r="31" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13822,8 +13822,8 @@
       <c r="W31" s="268"/>
       <c r="X31" s="268"/>
       <c r="Y31" s="268"/>
-      <c r="Z31" s="476"/>
-      <c r="AA31" s="477"/>
+      <c r="Z31" s="532"/>
+      <c r="AA31" s="533"/>
       <c r="AC31" s="270"/>
     </row>
     <row r="32" spans="1:30" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13873,8 +13873,8 @@
       <c r="W32" s="268"/>
       <c r="X32" s="268"/>
       <c r="Y32" s="268"/>
-      <c r="Z32" s="476"/>
-      <c r="AA32" s="477"/>
+      <c r="Z32" s="532"/>
+      <c r="AA32" s="533"/>
       <c r="AC32" s="270"/>
     </row>
     <row r="33" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13924,8 +13924,8 @@
       <c r="W33" s="268"/>
       <c r="X33" s="268"/>
       <c r="Y33" s="268"/>
-      <c r="Z33" s="476"/>
-      <c r="AA33" s="477"/>
+      <c r="Z33" s="532"/>
+      <c r="AA33" s="533"/>
       <c r="AC33" s="270"/>
     </row>
     <row r="34" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -13975,8 +13975,8 @@
       <c r="W34" s="268"/>
       <c r="X34" s="268"/>
       <c r="Y34" s="268"/>
-      <c r="Z34" s="476"/>
-      <c r="AA34" s="477"/>
+      <c r="Z34" s="532"/>
+      <c r="AA34" s="533"/>
       <c r="AC34" s="270"/>
     </row>
     <row r="35" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14026,8 +14026,8 @@
       <c r="W35" s="268"/>
       <c r="X35" s="268"/>
       <c r="Y35" s="268"/>
-      <c r="Z35" s="476"/>
-      <c r="AA35" s="477"/>
+      <c r="Z35" s="532"/>
+      <c r="AA35" s="533"/>
       <c r="AC35" s="270"/>
     </row>
     <row r="36" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14077,8 +14077,8 @@
       <c r="W36" s="268"/>
       <c r="X36" s="268"/>
       <c r="Y36" s="268"/>
-      <c r="Z36" s="476"/>
-      <c r="AA36" s="477"/>
+      <c r="Z36" s="532"/>
+      <c r="AA36" s="533"/>
       <c r="AC36" s="270"/>
     </row>
     <row r="37" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14128,8 +14128,8 @@
       <c r="W37" s="268"/>
       <c r="X37" s="268"/>
       <c r="Y37" s="268"/>
-      <c r="Z37" s="476"/>
-      <c r="AA37" s="477"/>
+      <c r="Z37" s="532"/>
+      <c r="AA37" s="533"/>
       <c r="AC37" s="270"/>
     </row>
     <row r="38" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14179,8 +14179,8 @@
       <c r="W38" s="268"/>
       <c r="X38" s="268"/>
       <c r="Y38" s="268"/>
-      <c r="Z38" s="476"/>
-      <c r="AA38" s="477"/>
+      <c r="Z38" s="532"/>
+      <c r="AA38" s="533"/>
       <c r="AC38" s="270"/>
     </row>
     <row r="39" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14230,8 +14230,8 @@
       <c r="W39" s="268"/>
       <c r="X39" s="268"/>
       <c r="Y39" s="268"/>
-      <c r="Z39" s="476"/>
-      <c r="AA39" s="477"/>
+      <c r="Z39" s="532"/>
+      <c r="AA39" s="533"/>
       <c r="AC39" s="270"/>
     </row>
     <row r="40" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14281,8 +14281,8 @@
       <c r="W40" s="268"/>
       <c r="X40" s="268"/>
       <c r="Y40" s="268"/>
-      <c r="Z40" s="476"/>
-      <c r="AA40" s="477"/>
+      <c r="Z40" s="532"/>
+      <c r="AA40" s="533"/>
       <c r="AC40" s="270"/>
     </row>
     <row r="41" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14332,8 +14332,8 @@
       <c r="W41" s="268"/>
       <c r="X41" s="268"/>
       <c r="Y41" s="268"/>
-      <c r="Z41" s="476"/>
-      <c r="AA41" s="477"/>
+      <c r="Z41" s="532"/>
+      <c r="AA41" s="533"/>
       <c r="AC41" s="270"/>
     </row>
     <row r="42" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14383,8 +14383,8 @@
       <c r="W42" s="271"/>
       <c r="X42" s="268"/>
       <c r="Y42" s="268"/>
-      <c r="Z42" s="474"/>
-      <c r="AA42" s="475"/>
+      <c r="Z42" s="530"/>
+      <c r="AA42" s="531"/>
       <c r="AC42" s="270"/>
     </row>
     <row r="43" spans="1:29" s="269" customFormat="1" ht="15.75" customHeight="1">
@@ -14638,8 +14638,8 @@
       <c r="W47" s="50"/>
       <c r="X47" s="43"/>
       <c r="Y47" s="43"/>
-      <c r="Z47" s="478"/>
-      <c r="AA47" s="479"/>
+      <c r="Z47" s="534"/>
+      <c r="AA47" s="535"/>
       <c r="AC47" s="49"/>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1">
@@ -14689,8 +14689,8 @@
       <c r="W48" s="50"/>
       <c r="X48" s="43"/>
       <c r="Y48" s="43"/>
-      <c r="Z48" s="478"/>
-      <c r="AA48" s="479"/>
+      <c r="Z48" s="534"/>
+      <c r="AA48" s="535"/>
       <c r="AC48" s="49"/>
     </row>
     <row r="49" spans="1:38" ht="15.75" customHeight="1">
@@ -15301,8 +15301,8 @@
       <c r="W60" s="50"/>
       <c r="X60" s="43"/>
       <c r="Y60" s="43"/>
-      <c r="Z60" s="478"/>
-      <c r="AA60" s="479"/>
+      <c r="Z60" s="534"/>
+      <c r="AA60" s="535"/>
       <c r="AC60" s="49"/>
     </row>
     <row r="61" spans="1:38" ht="47.25">
@@ -15408,13 +15408,13 @@
       <c r="AC62" s="49"/>
     </row>
     <row r="63" spans="1:38" ht="31.5" customHeight="1">
-      <c r="A63" s="499" t="s">
+      <c r="A63" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="500" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="513" t="s">
+      <c r="B63" s="492" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="495" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="274">
@@ -15470,9 +15470,9 @@
       <c r="AL63" s="23"/>
     </row>
     <row r="64" spans="1:38" ht="47.25" customHeight="1">
-      <c r="A64" s="488"/>
-      <c r="B64" s="501"/>
-      <c r="C64" s="514"/>
+      <c r="A64" s="490"/>
+      <c r="B64" s="493"/>
+      <c r="C64" s="496"/>
       <c r="D64" s="274">
         <v>48</v>
       </c>
@@ -15527,9 +15527,9 @@
       <c r="AL64" s="171"/>
     </row>
     <row r="65" spans="1:38" ht="31.5" customHeight="1">
-      <c r="A65" s="489"/>
-      <c r="B65" s="502"/>
-      <c r="C65" s="515"/>
+      <c r="A65" s="491"/>
+      <c r="B65" s="494"/>
+      <c r="C65" s="497"/>
       <c r="D65" s="274">
         <v>49</v>
       </c>
@@ -15643,8 +15643,8 @@
       <c r="W66" s="50"/>
       <c r="X66" s="43"/>
       <c r="Y66" s="43"/>
-      <c r="Z66" s="472"/>
-      <c r="AA66" s="473"/>
+      <c r="Z66" s="528"/>
+      <c r="AA66" s="529"/>
       <c r="AC66" s="49"/>
     </row>
     <row r="67" spans="1:38" ht="51.95" customHeight="1">
@@ -15694,8 +15694,8 @@
       <c r="W67" s="50"/>
       <c r="X67" s="43"/>
       <c r="Y67" s="43"/>
-      <c r="Z67" s="476"/>
-      <c r="AA67" s="477"/>
+      <c r="Z67" s="532"/>
+      <c r="AA67" s="533"/>
       <c r="AC67" s="49"/>
     </row>
     <row r="68" spans="1:38" ht="47.25">
@@ -15796,8 +15796,8 @@
       <c r="W69" s="50"/>
       <c r="X69" s="43"/>
       <c r="Y69" s="43"/>
-      <c r="Z69" s="476"/>
-      <c r="AA69" s="477"/>
+      <c r="Z69" s="532"/>
+      <c r="AA69" s="533"/>
       <c r="AC69" s="49"/>
     </row>
     <row r="70" spans="1:38" ht="47.25">
@@ -15847,8 +15847,8 @@
       <c r="W70" s="50"/>
       <c r="X70" s="43"/>
       <c r="Y70" s="43"/>
-      <c r="Z70" s="476"/>
-      <c r="AA70" s="477"/>
+      <c r="Z70" s="532"/>
+      <c r="AA70" s="533"/>
       <c r="AC70" s="49"/>
     </row>
     <row r="71" spans="1:38" ht="47.25" customHeight="1">
@@ -15898,8 +15898,8 @@
       <c r="W71" s="50"/>
       <c r="X71" s="43"/>
       <c r="Y71" s="43"/>
-      <c r="Z71" s="476"/>
-      <c r="AA71" s="477"/>
+      <c r="Z71" s="532"/>
+      <c r="AA71" s="533"/>
       <c r="AC71" s="49"/>
     </row>
     <row r="72" spans="1:38" ht="47.25" customHeight="1">
@@ -15949,8 +15949,8 @@
       <c r="W72" s="50"/>
       <c r="X72" s="43"/>
       <c r="Y72" s="43"/>
-      <c r="Z72" s="476"/>
-      <c r="AA72" s="477"/>
+      <c r="Z72" s="532"/>
+      <c r="AA72" s="533"/>
       <c r="AC72" s="49"/>
     </row>
     <row r="73" spans="1:38" ht="48" customHeight="1">
@@ -16000,8 +16000,8 @@
       <c r="W73" s="50"/>
       <c r="X73" s="43"/>
       <c r="Y73" s="43"/>
-      <c r="Z73" s="476"/>
-      <c r="AA73" s="477"/>
+      <c r="Z73" s="532"/>
+      <c r="AA73" s="533"/>
       <c r="AC73" s="49"/>
     </row>
     <row r="74" spans="1:38" ht="48" customHeight="1">
@@ -16051,8 +16051,8 @@
       <c r="W74" s="50"/>
       <c r="X74" s="43"/>
       <c r="Y74" s="43"/>
-      <c r="Z74" s="474"/>
-      <c r="AA74" s="475"/>
+      <c r="Z74" s="530"/>
+      <c r="AA74" s="531"/>
       <c r="AC74" s="49"/>
     </row>
     <row r="75" spans="1:38" ht="48" customHeight="1">
@@ -16153,8 +16153,8 @@
       <c r="W76" s="50"/>
       <c r="X76" s="43"/>
       <c r="Y76" s="43"/>
-      <c r="Z76" s="472"/>
-      <c r="AA76" s="473"/>
+      <c r="Z76" s="528"/>
+      <c r="AA76" s="529"/>
       <c r="AC76" s="49"/>
     </row>
     <row r="77" spans="1:38" ht="48" customHeight="1">
@@ -16204,8 +16204,8 @@
       <c r="W77" s="50"/>
       <c r="X77" s="43"/>
       <c r="Y77" s="43"/>
-      <c r="Z77" s="474"/>
-      <c r="AA77" s="475"/>
+      <c r="Z77" s="530"/>
+      <c r="AA77" s="531"/>
       <c r="AC77" s="49"/>
     </row>
     <row r="78" spans="1:38" ht="48" customHeight="1">
@@ -24662,10 +24662,10 @@
       <c r="U273" s="245"/>
     </row>
     <row r="274" spans="4:21">
-      <c r="D274" s="523" t="s">
+      <c r="D274" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="E274" s="524"/>
+      <c r="E274" s="505"/>
       <c r="F274" s="57"/>
       <c r="G274" s="12">
         <f>SUM(G17:G273)</f>
@@ -24742,126 +24742,126 @@
       <c r="U276" s="251"/>
     </row>
     <row r="277" spans="4:21">
-      <c r="D277" s="520" t="s">
+      <c r="D277" s="501" t="s">
         <v>8</v>
       </c>
-      <c r="E277" s="519" t="s">
+      <c r="E277" s="498" t="s">
         <v>3</v>
       </c>
-      <c r="F277" s="525" t="s">
+      <c r="F277" s="481" t="s">
         <v>40</v>
       </c>
-      <c r="G277" s="528" t="s">
+      <c r="G277" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="H277" s="529"/>
-      <c r="I277" s="529"/>
-      <c r="J277" s="530"/>
-      <c r="K277" s="531" t="s">
+      <c r="H277" s="483"/>
+      <c r="I277" s="483"/>
+      <c r="J277" s="484"/>
+      <c r="K277" s="485" t="s">
         <v>16</v>
       </c>
-      <c r="L277" s="480" t="s">
+      <c r="L277" s="471" t="s">
         <v>9</v>
       </c>
-      <c r="M277" s="503" t="s">
+      <c r="M277" s="486" t="s">
         <v>28</v>
       </c>
-      <c r="N277" s="480" t="s">
+      <c r="N277" s="471" t="s">
         <v>15</v>
       </c>
-      <c r="O277" s="534" t="s">
+      <c r="O277" s="474" t="s">
         <v>29</v>
       </c>
-      <c r="P277" s="535"/>
-      <c r="Q277" s="535"/>
-      <c r="R277" s="535"/>
-      <c r="S277" s="535"/>
-      <c r="T277" s="535"/>
-      <c r="U277" s="536"/>
+      <c r="P277" s="475"/>
+      <c r="Q277" s="475"/>
+      <c r="R277" s="475"/>
+      <c r="S277" s="475"/>
+      <c r="T277" s="475"/>
+      <c r="U277" s="476"/>
     </row>
     <row r="278" spans="4:21" ht="75.75" customHeight="1">
-      <c r="D278" s="521"/>
-      <c r="E278" s="507"/>
-      <c r="F278" s="526"/>
-      <c r="G278" s="537" t="s">
+      <c r="D278" s="502"/>
+      <c r="E278" s="499"/>
+      <c r="F278" s="479"/>
+      <c r="G278" s="477" t="s">
         <v>11</v>
       </c>
-      <c r="H278" s="537" t="s">
+      <c r="H278" s="477" t="s">
         <v>12</v>
       </c>
-      <c r="I278" s="537" t="s">
+      <c r="I278" s="477" t="s">
         <v>13</v>
       </c>
-      <c r="J278" s="526" t="s">
+      <c r="J278" s="479" t="s">
         <v>5</v>
       </c>
-      <c r="K278" s="532"/>
-      <c r="L278" s="532"/>
-      <c r="M278" s="504"/>
-      <c r="N278" s="532"/>
-      <c r="O278" s="480" t="s">
+      <c r="K278" s="472"/>
+      <c r="L278" s="472"/>
+      <c r="M278" s="487"/>
+      <c r="N278" s="472"/>
+      <c r="O278" s="471" t="s">
         <v>333</v>
       </c>
-      <c r="P278" s="480" t="s">
+      <c r="P278" s="471" t="s">
         <v>332</v>
       </c>
-      <c r="Q278" s="480" t="s">
+      <c r="Q278" s="471" t="s">
         <v>334</v>
       </c>
-      <c r="R278" s="480" t="s">
+      <c r="R278" s="471" t="s">
         <v>335</v>
       </c>
-      <c r="S278" s="480" t="s">
+      <c r="S278" s="471" t="s">
         <v>338</v>
       </c>
-      <c r="T278" s="480" t="s">
+      <c r="T278" s="471" t="s">
         <v>336</v>
       </c>
-      <c r="U278" s="480" t="s">
+      <c r="U278" s="471" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="279" spans="4:21" ht="52.5" customHeight="1">
-      <c r="D279" s="522"/>
-      <c r="E279" s="508"/>
-      <c r="F279" s="527"/>
-      <c r="G279" s="538"/>
-      <c r="H279" s="538"/>
-      <c r="I279" s="538"/>
-      <c r="J279" s="527"/>
-      <c r="K279" s="533"/>
-      <c r="L279" s="533"/>
-      <c r="M279" s="505"/>
-      <c r="N279" s="533"/>
-      <c r="O279" s="481"/>
-      <c r="P279" s="481"/>
-      <c r="Q279" s="481"/>
-      <c r="R279" s="482"/>
-      <c r="S279" s="481"/>
-      <c r="T279" s="481"/>
-      <c r="U279" s="481"/>
+      <c r="D279" s="503"/>
+      <c r="E279" s="500"/>
+      <c r="F279" s="480"/>
+      <c r="G279" s="478"/>
+      <c r="H279" s="478"/>
+      <c r="I279" s="478"/>
+      <c r="J279" s="480"/>
+      <c r="K279" s="473"/>
+      <c r="L279" s="473"/>
+      <c r="M279" s="488"/>
+      <c r="N279" s="473"/>
+      <c r="O279" s="536"/>
+      <c r="P279" s="536"/>
+      <c r="Q279" s="536"/>
+      <c r="R279" s="521"/>
+      <c r="S279" s="536"/>
+      <c r="T279" s="536"/>
+      <c r="U279" s="536"/>
     </row>
     <row r="280" spans="4:21">
       <c r="D280" s="314"/>
-      <c r="E280" s="483" t="s">
+      <c r="E280" s="537" t="s">
         <v>325</v>
       </c>
-      <c r="F280" s="484"/>
-      <c r="G280" s="484"/>
-      <c r="H280" s="484"/>
-      <c r="I280" s="484"/>
-      <c r="J280" s="484"/>
-      <c r="K280" s="484"/>
-      <c r="L280" s="484"/>
-      <c r="M280" s="484"/>
-      <c r="N280" s="484"/>
-      <c r="O280" s="484"/>
-      <c r="P280" s="484"/>
-      <c r="Q280" s="484"/>
-      <c r="R280" s="484"/>
-      <c r="S280" s="484"/>
-      <c r="T280" s="484"/>
-      <c r="U280" s="485"/>
+      <c r="F280" s="538"/>
+      <c r="G280" s="538"/>
+      <c r="H280" s="538"/>
+      <c r="I280" s="538"/>
+      <c r="J280" s="538"/>
+      <c r="K280" s="538"/>
+      <c r="L280" s="538"/>
+      <c r="M280" s="538"/>
+      <c r="N280" s="538"/>
+      <c r="O280" s="538"/>
+      <c r="P280" s="538"/>
+      <c r="Q280" s="538"/>
+      <c r="R280" s="538"/>
+      <c r="S280" s="538"/>
+      <c r="T280" s="538"/>
+      <c r="U280" s="539"/>
     </row>
     <row r="281" spans="4:21" ht="31.5">
       <c r="D281" s="294" t="s">
@@ -33598,10 +33598,10 @@
       <c r="U504" s="245"/>
     </row>
     <row r="505" spans="4:21">
-      <c r="D505" s="470" t="s">
+      <c r="D505" s="526" t="s">
         <v>10</v>
       </c>
-      <c r="E505" s="471"/>
+      <c r="E505" s="527"/>
       <c r="F505" s="302"/>
       <c r="G505" s="303">
         <f>SUM(G281:G504)</f>
@@ -34004,50 +34004,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="N277:N279"/>
-    <mergeCell ref="O277:U277"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="I278:I279"/>
-    <mergeCell ref="J278:J279"/>
-    <mergeCell ref="F277:F279"/>
-    <mergeCell ref="G277:J277"/>
-    <mergeCell ref="K277:K279"/>
-    <mergeCell ref="L277:L279"/>
-    <mergeCell ref="M277:M279"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E277:E279"/>
-    <mergeCell ref="D277:D279"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="D16:U16"/>
-    <mergeCell ref="E1:U1"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="D13:U13"/>
     <mergeCell ref="D505:E505"/>
     <mergeCell ref="Z76:AA77"/>
     <mergeCell ref="Z17:AA42"/>
@@ -34064,6 +34020,50 @@
     <mergeCell ref="T278:T279"/>
     <mergeCell ref="U278:U279"/>
     <mergeCell ref="E280:U280"/>
+    <mergeCell ref="D16:U16"/>
+    <mergeCell ref="E1:U1"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E277:E279"/>
+    <mergeCell ref="D277:D279"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F277:F279"/>
+    <mergeCell ref="G277:J277"/>
+    <mergeCell ref="K277:K279"/>
+    <mergeCell ref="L277:L279"/>
+    <mergeCell ref="M277:M279"/>
+    <mergeCell ref="N277:N279"/>
+    <mergeCell ref="O277:U277"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="I278:I279"/>
+    <mergeCell ref="J278:J279"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.11811023622047245" bottom="0" header="0" footer="0"/>
@@ -34113,73 +34113,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23">
-      <c r="C2" s="395" t="s">
+      <c r="C2" s="388" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="395" t="s">
+      <c r="D2" s="388" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="395"/>
-      <c r="F2" s="547" t="s">
+      <c r="E2" s="388"/>
+      <c r="F2" s="549" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="547"/>
-      <c r="H2" s="548" t="s">
+      <c r="G2" s="549"/>
+      <c r="H2" s="540" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
-      <c r="K2" s="548"/>
-      <c r="L2" s="548"/>
-      <c r="M2" s="548" t="s">
+      <c r="I2" s="540"/>
+      <c r="J2" s="540"/>
+      <c r="K2" s="540"/>
+      <c r="L2" s="540"/>
+      <c r="M2" s="540" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="548"/>
-      <c r="O2" s="548"/>
-      <c r="P2" s="548"/>
-      <c r="Q2" s="548"/>
+      <c r="N2" s="540"/>
+      <c r="O2" s="540"/>
+      <c r="P2" s="540"/>
+      <c r="Q2" s="540"/>
       <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="547"/>
-      <c r="G3" s="547"/>
-      <c r="H3" s="539">
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="549"/>
+      <c r="G3" s="549"/>
+      <c r="H3" s="541">
         <v>2023</v>
       </c>
-      <c r="I3" s="539">
+      <c r="I3" s="541">
         <v>2024</v>
       </c>
-      <c r="J3" s="539">
+      <c r="J3" s="541">
         <v>2025</v>
       </c>
-      <c r="K3" s="539">
+      <c r="K3" s="541">
         <v>2026</v>
       </c>
-      <c r="L3" s="539">
+      <c r="L3" s="541">
         <v>2027</v>
       </c>
-      <c r="M3" s="539">
+      <c r="M3" s="541">
         <v>2023</v>
       </c>
-      <c r="N3" s="539">
+      <c r="N3" s="541">
         <v>2024</v>
       </c>
-      <c r="O3" s="539">
+      <c r="O3" s="541">
         <v>2025</v>
       </c>
-      <c r="P3" s="539">
+      <c r="P3" s="541">
         <v>2026</v>
       </c>
-      <c r="Q3" s="539">
+      <c r="Q3" s="541">
         <v>2027</v>
       </c>
       <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:23" ht="28.5" customHeight="1">
-      <c r="C4" s="395"/>
+      <c r="C4" s="388"/>
       <c r="D4" s="38" t="s">
         <v>21</v>
       </c>
@@ -34192,39 +34192,39 @@
       <c r="G4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="540"/>
-      <c r="I4" s="540"/>
-      <c r="J4" s="540"/>
-      <c r="K4" s="540"/>
-      <c r="L4" s="540"/>
-      <c r="M4" s="540"/>
-      <c r="N4" s="540"/>
-      <c r="O4" s="540"/>
-      <c r="P4" s="540"/>
-      <c r="Q4" s="540"/>
+      <c r="H4" s="542"/>
+      <c r="I4" s="542"/>
+      <c r="J4" s="542"/>
+      <c r="K4" s="542"/>
+      <c r="L4" s="542"/>
+      <c r="M4" s="542"/>
+      <c r="N4" s="542"/>
+      <c r="O4" s="542"/>
+      <c r="P4" s="542"/>
+      <c r="Q4" s="542"/>
       <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="C5" s="544" t="s">
+      <c r="C5" s="546" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="545"/>
-      <c r="E5" s="545"/>
-      <c r="F5" s="545"/>
-      <c r="G5" s="545"/>
-      <c r="H5" s="545"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="545"/>
-      <c r="L5" s="545"/>
-      <c r="M5" s="545"/>
-      <c r="N5" s="545"/>
-      <c r="O5" s="545"/>
-      <c r="P5" s="545"/>
-      <c r="Q5" s="546"/>
+      <c r="D5" s="547"/>
+      <c r="E5" s="547"/>
+      <c r="F5" s="547"/>
+      <c r="G5" s="547"/>
+      <c r="H5" s="547"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="547"/>
+      <c r="K5" s="547"/>
+      <c r="L5" s="547"/>
+      <c r="M5" s="547"/>
+      <c r="N5" s="547"/>
+      <c r="O5" s="547"/>
+      <c r="P5" s="547"/>
+      <c r="Q5" s="548"/>
       <c r="R5" s="28"/>
       <c r="S5" s="42"/>
       <c r="U5" s="42"/>
@@ -34357,23 +34357,23 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="42"/>
-      <c r="C8" s="541" t="s">
+      <c r="C8" s="543" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="542"/>
-      <c r="E8" s="542"/>
-      <c r="F8" s="542"/>
-      <c r="G8" s="542"/>
-      <c r="H8" s="542"/>
-      <c r="I8" s="542"/>
-      <c r="J8" s="542"/>
-      <c r="K8" s="542"/>
-      <c r="L8" s="542"/>
-      <c r="M8" s="542"/>
-      <c r="N8" s="542"/>
-      <c r="O8" s="542"/>
-      <c r="P8" s="542"/>
-      <c r="Q8" s="543"/>
+      <c r="D8" s="544"/>
+      <c r="E8" s="544"/>
+      <c r="F8" s="544"/>
+      <c r="G8" s="544"/>
+      <c r="H8" s="544"/>
+      <c r="I8" s="544"/>
+      <c r="J8" s="544"/>
+      <c r="K8" s="544"/>
+      <c r="L8" s="544"/>
+      <c r="M8" s="544"/>
+      <c r="N8" s="544"/>
+      <c r="O8" s="544"/>
+      <c r="P8" s="544"/>
+      <c r="Q8" s="545"/>
       <c r="R8" s="28"/>
       <c r="S8" s="42"/>
       <c r="U8" s="42">
@@ -36534,11 +36534,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C5:Q5"/>
     <mergeCell ref="L3:L4"/>
@@ -36551,6 +36546,11 @@
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="W1:W1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -37626,8 +37626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AL420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M4"/>
+    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -37665,76 +37665,76 @@
       <c r="B1" s="14"/>
       <c r="C1" s="1"/>
       <c r="D1" s="277"/>
-      <c r="E1" s="487" t="s">
+      <c r="E1" s="517" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="487"/>
-      <c r="G1" s="487"/>
-      <c r="H1" s="487"/>
-      <c r="I1" s="487"/>
-      <c r="J1" s="487"/>
-      <c r="K1" s="487"/>
-      <c r="L1" s="487"/>
-      <c r="M1" s="487"/>
-      <c r="N1" s="487"/>
-      <c r="O1" s="487"/>
-      <c r="P1" s="487"/>
-      <c r="Q1" s="487"/>
-      <c r="R1" s="487"/>
-      <c r="S1" s="487"/>
-      <c r="T1" s="487"/>
-      <c r="U1" s="487"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
+      <c r="L1" s="517"/>
+      <c r="M1" s="517"/>
+      <c r="N1" s="517"/>
+      <c r="O1" s="517"/>
+      <c r="P1" s="517"/>
+      <c r="Q1" s="517"/>
+      <c r="R1" s="517"/>
+      <c r="S1" s="517"/>
+      <c r="T1" s="517"/>
+      <c r="U1" s="517"/>
       <c r="V1" s="20"/>
       <c r="W1" s="22"/>
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="499" t="s">
+      <c r="A2" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="500" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="513" t="s">
+      <c r="B2" s="492" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="495" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="506" t="s">
+      <c r="D2" s="508" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="516" t="s">
+      <c r="E2" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="517" t="s">
+      <c r="F2" s="514" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="490" t="s">
+      <c r="G2" s="518" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="492"/>
-      <c r="K2" s="518" t="s">
+      <c r="H2" s="519"/>
+      <c r="I2" s="519"/>
+      <c r="J2" s="520"/>
+      <c r="K2" s="515" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="493" t="s">
+      <c r="L2" s="506" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="503" t="s">
+      <c r="M2" s="486" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="493" t="s">
+      <c r="N2" s="506" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="495" t="s">
+      <c r="O2" s="522" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="496"/>
-      <c r="Q2" s="496"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="496"/>
-      <c r="T2" s="496"/>
-      <c r="U2" s="497"/>
+      <c r="P2" s="523"/>
+      <c r="Q2" s="523"/>
+      <c r="R2" s="523"/>
+      <c r="S2" s="523"/>
+      <c r="T2" s="523"/>
+      <c r="U2" s="524"/>
       <c r="V2" s="30"/>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
@@ -37749,19 +37749,19 @@
       <c r="AL2" s="23"/>
     </row>
     <row r="3" spans="1:38" ht="75.75" customHeight="1">
-      <c r="A3" s="488"/>
-      <c r="B3" s="501"/>
-      <c r="C3" s="514"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="514"/>
+      <c r="A3" s="490"/>
+      <c r="B3" s="493"/>
+      <c r="C3" s="496"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="496"/>
       <c r="F3" s="511"/>
-      <c r="G3" s="488" t="s">
+      <c r="G3" s="490" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="488" t="s">
+      <c r="H3" s="490" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="488" t="s">
+      <c r="I3" s="490" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="511" t="s">
@@ -37769,27 +37769,27 @@
       </c>
       <c r="K3" s="509"/>
       <c r="L3" s="509"/>
-      <c r="M3" s="504"/>
+      <c r="M3" s="487"/>
       <c r="N3" s="509"/>
-      <c r="O3" s="493" t="s">
+      <c r="O3" s="506" t="s">
         <v>333</v>
       </c>
-      <c r="P3" s="493" t="s">
+      <c r="P3" s="506" t="s">
         <v>332</v>
       </c>
-      <c r="Q3" s="493" t="s">
+      <c r="Q3" s="506" t="s">
         <v>334</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="471" t="s">
         <v>335</v>
       </c>
-      <c r="S3" s="493" t="s">
+      <c r="S3" s="506" t="s">
         <v>338</v>
       </c>
-      <c r="T3" s="493" t="s">
+      <c r="T3" s="506" t="s">
         <v>336</v>
       </c>
-      <c r="U3" s="493" t="s">
+      <c r="U3" s="506" t="s">
         <v>337</v>
       </c>
       <c r="V3" s="31"/>
@@ -37807,27 +37807,27 @@
       <c r="AL3" s="171"/>
     </row>
     <row r="4" spans="1:38" ht="52.5" customHeight="1">
-      <c r="A4" s="489"/>
-      <c r="B4" s="502"/>
-      <c r="C4" s="515"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="515"/>
+      <c r="A4" s="491"/>
+      <c r="B4" s="494"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="497"/>
       <c r="F4" s="512"/>
-      <c r="G4" s="489"/>
-      <c r="H4" s="489"/>
-      <c r="I4" s="489"/>
+      <c r="G4" s="491"/>
+      <c r="H4" s="491"/>
+      <c r="I4" s="491"/>
       <c r="J4" s="512"/>
       <c r="K4" s="510"/>
       <c r="L4" s="510"/>
-      <c r="M4" s="505"/>
+      <c r="M4" s="488"/>
       <c r="N4" s="510"/>
-      <c r="O4" s="494"/>
-      <c r="P4" s="494"/>
-      <c r="Q4" s="494"/>
-      <c r="R4" s="482"/>
-      <c r="S4" s="494"/>
-      <c r="T4" s="494"/>
-      <c r="U4" s="494"/>
+      <c r="O4" s="507"/>
+      <c r="P4" s="507"/>
+      <c r="Q4" s="507"/>
+      <c r="R4" s="521"/>
+      <c r="S4" s="507"/>
+      <c r="T4" s="507"/>
+      <c r="U4" s="507"/>
       <c r="V4" s="32"/>
       <c r="W4" s="35" t="s">
         <v>32</v>
@@ -37859,26 +37859,26 @@
       <c r="A5" s="340"/>
       <c r="B5" s="341"/>
       <c r="C5" s="343"/>
-      <c r="D5" s="486" t="s">
+      <c r="D5" s="516" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="486"/>
-      <c r="F5" s="486"/>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="486"/>
-      <c r="J5" s="486"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="486"/>
-      <c r="M5" s="486"/>
-      <c r="N5" s="486"/>
-      <c r="O5" s="486"/>
-      <c r="P5" s="486"/>
-      <c r="Q5" s="486"/>
-      <c r="R5" s="486"/>
-      <c r="S5" s="486"/>
-      <c r="T5" s="486"/>
-      <c r="U5" s="486"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="516"/>
+      <c r="J5" s="516"/>
+      <c r="K5" s="516"/>
+      <c r="L5" s="516"/>
+      <c r="M5" s="516"/>
+      <c r="N5" s="516"/>
+      <c r="O5" s="516"/>
+      <c r="P5" s="516"/>
+      <c r="Q5" s="516"/>
+      <c r="R5" s="516"/>
+      <c r="S5" s="516"/>
+      <c r="T5" s="516"/>
+      <c r="U5" s="516"/>
       <c r="V5" s="32"/>
       <c r="Z5" s="202"/>
       <c r="AA5" s="202"/>
@@ -38401,26 +38401,26 @@
       <c r="A13" s="340"/>
       <c r="B13" s="341"/>
       <c r="C13" s="343"/>
-      <c r="D13" s="498" t="s">
+      <c r="D13" s="525" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="498"/>
-      <c r="F13" s="498"/>
-      <c r="G13" s="498"/>
-      <c r="H13" s="498"/>
-      <c r="I13" s="498"/>
-      <c r="J13" s="498"/>
-      <c r="K13" s="498"/>
-      <c r="L13" s="498"/>
-      <c r="M13" s="498"/>
-      <c r="N13" s="498"/>
-      <c r="O13" s="498"/>
-      <c r="P13" s="498"/>
-      <c r="Q13" s="498"/>
-      <c r="R13" s="498"/>
-      <c r="S13" s="498"/>
-      <c r="T13" s="498"/>
-      <c r="U13" s="498"/>
+      <c r="E13" s="525"/>
+      <c r="F13" s="525"/>
+      <c r="G13" s="525"/>
+      <c r="H13" s="525"/>
+      <c r="I13" s="525"/>
+      <c r="J13" s="525"/>
+      <c r="K13" s="525"/>
+      <c r="L13" s="525"/>
+      <c r="M13" s="525"/>
+      <c r="N13" s="525"/>
+      <c r="O13" s="525"/>
+      <c r="P13" s="525"/>
+      <c r="Q13" s="525"/>
+      <c r="R13" s="525"/>
+      <c r="S13" s="525"/>
+      <c r="T13" s="525"/>
+      <c r="U13" s="525"/>
       <c r="V13" s="32"/>
       <c r="Z13" s="202"/>
       <c r="AA13" s="202"/>
@@ -38551,26 +38551,26 @@
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="486" t="s">
+      <c r="D16" s="516" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
-      <c r="G16" s="486"/>
-      <c r="H16" s="486"/>
-      <c r="I16" s="486"/>
-      <c r="J16" s="486"/>
-      <c r="K16" s="486"/>
-      <c r="L16" s="486"/>
-      <c r="M16" s="486"/>
-      <c r="N16" s="486"/>
-      <c r="O16" s="486"/>
-      <c r="P16" s="486"/>
-      <c r="Q16" s="486"/>
-      <c r="R16" s="486"/>
-      <c r="S16" s="486"/>
-      <c r="T16" s="486"/>
-      <c r="U16" s="486"/>
+      <c r="E16" s="516"/>
+      <c r="F16" s="516"/>
+      <c r="G16" s="516"/>
+      <c r="H16" s="516"/>
+      <c r="I16" s="516"/>
+      <c r="J16" s="516"/>
+      <c r="K16" s="516"/>
+      <c r="L16" s="516"/>
+      <c r="M16" s="516"/>
+      <c r="N16" s="516"/>
+      <c r="O16" s="516"/>
+      <c r="P16" s="516"/>
+      <c r="Q16" s="516"/>
+      <c r="R16" s="516"/>
+      <c r="S16" s="516"/>
+      <c r="T16" s="516"/>
+      <c r="U16" s="516"/>
       <c r="V16" s="33"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
@@ -38623,8 +38623,8 @@
       <c r="W17" s="268"/>
       <c r="X17" s="268"/>
       <c r="Y17" s="268"/>
-      <c r="Z17" s="472"/>
-      <c r="AA17" s="473"/>
+      <c r="Z17" s="528"/>
+      <c r="AA17" s="529"/>
       <c r="AC17" s="270"/>
     </row>
     <row r="18" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38674,8 +38674,8 @@
       <c r="W18" s="268"/>
       <c r="X18" s="268"/>
       <c r="Y18" s="268"/>
-      <c r="Z18" s="476"/>
-      <c r="AA18" s="477"/>
+      <c r="Z18" s="532"/>
+      <c r="AA18" s="533"/>
       <c r="AC18" s="270"/>
     </row>
     <row r="19" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38725,8 +38725,8 @@
       <c r="W19" s="268"/>
       <c r="X19" s="268"/>
       <c r="Y19" s="268"/>
-      <c r="Z19" s="476"/>
-      <c r="AA19" s="477"/>
+      <c r="Z19" s="532"/>
+      <c r="AA19" s="533"/>
       <c r="AC19" s="270"/>
     </row>
     <row r="20" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38776,8 +38776,8 @@
       <c r="W20" s="268"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="268"/>
-      <c r="Z20" s="476"/>
-      <c r="AA20" s="477"/>
+      <c r="Z20" s="532"/>
+      <c r="AA20" s="533"/>
       <c r="AC20" s="270"/>
     </row>
     <row r="21" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38830,8 +38830,8 @@
       <c r="W21" s="268"/>
       <c r="X21" s="268"/>
       <c r="Y21" s="268"/>
-      <c r="Z21" s="476"/>
-      <c r="AA21" s="477"/>
+      <c r="Z21" s="532"/>
+      <c r="AA21" s="533"/>
       <c r="AC21" s="270"/>
     </row>
     <row r="22" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38881,8 +38881,8 @@
       <c r="W22" s="268"/>
       <c r="X22" s="268"/>
       <c r="Y22" s="268"/>
-      <c r="Z22" s="476"/>
-      <c r="AA22" s="477"/>
+      <c r="Z22" s="532"/>
+      <c r="AA22" s="533"/>
       <c r="AC22" s="270"/>
     </row>
     <row r="23" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -38932,8 +38932,8 @@
       <c r="W23" s="268"/>
       <c r="X23" s="268"/>
       <c r="Y23" s="268"/>
-      <c r="Z23" s="476"/>
-      <c r="AA23" s="477"/>
+      <c r="Z23" s="532"/>
+      <c r="AA23" s="533"/>
       <c r="AC23" s="270"/>
     </row>
     <row r="24" spans="1:30" s="269" customFormat="1" ht="18.75">
@@ -38983,8 +38983,8 @@
       <c r="W24" s="268"/>
       <c r="X24" s="268"/>
       <c r="Y24" s="268"/>
-      <c r="Z24" s="476"/>
-      <c r="AA24" s="477"/>
+      <c r="Z24" s="532"/>
+      <c r="AA24" s="533"/>
       <c r="AC24" s="270"/>
     </row>
     <row r="25" spans="1:30" s="269" customFormat="1" ht="31.5">
@@ -39034,8 +39034,8 @@
       <c r="W25" s="268"/>
       <c r="X25" s="268"/>
       <c r="Y25" s="268"/>
-      <c r="Z25" s="476"/>
-      <c r="AA25" s="477"/>
+      <c r="Z25" s="532"/>
+      <c r="AA25" s="533"/>
       <c r="AC25" s="270"/>
     </row>
     <row r="26" spans="1:30" s="269" customFormat="1">
@@ -39085,8 +39085,8 @@
       <c r="W26" s="268"/>
       <c r="X26" s="268"/>
       <c r="Y26" s="268"/>
-      <c r="Z26" s="476"/>
-      <c r="AA26" s="477"/>
+      <c r="Z26" s="532"/>
+      <c r="AA26" s="533"/>
       <c r="AC26" s="270"/>
     </row>
     <row r="27" spans="1:30" s="269" customFormat="1">
@@ -39136,8 +39136,8 @@
       <c r="W27" s="268"/>
       <c r="X27" s="268"/>
       <c r="Y27" s="268"/>
-      <c r="Z27" s="476"/>
-      <c r="AA27" s="477"/>
+      <c r="Z27" s="532"/>
+      <c r="AA27" s="533"/>
       <c r="AC27" s="270"/>
       <c r="AD27" s="306"/>
     </row>
@@ -39188,8 +39188,8 @@
       <c r="W28" s="268"/>
       <c r="X28" s="268"/>
       <c r="Y28" s="268"/>
-      <c r="Z28" s="476"/>
-      <c r="AA28" s="477"/>
+      <c r="Z28" s="532"/>
+      <c r="AA28" s="533"/>
       <c r="AC28" s="270"/>
     </row>
     <row r="29" spans="1:30" s="269" customFormat="1">
@@ -39239,8 +39239,8 @@
       <c r="W29" s="268"/>
       <c r="X29" s="268"/>
       <c r="Y29" s="268"/>
-      <c r="Z29" s="476"/>
-      <c r="AA29" s="477"/>
+      <c r="Z29" s="532"/>
+      <c r="AA29" s="533"/>
       <c r="AC29" s="270"/>
     </row>
     <row r="30" spans="1:30" s="269" customFormat="1">
@@ -39290,8 +39290,8 @@
       <c r="W30" s="268"/>
       <c r="X30" s="268"/>
       <c r="Y30" s="268"/>
-      <c r="Z30" s="476"/>
-      <c r="AA30" s="477"/>
+      <c r="Z30" s="532"/>
+      <c r="AA30" s="533"/>
       <c r="AC30" s="270"/>
     </row>
     <row r="31" spans="1:30" s="269" customFormat="1">
@@ -39341,8 +39341,8 @@
       <c r="W31" s="268"/>
       <c r="X31" s="268"/>
       <c r="Y31" s="268"/>
-      <c r="Z31" s="476"/>
-      <c r="AA31" s="477"/>
+      <c r="Z31" s="532"/>
+      <c r="AA31" s="533"/>
       <c r="AC31" s="270"/>
     </row>
     <row r="32" spans="1:30" s="269" customFormat="1">
@@ -39392,8 +39392,8 @@
       <c r="W32" s="268"/>
       <c r="X32" s="268"/>
       <c r="Y32" s="268"/>
-      <c r="Z32" s="476"/>
-      <c r="AA32" s="477"/>
+      <c r="Z32" s="532"/>
+      <c r="AA32" s="533"/>
       <c r="AC32" s="270"/>
     </row>
     <row r="33" spans="1:29" s="269" customFormat="1">
@@ -39443,8 +39443,8 @@
       <c r="W33" s="268"/>
       <c r="X33" s="268"/>
       <c r="Y33" s="268"/>
-      <c r="Z33" s="476"/>
-      <c r="AA33" s="477"/>
+      <c r="Z33" s="532"/>
+      <c r="AA33" s="533"/>
       <c r="AC33" s="270"/>
     </row>
     <row r="34" spans="1:29" s="269" customFormat="1">
@@ -39494,8 +39494,8 @@
       <c r="W34" s="268"/>
       <c r="X34" s="268"/>
       <c r="Y34" s="268"/>
-      <c r="Z34" s="476"/>
-      <c r="AA34" s="477"/>
+      <c r="Z34" s="532"/>
+      <c r="AA34" s="533"/>
       <c r="AC34" s="270"/>
     </row>
     <row r="35" spans="1:29" s="269" customFormat="1">
@@ -39545,8 +39545,8 @@
       <c r="W35" s="268"/>
       <c r="X35" s="268"/>
       <c r="Y35" s="268"/>
-      <c r="Z35" s="476"/>
-      <c r="AA35" s="477"/>
+      <c r="Z35" s="532"/>
+      <c r="AA35" s="533"/>
       <c r="AC35" s="270"/>
     </row>
     <row r="36" spans="1:29" s="269" customFormat="1">
@@ -39596,8 +39596,8 @@
       <c r="W36" s="268"/>
       <c r="X36" s="268"/>
       <c r="Y36" s="268"/>
-      <c r="Z36" s="476"/>
-      <c r="AA36" s="477"/>
+      <c r="Z36" s="532"/>
+      <c r="AA36" s="533"/>
       <c r="AC36" s="270"/>
     </row>
     <row r="37" spans="1:29" s="269" customFormat="1">
@@ -39647,8 +39647,8 @@
       <c r="W37" s="268"/>
       <c r="X37" s="268"/>
       <c r="Y37" s="268"/>
-      <c r="Z37" s="476"/>
-      <c r="AA37" s="477"/>
+      <c r="Z37" s="532"/>
+      <c r="AA37" s="533"/>
       <c r="AC37" s="270"/>
     </row>
     <row r="38" spans="1:29" s="269" customFormat="1">
@@ -39698,8 +39698,8 @@
       <c r="W38" s="268"/>
       <c r="X38" s="268"/>
       <c r="Y38" s="268"/>
-      <c r="Z38" s="476"/>
-      <c r="AA38" s="477"/>
+      <c r="Z38" s="532"/>
+      <c r="AA38" s="533"/>
       <c r="AC38" s="270"/>
     </row>
     <row r="39" spans="1:29" s="269" customFormat="1">
@@ -39749,8 +39749,8 @@
       <c r="W39" s="268"/>
       <c r="X39" s="268"/>
       <c r="Y39" s="268"/>
-      <c r="Z39" s="476"/>
-      <c r="AA39" s="477"/>
+      <c r="Z39" s="532"/>
+      <c r="AA39" s="533"/>
       <c r="AC39" s="270"/>
     </row>
     <row r="40" spans="1:29" s="269" customFormat="1">
@@ -39800,8 +39800,8 @@
       <c r="W40" s="268"/>
       <c r="X40" s="268"/>
       <c r="Y40" s="268"/>
-      <c r="Z40" s="476"/>
-      <c r="AA40" s="477"/>
+      <c r="Z40" s="532"/>
+      <c r="AA40" s="533"/>
       <c r="AC40" s="270"/>
     </row>
     <row r="41" spans="1:29" s="269" customFormat="1">
@@ -39851,8 +39851,8 @@
       <c r="W41" s="268"/>
       <c r="X41" s="268"/>
       <c r="Y41" s="268"/>
-      <c r="Z41" s="476"/>
-      <c r="AA41" s="477"/>
+      <c r="Z41" s="532"/>
+      <c r="AA41" s="533"/>
       <c r="AC41" s="270"/>
     </row>
     <row r="42" spans="1:29" s="269" customFormat="1">
@@ -39902,8 +39902,8 @@
       <c r="W42" s="271"/>
       <c r="X42" s="268"/>
       <c r="Y42" s="268"/>
-      <c r="Z42" s="474"/>
-      <c r="AA42" s="475"/>
+      <c r="Z42" s="530"/>
+      <c r="AA42" s="531"/>
       <c r="AC42" s="270"/>
     </row>
     <row r="43" spans="1:29" s="269" customFormat="1">
@@ -40157,8 +40157,8 @@
       <c r="W47" s="50"/>
       <c r="X47" s="43"/>
       <c r="Y47" s="43"/>
-      <c r="Z47" s="478"/>
-      <c r="AA47" s="479"/>
+      <c r="Z47" s="534"/>
+      <c r="AA47" s="535"/>
       <c r="AC47" s="49"/>
     </row>
     <row r="48" spans="1:29">
@@ -40208,8 +40208,8 @@
       <c r="W48" s="50"/>
       <c r="X48" s="43"/>
       <c r="Y48" s="43"/>
-      <c r="Z48" s="478"/>
-      <c r="AA48" s="479"/>
+      <c r="Z48" s="534"/>
+      <c r="AA48" s="535"/>
       <c r="AC48" s="49"/>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1">
@@ -40321,7 +40321,7 @@
       <c r="D51" s="274">
         <v>35</v>
       </c>
-      <c r="E51" s="549" t="s">
+      <c r="E51" s="359" t="s">
         <v>401</v>
       </c>
       <c r="F51" s="246">
@@ -40372,7 +40372,7 @@
       <c r="D52" s="274">
         <v>36</v>
       </c>
-      <c r="E52" s="549" t="s">
+      <c r="E52" s="359" t="s">
         <v>413</v>
       </c>
       <c r="F52" s="246">
@@ -40423,7 +40423,7 @@
       <c r="D53" s="274">
         <v>37</v>
       </c>
-      <c r="E53" s="549" t="s">
+      <c r="E53" s="359" t="s">
         <v>453</v>
       </c>
       <c r="F53" s="246">
@@ -40463,8 +40463,8 @@
       <c r="W53" s="50"/>
       <c r="X53" s="43"/>
       <c r="Y53" s="43"/>
-      <c r="Z53" s="474"/>
-      <c r="AA53" s="475"/>
+      <c r="Z53" s="530"/>
+      <c r="AA53" s="531"/>
       <c r="AC53" s="49"/>
     </row>
     <row r="54" spans="1:29" ht="48" customHeight="1">
@@ -40474,7 +40474,7 @@
       <c r="D54" s="274">
         <v>38</v>
       </c>
-      <c r="E54" s="549" t="s">
+      <c r="E54" s="359" t="s">
         <v>457</v>
       </c>
       <c r="F54" s="246">
@@ -40525,7 +40525,7 @@
       <c r="D55" s="274">
         <v>39</v>
       </c>
-      <c r="E55" s="549" t="s">
+      <c r="E55" s="359" t="s">
         <v>457</v>
       </c>
       <c r="F55" s="246">
@@ -40576,7 +40576,7 @@
       <c r="D56" s="274">
         <v>40</v>
       </c>
-      <c r="E56" s="549" t="s">
+      <c r="E56" s="359" t="s">
         <v>466</v>
       </c>
       <c r="F56" s="246">
@@ -40627,7 +40627,7 @@
       <c r="D57" s="274">
         <v>41</v>
       </c>
-      <c r="E57" s="549" t="s">
+      <c r="E57" s="359" t="s">
         <v>475</v>
       </c>
       <c r="F57" s="246">
@@ -40678,7 +40678,7 @@
       <c r="D58" s="274">
         <v>42</v>
       </c>
-      <c r="E58" s="549" t="s">
+      <c r="E58" s="359" t="s">
         <v>482</v>
       </c>
       <c r="F58" s="246">
@@ -40729,7 +40729,7 @@
       <c r="D59" s="274">
         <v>43</v>
       </c>
-      <c r="E59" s="549" t="s">
+      <c r="E59" s="359" t="s">
         <v>486</v>
       </c>
       <c r="F59" s="246">
@@ -40780,7 +40780,7 @@
       <c r="D60" s="274">
         <v>44</v>
       </c>
-      <c r="E60" s="549" t="s">
+      <c r="E60" s="359" t="s">
         <v>486</v>
       </c>
       <c r="F60" s="246">
@@ -40831,7 +40831,7 @@
       <c r="D61" s="274">
         <v>45</v>
       </c>
-      <c r="E61" s="549" t="s">
+      <c r="E61" s="359" t="s">
         <v>505</v>
       </c>
       <c r="F61" s="246">
@@ -40882,7 +40882,7 @@
       <c r="D62" s="274">
         <v>46</v>
       </c>
-      <c r="E62" s="549" t="s">
+      <c r="E62" s="359" t="s">
         <v>506</v>
       </c>
       <c r="F62" s="246">
@@ -40933,7 +40933,7 @@
       <c r="D63" s="274">
         <v>47</v>
       </c>
-      <c r="E63" s="549" t="s">
+      <c r="E63" s="359" t="s">
         <v>509</v>
       </c>
       <c r="F63" s="246">
@@ -40984,7 +40984,7 @@
       <c r="D64" s="274">
         <v>48</v>
       </c>
-      <c r="E64" s="549" t="s">
+      <c r="E64" s="359" t="s">
         <v>507</v>
       </c>
       <c r="F64" s="246">
@@ -41035,7 +41035,7 @@
       <c r="D65" s="274">
         <v>49</v>
       </c>
-      <c r="E65" s="549" t="s">
+      <c r="E65" s="359" t="s">
         <v>510</v>
       </c>
       <c r="F65" s="246">
@@ -41083,7 +41083,7 @@
       <c r="D66" s="274">
         <v>50</v>
       </c>
-      <c r="E66" s="549" t="s">
+      <c r="E66" s="359" t="s">
         <v>532</v>
       </c>
       <c r="F66" s="246">
@@ -41124,7 +41124,7 @@
       <c r="D67" s="274">
         <v>51</v>
       </c>
-      <c r="E67" s="549" t="s">
+      <c r="E67" s="359" t="s">
         <v>536</v>
       </c>
       <c r="F67" s="246">
@@ -41165,7 +41165,7 @@
       <c r="D68" s="274">
         <v>52</v>
       </c>
-      <c r="E68" s="549" t="s">
+      <c r="E68" s="359" t="s">
         <v>539</v>
       </c>
       <c r="F68" s="246">
@@ -41206,7 +41206,7 @@
       <c r="D69" s="274">
         <v>53</v>
       </c>
-      <c r="E69" s="549" t="s">
+      <c r="E69" s="359" t="s">
         <v>540</v>
       </c>
       <c r="F69" s="246">
@@ -41247,7 +41247,7 @@
       <c r="D70" s="274">
         <v>54</v>
       </c>
-      <c r="E70" s="549" t="s">
+      <c r="E70" s="359" t="s">
         <v>546</v>
       </c>
       <c r="F70" s="246">
@@ -41288,7 +41288,7 @@
       <c r="D71" s="274">
         <v>55</v>
       </c>
-      <c r="E71" s="549" t="s">
+      <c r="E71" s="359" t="s">
         <v>547</v>
       </c>
       <c r="F71" s="246">
@@ -41329,7 +41329,7 @@
       <c r="D72" s="274">
         <v>56</v>
       </c>
-      <c r="E72" s="549" t="s">
+      <c r="E72" s="359" t="s">
         <v>552</v>
       </c>
       <c r="F72" s="246">
@@ -41370,7 +41370,7 @@
       <c r="D73" s="274">
         <v>57</v>
       </c>
-      <c r="E73" s="549" t="s">
+      <c r="E73" s="359" t="s">
         <v>552</v>
       </c>
       <c r="F73" s="246">
@@ -41411,7 +41411,7 @@
       <c r="D74" s="274">
         <v>58</v>
       </c>
-      <c r="E74" s="549" t="s">
+      <c r="E74" s="359" t="s">
         <v>572</v>
       </c>
       <c r="F74" s="246">
@@ -41452,7 +41452,7 @@
       <c r="D75" s="274">
         <v>59</v>
       </c>
-      <c r="E75" s="549" t="s">
+      <c r="E75" s="359" t="s">
         <v>583</v>
       </c>
       <c r="F75" s="246">
@@ -44215,10 +44215,10 @@
       <c r="U140" s="245"/>
     </row>
     <row r="141" spans="4:21">
-      <c r="D141" s="523" t="s">
+      <c r="D141" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="524"/>
+      <c r="E141" s="505"/>
       <c r="F141" s="57">
         <f>SUM(F76:F140)</f>
         <v>1731</v>
@@ -44298,126 +44298,126 @@
       <c r="U143" s="251"/>
     </row>
     <row r="144" spans="4:21">
-      <c r="D144" s="520" t="s">
+      <c r="D144" s="501" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="519" t="s">
+      <c r="E144" s="498" t="s">
         <v>3</v>
       </c>
-      <c r="F144" s="525" t="s">
+      <c r="F144" s="481" t="s">
         <v>40</v>
       </c>
-      <c r="G144" s="528" t="s">
+      <c r="G144" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="H144" s="529"/>
-      <c r="I144" s="529"/>
-      <c r="J144" s="530"/>
-      <c r="K144" s="531" t="s">
+      <c r="H144" s="483"/>
+      <c r="I144" s="483"/>
+      <c r="J144" s="484"/>
+      <c r="K144" s="485" t="s">
         <v>16</v>
       </c>
-      <c r="L144" s="480" t="s">
+      <c r="L144" s="471" t="s">
         <v>9</v>
       </c>
-      <c r="M144" s="503" t="s">
+      <c r="M144" s="486" t="s">
         <v>28</v>
       </c>
-      <c r="N144" s="480" t="s">
+      <c r="N144" s="471" t="s">
         <v>15</v>
       </c>
-      <c r="O144" s="534" t="s">
+      <c r="O144" s="474" t="s">
         <v>29</v>
       </c>
-      <c r="P144" s="535"/>
-      <c r="Q144" s="535"/>
-      <c r="R144" s="535"/>
-      <c r="S144" s="535"/>
-      <c r="T144" s="535"/>
-      <c r="U144" s="536"/>
+      <c r="P144" s="475"/>
+      <c r="Q144" s="475"/>
+      <c r="R144" s="475"/>
+      <c r="S144" s="475"/>
+      <c r="T144" s="475"/>
+      <c r="U144" s="476"/>
     </row>
     <row r="145" spans="4:21">
-      <c r="D145" s="521"/>
-      <c r="E145" s="507"/>
-      <c r="F145" s="526"/>
-      <c r="G145" s="537" t="s">
+      <c r="D145" s="502"/>
+      <c r="E145" s="499"/>
+      <c r="F145" s="479"/>
+      <c r="G145" s="477" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="537" t="s">
+      <c r="H145" s="477" t="s">
         <v>12</v>
       </c>
-      <c r="I145" s="537" t="s">
+      <c r="I145" s="477" t="s">
         <v>13</v>
       </c>
-      <c r="J145" s="526" t="s">
+      <c r="J145" s="479" t="s">
         <v>5</v>
       </c>
-      <c r="K145" s="532"/>
-      <c r="L145" s="532"/>
-      <c r="M145" s="504"/>
-      <c r="N145" s="532"/>
-      <c r="O145" s="480" t="s">
+      <c r="K145" s="472"/>
+      <c r="L145" s="472"/>
+      <c r="M145" s="487"/>
+      <c r="N145" s="472"/>
+      <c r="O145" s="471" t="s">
         <v>333</v>
       </c>
-      <c r="P145" s="480" t="s">
+      <c r="P145" s="471" t="s">
         <v>332</v>
       </c>
-      <c r="Q145" s="480" t="s">
+      <c r="Q145" s="471" t="s">
         <v>334</v>
       </c>
-      <c r="R145" s="480" t="s">
+      <c r="R145" s="471" t="s">
         <v>335</v>
       </c>
-      <c r="S145" s="480" t="s">
+      <c r="S145" s="471" t="s">
         <v>338</v>
       </c>
-      <c r="T145" s="480" t="s">
+      <c r="T145" s="471" t="s">
         <v>336</v>
       </c>
-      <c r="U145" s="480" t="s">
+      <c r="U145" s="471" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="146" spans="4:21">
-      <c r="D146" s="522"/>
-      <c r="E146" s="508"/>
-      <c r="F146" s="527"/>
-      <c r="G146" s="538"/>
-      <c r="H146" s="538"/>
-      <c r="I146" s="538"/>
-      <c r="J146" s="527"/>
-      <c r="K146" s="533"/>
-      <c r="L146" s="533"/>
-      <c r="M146" s="505"/>
-      <c r="N146" s="533"/>
-      <c r="O146" s="481"/>
-      <c r="P146" s="481"/>
-      <c r="Q146" s="481"/>
-      <c r="R146" s="482"/>
-      <c r="S146" s="481"/>
-      <c r="T146" s="481"/>
-      <c r="U146" s="481"/>
+      <c r="D146" s="503"/>
+      <c r="E146" s="500"/>
+      <c r="F146" s="480"/>
+      <c r="G146" s="478"/>
+      <c r="H146" s="478"/>
+      <c r="I146" s="478"/>
+      <c r="J146" s="480"/>
+      <c r="K146" s="473"/>
+      <c r="L146" s="473"/>
+      <c r="M146" s="488"/>
+      <c r="N146" s="473"/>
+      <c r="O146" s="536"/>
+      <c r="P146" s="536"/>
+      <c r="Q146" s="536"/>
+      <c r="R146" s="521"/>
+      <c r="S146" s="536"/>
+      <c r="T146" s="536"/>
+      <c r="U146" s="536"/>
     </row>
     <row r="147" spans="4:21">
       <c r="D147" s="335"/>
-      <c r="E147" s="483" t="s">
+      <c r="E147" s="537" t="s">
         <v>325</v>
       </c>
-      <c r="F147" s="484"/>
-      <c r="G147" s="484"/>
-      <c r="H147" s="484"/>
-      <c r="I147" s="484"/>
-      <c r="J147" s="484"/>
-      <c r="K147" s="484"/>
-      <c r="L147" s="484"/>
-      <c r="M147" s="484"/>
-      <c r="N147" s="484"/>
-      <c r="O147" s="484"/>
-      <c r="P147" s="484"/>
-      <c r="Q147" s="484"/>
-      <c r="R147" s="484"/>
-      <c r="S147" s="484"/>
-      <c r="T147" s="484"/>
-      <c r="U147" s="485"/>
+      <c r="F147" s="538"/>
+      <c r="G147" s="538"/>
+      <c r="H147" s="538"/>
+      <c r="I147" s="538"/>
+      <c r="J147" s="538"/>
+      <c r="K147" s="538"/>
+      <c r="L147" s="538"/>
+      <c r="M147" s="538"/>
+      <c r="N147" s="538"/>
+      <c r="O147" s="538"/>
+      <c r="P147" s="538"/>
+      <c r="Q147" s="538"/>
+      <c r="R147" s="538"/>
+      <c r="S147" s="538"/>
+      <c r="T147" s="538"/>
+      <c r="U147" s="539"/>
     </row>
     <row r="148" spans="4:21" ht="31.5">
       <c r="D148" s="294" t="s">
@@ -53154,10 +53154,10 @@
       <c r="U371" s="245"/>
     </row>
     <row r="372" spans="4:21">
-      <c r="D372" s="470" t="s">
+      <c r="D372" s="526" t="s">
         <v>10</v>
       </c>
-      <c r="E372" s="471"/>
+      <c r="E372" s="527"/>
       <c r="F372" s="302"/>
       <c r="G372" s="303">
         <f>SUM(G148:G371)</f>
@@ -53560,20 +53560,30 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="E1:U1"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="M144:M146"/>
+    <mergeCell ref="N144:N146"/>
+    <mergeCell ref="O144:U144"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="P145:P146"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="R145:R146"/>
+    <mergeCell ref="S145:S146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="E147:U147"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="G144:J144"/>
+    <mergeCell ref="K144:K146"/>
+    <mergeCell ref="L144:L146"/>
     <mergeCell ref="D16:U16"/>
     <mergeCell ref="Z17:AA42"/>
     <mergeCell ref="Z47:AA47"/>
@@ -53590,30 +53600,20 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="G144:J144"/>
-    <mergeCell ref="K144:K146"/>
-    <mergeCell ref="L144:L146"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="M144:M146"/>
-    <mergeCell ref="N144:N146"/>
-    <mergeCell ref="O144:U144"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="O145:O146"/>
-    <mergeCell ref="P145:P146"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="R145:R146"/>
-    <mergeCell ref="S145:S146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="E147:U147"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="E1:U1"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53652,76 +53652,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="104.25" customHeight="1">
-      <c r="A1" s="377" t="s">
+      <c r="A1" s="378" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="376" t="s">
+      <c r="B1" s="377" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="376" t="s">
+      <c r="C1" s="377" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="376" t="s">
+      <c r="D1" s="377" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="376" t="s">
+      <c r="E1" s="377" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="376" t="s">
+      <c r="F1" s="377" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="376" t="s">
+      <c r="G1" s="377" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376" t="s">
+      <c r="H1" s="377"/>
+      <c r="I1" s="377" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="376" t="s">
+      <c r="J1" s="377" t="s">
         <v>148</v>
       </c>
-      <c r="K1" s="376" t="s">
+      <c r="K1" s="377" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="376"/>
-      <c r="M1" s="376" t="s">
+      <c r="L1" s="377"/>
+      <c r="M1" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="376" t="s">
+      <c r="N1" s="377" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="376"/>
-      <c r="P1" s="376"/>
-      <c r="Q1" s="376" t="s">
+      <c r="O1" s="377"/>
+      <c r="P1" s="377"/>
+      <c r="Q1" s="377" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="376" t="s">
+      <c r="R1" s="377" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:19" ht="77.25" customHeight="1">
-      <c r="A2" s="377"/>
-      <c r="B2" s="376"/>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376"/>
-      <c r="E2" s="376"/>
-      <c r="F2" s="376"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
       <c r="G2" s="118" t="s">
         <v>150</v>
       </c>
       <c r="H2" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="376"/>
-      <c r="J2" s="376"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377"/>
       <c r="K2" s="118" t="s">
         <v>150</v>
       </c>
       <c r="L2" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="M2" s="376"/>
+      <c r="M2" s="377"/>
       <c r="N2" s="118" t="s">
         <v>24</v>
       </c>
@@ -53731,8 +53731,8 @@
       <c r="P2" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="376"/>
-      <c r="R2" s="376"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
       <c r="A3" s="119" t="s">
@@ -54441,12 +54441,6 @@
     <row r="314" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="G1:H1"/>
@@ -54455,6 +54449,12 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -54488,56 +54488,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="380"/>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
+      <c r="A1" s="381"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="G1" s="381"/>
+      <c r="H1" s="381"/>
+      <c r="I1" s="381"/>
+      <c r="J1" s="381"/>
+      <c r="K1" s="381"/>
+      <c r="L1" s="381"/>
+      <c r="M1" s="381"/>
     </row>
     <row r="2" spans="1:22" ht="92.25" customHeight="1">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="382" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="382" t="s">
+      <c r="B2" s="383" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="382" t="s">
+      <c r="C2" s="383" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382" t="s">
+      <c r="D2" s="383"/>
+      <c r="E2" s="383" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382" t="s">
+      <c r="F2" s="383"/>
+      <c r="G2" s="383" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="382" t="s">
+      <c r="H2" s="383" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="381" t="s">
+      <c r="I2" s="382" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="383" t="s">
+      <c r="J2" s="382"/>
+      <c r="K2" s="382"/>
+      <c r="L2" s="384" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="382" t="s">
+      <c r="M2" s="383" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="89.25">
-      <c r="A3" s="381"/>
-      <c r="B3" s="382"/>
+      <c r="A3" s="382"/>
+      <c r="B3" s="383"/>
       <c r="C3" s="64" t="s">
         <v>132</v>
       </c>
@@ -54550,8 +54550,8 @@
       <c r="F3" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
+      <c r="G3" s="383"/>
+      <c r="H3" s="383"/>
       <c r="I3" s="64" t="s">
         <v>24</v>
       </c>
@@ -54561,8 +54561,8 @@
       <c r="K3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="383"/>
-      <c r="M3" s="382"/>
+      <c r="L3" s="384"/>
+      <c r="M3" s="383"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="107" t="s">
@@ -54999,7 +54999,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A18" s="378" t="s">
+      <c r="A18" s="379" t="s">
         <v>262</v>
       </c>
       <c r="B18" s="210" t="s">
@@ -55010,7 +55010,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A19" s="379"/>
+      <c r="A19" s="380"/>
       <c r="B19" s="210" t="s">
         <v>264</v>
       </c>
@@ -55019,7 +55019,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A20" s="378" t="s">
+      <c r="A20" s="379" t="s">
         <v>265</v>
       </c>
       <c r="B20" s="210" t="s">
@@ -55030,7 +55030,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A21" s="379"/>
+      <c r="A21" s="380"/>
       <c r="B21" s="210" t="s">
         <v>264</v>
       </c>
@@ -56497,73 +56497,73 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:29" ht="127.5" customHeight="1">
-      <c r="A4" s="394" t="s">
+      <c r="A4" s="387" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="394" t="s">
+      <c r="B4" s="387" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="394" t="s">
+      <c r="C4" s="387" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="394" t="s">
+      <c r="D4" s="387" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="394" t="s">
+      <c r="E4" s="387" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="394" t="s">
+      <c r="F4" s="387" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394" t="s">
+      <c r="G4" s="387"/>
+      <c r="H4" s="387" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="394" t="s">
+      <c r="I4" s="387" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="394" t="s">
+      <c r="J4" s="387" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="394"/>
-      <c r="L4" s="394" t="s">
+      <c r="K4" s="387"/>
+      <c r="L4" s="387" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="394"/>
-      <c r="N4" s="394" t="s">
+      <c r="M4" s="387"/>
+      <c r="N4" s="387" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="394"/>
-      <c r="P4" s="394" t="s">
+      <c r="O4" s="387"/>
+      <c r="P4" s="387" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="394"/>
-      <c r="R4" s="395" t="s">
+      <c r="Q4" s="387"/>
+      <c r="R4" s="388" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="395"/>
-      <c r="T4" s="395"/>
-      <c r="U4" s="394" t="s">
+      <c r="S4" s="388"/>
+      <c r="T4" s="388"/>
+      <c r="U4" s="387" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="394" t="s">
+      <c r="V4" s="387" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A5" s="394"/>
-      <c r="B5" s="394"/>
-      <c r="C5" s="394"/>
-      <c r="D5" s="394"/>
-      <c r="E5" s="394"/>
+      <c r="A5" s="387"/>
+      <c r="B5" s="387"/>
+      <c r="C5" s="387"/>
+      <c r="D5" s="387"/>
+      <c r="E5" s="387"/>
       <c r="F5" s="61" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="394"/>
-      <c r="I5" s="394"/>
+      <c r="H5" s="387"/>
+      <c r="I5" s="387"/>
       <c r="J5" s="61" t="s">
         <v>54</v>
       </c>
@@ -56597,8 +56597,8 @@
       <c r="T5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="394"/>
-      <c r="V5" s="394"/>
+      <c r="U5" s="387"/>
+      <c r="V5" s="387"/>
     </row>
     <row r="6" spans="1:29" ht="31.5">
       <c r="A6" s="16" t="s">
@@ -57199,83 +57199,83 @@
       <c r="V18"/>
     </row>
     <row r="19" spans="3:22" ht="409.6" customHeight="1" thickBot="1">
-      <c r="C19" s="387" t="s">
+      <c r="C19" s="385" t="s">
         <v>303</v>
       </c>
-      <c r="D19" s="387" t="s">
+      <c r="D19" s="385" t="s">
         <v>304</v>
       </c>
-      <c r="E19" s="387" t="s">
+      <c r="E19" s="385" t="s">
         <v>305</v>
       </c>
-      <c r="F19" s="389" t="s">
+      <c r="F19" s="392" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="390"/>
-      <c r="H19" s="387" t="s">
+      <c r="G19" s="393"/>
+      <c r="H19" s="385" t="s">
         <v>306</v>
       </c>
-      <c r="I19" s="387" t="s">
+      <c r="I19" s="385" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="387" t="s">
+      <c r="J19" s="385" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="387" t="s">
+      <c r="K19" s="385" t="s">
         <v>308</v>
       </c>
-      <c r="L19" s="387" t="s">
+      <c r="L19" s="385" t="s">
         <v>309</v>
       </c>
-      <c r="M19" s="387" t="s">
+      <c r="M19" s="385" t="s">
         <v>310</v>
       </c>
-      <c r="N19" s="387" t="s">
+      <c r="N19" s="385" t="s">
         <v>311</v>
       </c>
-      <c r="O19" s="389" t="s">
+      <c r="O19" s="392" t="s">
         <v>312</v>
       </c>
-      <c r="P19" s="390"/>
-      <c r="Q19" s="387" t="s">
+      <c r="P19" s="393"/>
+      <c r="Q19" s="385" t="s">
         <v>313</v>
       </c>
-      <c r="R19" s="391" t="s">
+      <c r="R19" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="392"/>
-      <c r="T19" s="393"/>
-      <c r="U19" s="387" t="s">
+      <c r="S19" s="395"/>
+      <c r="T19" s="396"/>
+      <c r="U19" s="385" t="s">
         <v>48</v>
       </c>
-      <c r="V19" s="387" t="s">
+      <c r="V19" s="385" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="3:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C20" s="388"/>
-      <c r="D20" s="388"/>
-      <c r="E20" s="388"/>
+      <c r="C20" s="386"/>
+      <c r="D20" s="386"/>
+      <c r="E20" s="386"/>
       <c r="F20" s="220" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="388"/>
-      <c r="I20" s="388"/>
-      <c r="J20" s="388"/>
-      <c r="K20" s="388"/>
-      <c r="L20" s="388"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="388"/>
+      <c r="H20" s="386"/>
+      <c r="I20" s="386"/>
+      <c r="J20" s="386"/>
+      <c r="K20" s="386"/>
+      <c r="L20" s="386"/>
+      <c r="M20" s="386"/>
+      <c r="N20" s="386"/>
       <c r="O20" s="220" t="s">
         <v>314</v>
       </c>
       <c r="P20" s="218" t="s">
         <v>315</v>
       </c>
-      <c r="Q20" s="388"/>
+      <c r="Q20" s="386"/>
       <c r="R20" s="220" t="s">
         <v>24</v>
       </c>
@@ -57285,32 +57285,32 @@
       <c r="T20" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="388"/>
-      <c r="V20" s="388"/>
+      <c r="U20" s="386"/>
+      <c r="V20" s="386"/>
     </row>
     <row r="21" spans="3:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C21" s="384" t="s">
+      <c r="C21" s="389" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="385"/>
-      <c r="E21" s="385"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="385"/>
-      <c r="H21" s="385"/>
-      <c r="I21" s="385"/>
-      <c r="J21" s="385"/>
-      <c r="K21" s="385"/>
-      <c r="L21" s="385"/>
-      <c r="M21" s="385"/>
-      <c r="N21" s="385"/>
-      <c r="O21" s="385"/>
-      <c r="P21" s="385"/>
-      <c r="Q21" s="385"/>
-      <c r="R21" s="385"/>
-      <c r="S21" s="385"/>
-      <c r="T21" s="385"/>
-      <c r="U21" s="385"/>
-      <c r="V21" s="386"/>
+      <c r="D21" s="390"/>
+      <c r="E21" s="390"/>
+      <c r="F21" s="390"/>
+      <c r="G21" s="390"/>
+      <c r="H21" s="390"/>
+      <c r="I21" s="390"/>
+      <c r="J21" s="390"/>
+      <c r="K21" s="390"/>
+      <c r="L21" s="390"/>
+      <c r="M21" s="390"/>
+      <c r="N21" s="390"/>
+      <c r="O21" s="390"/>
+      <c r="P21" s="390"/>
+      <c r="Q21" s="390"/>
+      <c r="R21" s="390"/>
+      <c r="S21" s="390"/>
+      <c r="T21" s="390"/>
+      <c r="U21" s="390"/>
+      <c r="V21" s="391"/>
     </row>
     <row r="22" spans="3:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="C22" s="221">
@@ -57526,6 +57526,22 @@
     <row r="151" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C21:V21"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="V19:V20"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="A4:A5"/>
@@ -57542,22 +57558,6 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C21:V21"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58916,53 +58916,53 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:22" ht="127.5" customHeight="1">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="400" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="399" t="s">
+      <c r="B4" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="402" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="402"/>
-      <c r="E4" s="399" t="s">
+      <c r="D4" s="403"/>
+      <c r="E4" s="400" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="399" t="s">
+      <c r="F4" s="400" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="399" t="s">
+      <c r="G4" s="400" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399" t="s">
+      <c r="H4" s="400"/>
+      <c r="I4" s="400" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="399"/>
-      <c r="K4" s="359" t="s">
+      <c r="J4" s="400"/>
+      <c r="K4" s="375" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="359"/>
-      <c r="M4" s="359"/>
-      <c r="N4" s="399" t="s">
+      <c r="L4" s="375"/>
+      <c r="M4" s="375"/>
+      <c r="N4" s="400" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="399" t="s">
+      <c r="O4" s="400" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="38.25" customHeight="1">
-      <c r="A5" s="399"/>
-      <c r="B5" s="399"/>
+      <c r="A5" s="400"/>
+      <c r="B5" s="400"/>
       <c r="C5" s="104" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
       <c r="G5" s="104" t="s">
         <v>54</v>
       </c>
@@ -58984,25 +58984,25 @@
       <c r="M5" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="399"/>
-      <c r="O5" s="399"/>
+      <c r="N5" s="400"/>
+      <c r="O5" s="400"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A6" s="400"/>
-      <c r="B6" s="400"/>
-      <c r="C6" s="400"/>
-      <c r="D6" s="400"/>
-      <c r="E6" s="400"/>
-      <c r="F6" s="400"/>
-      <c r="G6" s="400"/>
-      <c r="H6" s="400"/>
-      <c r="I6" s="400"/>
-      <c r="J6" s="400"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="400"/>
-      <c r="M6" s="400"/>
-      <c r="N6" s="400"/>
-      <c r="O6" s="400"/>
+      <c r="A6" s="401"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="401"/>
+      <c r="D6" s="401"/>
+      <c r="E6" s="401"/>
+      <c r="F6" s="401"/>
+      <c r="G6" s="401"/>
+      <c r="H6" s="401"/>
+      <c r="I6" s="401"/>
+      <c r="J6" s="401"/>
+      <c r="K6" s="401"/>
+      <c r="L6" s="401"/>
+      <c r="M6" s="401"/>
+      <c r="N6" s="401"/>
+      <c r="O6" s="401"/>
       <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:22" ht="32.1" customHeight="1">
@@ -59061,18 +59061,18 @@
       <c r="V7" s="63"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A8" s="396" t="s">
+      <c r="A8" s="397" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="397"/>
-      <c r="C8" s="397"/>
-      <c r="D8" s="397"/>
-      <c r="E8" s="397"/>
-      <c r="F8" s="397"/>
-      <c r="G8" s="397"/>
-      <c r="H8" s="397"/>
-      <c r="I8" s="397"/>
-      <c r="J8" s="398"/>
+      <c r="B8" s="398"/>
+      <c r="C8" s="398"/>
+      <c r="D8" s="398"/>
+      <c r="E8" s="398"/>
+      <c r="F8" s="398"/>
+      <c r="G8" s="398"/>
+      <c r="H8" s="398"/>
+      <c r="I8" s="398"/>
+      <c r="J8" s="399"/>
       <c r="K8" s="105">
         <f>SUM(K7:K7)</f>
         <v>65.577600000000018</v>
@@ -59282,7 +59282,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="94.5" thickBot="1">
-      <c r="A3" s="409" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="219" t="s">
@@ -59301,29 +59301,29 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A4" s="409"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="403" t="s">
+      <c r="C4" s="407" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="405"/>
-      <c r="E4" s="403" t="s">
+      <c r="D4" s="408"/>
+      <c r="E4" s="407" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="405"/>
+      <c r="F4" s="408"/>
       <c r="G4" s="225" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="226" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="403" t="s">
+      <c r="I4" s="407" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="404"/>
-      <c r="K4" s="405"/>
+      <c r="J4" s="409"/>
+      <c r="K4" s="408"/>
       <c r="L4" s="226" t="s">
         <v>42</v>
       </c>
@@ -59485,20 +59485,20 @@
       <c r="E21" s="155"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="409" t="s">
+      <c r="A22" s="404" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="410"/>
+      <c r="B22" s="405"/>
       <c r="C22" s="148"/>
-      <c r="D22" s="408"/>
-      <c r="E22" s="408"/>
+      <c r="D22" s="406"/>
+      <c r="E22" s="406"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="409"/>
-      <c r="B23" s="410"/>
+      <c r="A23" s="404"/>
+      <c r="B23" s="405"/>
       <c r="C23" s="148"/>
-      <c r="D23" s="408"/>
-      <c r="E23" s="408"/>
+      <c r="D23" s="406"/>
+      <c r="E23" s="406"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="148" t="s">
@@ -59506,8 +59506,8 @@
       </c>
       <c r="B24" s="153"/>
       <c r="C24" s="148"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="408"/>
+      <c r="D24" s="406"/>
+      <c r="E24" s="406"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="148" t="s">
@@ -59515,8 +59515,8 @@
       </c>
       <c r="B25" s="153"/>
       <c r="C25" s="148"/>
-      <c r="D25" s="408"/>
-      <c r="E25" s="408"/>
+      <c r="D25" s="406"/>
+      <c r="E25" s="406"/>
     </row>
     <row r="30" spans="1:13" ht="94.5" thickBot="1">
       <c r="B30" s="219" t="s">
@@ -59535,37 +59535,37 @@
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13" ht="60.75" customHeight="1" thickBot="1">
-      <c r="B31" s="387" t="s">
+      <c r="B31" s="385" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="403" t="s">
+      <c r="C31" s="407" t="s">
         <v>318</v>
       </c>
-      <c r="D31" s="405"/>
-      <c r="E31" s="403" t="s">
+      <c r="D31" s="408"/>
+      <c r="E31" s="407" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="405"/>
-      <c r="G31" s="406" t="s">
+      <c r="F31" s="408"/>
+      <c r="G31" s="410" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="387" t="s">
+      <c r="H31" s="385" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="403" t="s">
+      <c r="I31" s="407" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="404"/>
-      <c r="K31" s="405"/>
-      <c r="L31" s="387" t="s">
+      <c r="J31" s="409"/>
+      <c r="K31" s="408"/>
+      <c r="L31" s="385" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="387" t="s">
+      <c r="M31" s="385" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="33.75" thickBot="1">
-      <c r="B32" s="388"/>
+      <c r="B32" s="386"/>
       <c r="C32" s="218" t="s">
         <v>132</v>
       </c>
@@ -59578,8 +59578,8 @@
       <c r="F32" s="218" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="407"/>
-      <c r="H32" s="388"/>
+      <c r="G32" s="411"/>
+      <c r="H32" s="386"/>
       <c r="I32" s="218" t="s">
         <v>24</v>
       </c>
@@ -59589,8 +59589,8 @@
       <c r="K32" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="388"/>
-      <c r="M32" s="388"/>
+      <c r="L32" s="386"/>
+      <c r="M32" s="386"/>
     </row>
     <row r="33" spans="2:13" ht="16.5" thickBot="1">
       <c r="B33" s="221">
@@ -59632,13 +59632,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="I4:K4"/>
@@ -59650,6 +59643,13 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59689,20 +59689,20 @@
   <sheetData>
     <row r="1" spans="1:11" s="164" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:11" ht="100.5" customHeight="1">
-      <c r="A2" s="409"/>
+      <c r="A2" s="404"/>
       <c r="B2" s="412"/>
       <c r="C2" s="412"/>
       <c r="D2" s="412"/>
       <c r="E2" s="412"/>
       <c r="F2" s="412"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="414"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
       <c r="J2" s="412"/>
       <c r="K2" s="412"/>
     </row>
     <row r="3" spans="1:11" ht="108.75" customHeight="1">
-      <c r="A3" s="409"/>
+      <c r="A3" s="404"/>
       <c r="B3" s="413"/>
       <c r="C3" s="413"/>
       <c r="D3" s="413"/>
@@ -59759,7 +59759,7 @@
     <row r="13" spans="1:11" ht="16.5" thickBot="1">
       <c r="A13" s="88"/>
       <c r="B13" s="97"/>
-      <c r="D13" s="378" t="s">
+      <c r="D13" s="379" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="210">
@@ -59770,7 +59770,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1">
-      <c r="D14" s="411"/>
+      <c r="D14" s="414"/>
       <c r="E14" s="210">
         <v>4.5</v>
       </c>
@@ -59779,7 +59779,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1">
-      <c r="D15" s="411"/>
+      <c r="D15" s="414"/>
       <c r="E15" s="210">
         <v>61.8</v>
       </c>
@@ -59788,7 +59788,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickBot="1">
-      <c r="D16" s="379"/>
+      <c r="D16" s="380"/>
       <c r="E16" s="210">
         <v>33.4</v>
       </c>
@@ -59809,16 +59809,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59855,39 +59855,39 @@
       <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A2" s="415" t="s">
+      <c r="A2" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="415" t="s">
+      <c r="B2" s="416" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="415" t="s">
+      <c r="C2" s="416" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="415" t="s">
+      <c r="D2" s="416" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="415" t="s">
+      <c r="E2" s="416" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="415" t="s">
+      <c r="F2" s="416" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
-      <c r="I2" s="415" t="s">
+      <c r="G2" s="416"/>
+      <c r="H2" s="416"/>
+      <c r="I2" s="416" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="415" t="s">
+      <c r="J2" s="416" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A3" s="415"/>
-      <c r="B3" s="415"/>
-      <c r="C3" s="415"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="415"/>
+      <c r="A3" s="416"/>
+      <c r="B3" s="416"/>
+      <c r="C3" s="416"/>
+      <c r="D3" s="416"/>
+      <c r="E3" s="416"/>
       <c r="F3" s="71" t="s">
         <v>72</v>
       </c>
@@ -59897,20 +59897,20 @@
       <c r="H3" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="415"/>
-      <c r="J3" s="415"/>
+      <c r="I3" s="416"/>
+      <c r="J3" s="416"/>
     </row>
     <row r="4" spans="1:10" s="72" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="419"/>
-      <c r="B4" s="419"/>
-      <c r="C4" s="419"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
-      <c r="H4" s="419"/>
-      <c r="I4" s="419"/>
-      <c r="J4" s="419"/>
+      <c r="A4" s="420"/>
+      <c r="B4" s="420"/>
+      <c r="C4" s="420"/>
+      <c r="D4" s="420"/>
+      <c r="E4" s="420"/>
+      <c r="F4" s="420"/>
+      <c r="G4" s="420"/>
+      <c r="H4" s="420"/>
+      <c r="I4" s="420"/>
+      <c r="J4" s="420"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="71">
@@ -59949,13 +59949,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="420" t="s">
+      <c r="A6" s="421" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="420"/>
-      <c r="C6" s="420"/>
-      <c r="D6" s="420"/>
-      <c r="E6" s="420"/>
+      <c r="B6" s="421"/>
+      <c r="C6" s="421"/>
+      <c r="D6" s="421"/>
+      <c r="E6" s="421"/>
       <c r="F6" s="75">
         <f>F5</f>
         <v>9.1475999999999988</v>
@@ -59975,40 +59975,40 @@
       <c r="J6" s="76"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="416"/>
-      <c r="B11" s="416"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="416"/>
-      <c r="E11" s="416"/>
-      <c r="F11" s="416"/>
-      <c r="G11" s="416"/>
-      <c r="H11" s="416"/>
-      <c r="I11" s="416"/>
-      <c r="J11" s="416"/>
+      <c r="A11" s="417"/>
+      <c r="B11" s="417"/>
+      <c r="C11" s="417"/>
+      <c r="D11" s="417"/>
+      <c r="E11" s="417"/>
+      <c r="F11" s="417"/>
+      <c r="G11" s="417"/>
+      <c r="H11" s="417"/>
+      <c r="I11" s="417"/>
+      <c r="J11" s="417"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="416"/>
-      <c r="B12" s="416"/>
-      <c r="C12" s="416"/>
-      <c r="D12" s="416"/>
-      <c r="E12" s="416"/>
+      <c r="A12" s="417"/>
+      <c r="B12" s="417"/>
+      <c r="C12" s="417"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="417"/>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="416"/>
-      <c r="J12" s="416"/>
+      <c r="I12" s="417"/>
+      <c r="J12" s="417"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="417"/>
-      <c r="B13" s="417"/>
-      <c r="C13" s="417"/>
-      <c r="D13" s="417"/>
-      <c r="E13" s="417"/>
-      <c r="F13" s="417"/>
-      <c r="G13" s="417"/>
-      <c r="H13" s="417"/>
-      <c r="I13" s="417"/>
-      <c r="J13" s="417"/>
+      <c r="A13" s="418"/>
+      <c r="B13" s="418"/>
+      <c r="C13" s="418"/>
+      <c r="D13" s="418"/>
+      <c r="E13" s="418"/>
+      <c r="F13" s="418"/>
+      <c r="G13" s="418"/>
+      <c r="H13" s="418"/>
+      <c r="I13" s="418"/>
+      <c r="J13" s="418"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="77"/>
@@ -60023,11 +60023,11 @@
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="418"/>
-      <c r="B15" s="418"/>
-      <c r="C15" s="418"/>
-      <c r="D15" s="418"/>
-      <c r="E15" s="418"/>
+      <c r="A15" s="419"/>
+      <c r="B15" s="419"/>
+      <c r="C15" s="419"/>
+      <c r="D15" s="419"/>
+      <c r="E15" s="419"/>
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
@@ -60036,11 +60036,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="A13:J13"/>
@@ -60056,6 +60051,11 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -60298,7 +60298,7 @@
       </c>
     </row>
     <row r="17" spans="2:28" ht="48.75" customHeight="1">
-      <c r="B17" s="415" t="s">
+      <c r="B17" s="416" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="412" t="s">
@@ -60328,11 +60328,11 @@
       <c r="K17" s="412" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="414" t="s">
+      <c r="L17" s="415" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="414"/>
-      <c r="N17" s="414"/>
+      <c r="M17" s="415"/>
+      <c r="N17" s="415"/>
       <c r="O17" s="412" t="s">
         <v>96</v>
       </c>
@@ -60365,7 +60365,7 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="128.25" customHeight="1">
-      <c r="B18" s="415"/>
+      <c r="B18" s="416"/>
       <c r="C18" s="413"/>
       <c r="D18" s="413"/>
       <c r="E18" s="413"/>
@@ -60759,12 +60759,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
@@ -60772,6 +60766,12 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="O17:O18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
